--- a/src/app/scene/data/jupiter.xlsx
+++ b/src/app/scene/data/jupiter.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl03940s\Documents\GitHub\solar-system\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cl03940s\Documents\GitHub\solar-system\src\app\scene\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10884" windowHeight="3516"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10890" windowHeight="3510"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="736">
   <si>
     <t>Metis</t>
   </si>
@@ -614,12 +614,1653 @@
   <si>
     <t>var name</t>
   </si>
+  <si>
+    <t>421800.</t>
+  </si>
+  <si>
+    <t>84.129</t>
+  </si>
+  <si>
+    <t>342.021</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>43.977</t>
+  </si>
+  <si>
+    <t>203.4889583</t>
+  </si>
+  <si>
+    <t>1.769</t>
+  </si>
+  <si>
+    <t>671100.</t>
+  </si>
+  <si>
+    <t>88.970</t>
+  </si>
+  <si>
+    <t>171.016</t>
+  </si>
+  <si>
+    <t>0.466</t>
+  </si>
+  <si>
+    <t>219.106</t>
+  </si>
+  <si>
+    <t>101.3747242</t>
+  </si>
+  <si>
+    <t>3.551</t>
+  </si>
+  <si>
+    <t>1070400.</t>
+  </si>
+  <si>
+    <t>0.0013</t>
+  </si>
+  <si>
+    <t>192.417</t>
+  </si>
+  <si>
+    <t>317.540</t>
+  </si>
+  <si>
+    <t>0.177</t>
+  </si>
+  <si>
+    <t>63.552</t>
+  </si>
+  <si>
+    <t>50.3176072</t>
+  </si>
+  <si>
+    <t>7.155</t>
+  </si>
+  <si>
+    <t>1882700.</t>
+  </si>
+  <si>
+    <t>52.643</t>
+  </si>
+  <si>
+    <t>181.408</t>
+  </si>
+  <si>
+    <t>0.192</t>
+  </si>
+  <si>
+    <t>298.848</t>
+  </si>
+  <si>
+    <t>21.5710728</t>
+  </si>
+  <si>
+    <t>16.69</t>
+  </si>
+  <si>
+    <t>181400.</t>
+  </si>
+  <si>
+    <t>0.0032</t>
+  </si>
+  <si>
+    <t>155.873</t>
+  </si>
+  <si>
+    <t>185.194</t>
+  </si>
+  <si>
+    <t>0.380</t>
+  </si>
+  <si>
+    <t>108.946</t>
+  </si>
+  <si>
+    <t>722.6317143</t>
+  </si>
+  <si>
+    <t>0.498</t>
+  </si>
+  <si>
+    <t>221900.</t>
+  </si>
+  <si>
+    <t>0.0176</t>
+  </si>
+  <si>
+    <t>234.269</t>
+  </si>
+  <si>
+    <t>135.956</t>
+  </si>
+  <si>
+    <t>1.080</t>
+  </si>
+  <si>
+    <t>235.694</t>
+  </si>
+  <si>
+    <t>533.7002568</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>129000.</t>
+  </si>
+  <si>
+    <t>0.0018</t>
+  </si>
+  <si>
+    <t>328.047</t>
+  </si>
+  <si>
+    <t>135.673</t>
+  </si>
+  <si>
+    <t>0.054</t>
+  </si>
+  <si>
+    <t>228.378</t>
+  </si>
+  <si>
+    <t>1206.9988064</t>
+  </si>
+  <si>
+    <t>0.298</t>
+  </si>
+  <si>
+    <t>128000.</t>
+  </si>
+  <si>
+    <t>0.0012</t>
+  </si>
+  <si>
+    <t>297.177</t>
+  </si>
+  <si>
+    <t>276.047</t>
+  </si>
+  <si>
+    <t>146.912</t>
+  </si>
+  <si>
+    <t>1221.2545982</t>
+  </si>
+  <si>
+    <t>0.295</t>
+  </si>
+  <si>
+    <t>at.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>(km)</t>
+  </si>
+  <si>
+    <t>(deg)</t>
+  </si>
+  <si>
+    <t>(deg/day)</t>
+  </si>
+  <si>
+    <t>(days)</t>
+  </si>
+  <si>
+    <t>11460000.</t>
+  </si>
+  <si>
+    <t>0.1586</t>
+  </si>
+  <si>
+    <t>331.234</t>
+  </si>
+  <si>
+    <t>66.874</t>
+  </si>
+  <si>
+    <t>28.612</t>
+  </si>
+  <si>
+    <t>64.798</t>
+  </si>
+  <si>
+    <t>1.4367562</t>
+  </si>
+  <si>
+    <t>250.56</t>
+  </si>
+  <si>
+    <t>11740000.</t>
+  </si>
+  <si>
+    <t>0.2108</t>
+  </si>
+  <si>
+    <t>142.001</t>
+  </si>
+  <si>
+    <t>330.985</t>
+  </si>
+  <si>
+    <t>27.945</t>
+  </si>
+  <si>
+    <t>115.511</t>
+  </si>
+  <si>
+    <t>1.3865315</t>
+  </si>
+  <si>
+    <t>259.64</t>
+  </si>
+  <si>
+    <t>23629000.</t>
+  </si>
+  <si>
+    <t>0.4062</t>
+  </si>
+  <si>
+    <t>169.226</t>
+  </si>
+  <si>
+    <t>279.769</t>
+  </si>
+  <si>
+    <t>151.413</t>
+  </si>
+  <si>
+    <t>314.223</t>
+  </si>
+  <si>
+    <t>0.4841223</t>
+  </si>
+  <si>
+    <t>743.61</t>
+  </si>
+  <si>
+    <t>23942000.</t>
+  </si>
+  <si>
+    <t>0.2552</t>
+  </si>
+  <si>
+    <t>354.541</t>
+  </si>
+  <si>
+    <t>165.352</t>
+  </si>
+  <si>
+    <t>158.189</t>
+  </si>
+  <si>
+    <t>309.199</t>
+  </si>
+  <si>
+    <t>0.4743772</t>
+  </si>
+  <si>
+    <t>758.89</t>
+  </si>
+  <si>
+    <t>11717000.</t>
+  </si>
+  <si>
+    <t>0.1161</t>
+  </si>
+  <si>
+    <t>49.670</t>
+  </si>
+  <si>
+    <t>330.475</t>
+  </si>
+  <si>
+    <t>27.663</t>
+  </si>
+  <si>
+    <t>5.326</t>
+  </si>
+  <si>
+    <t>1.3888891</t>
+  </si>
+  <si>
+    <t>259.20</t>
+  </si>
+  <si>
+    <t>23401000.</t>
+  </si>
+  <si>
+    <t>0.2546</t>
+  </si>
+  <si>
+    <t>26.416</t>
+  </si>
+  <si>
+    <t>233.375</t>
+  </si>
+  <si>
+    <t>164.994</t>
+  </si>
+  <si>
+    <t>114.854</t>
+  </si>
+  <si>
+    <t>0.4903501</t>
+  </si>
+  <si>
+    <t>734.17</t>
+  </si>
+  <si>
+    <t>21254000.</t>
+  </si>
+  <si>
+    <t>0.2332</t>
+  </si>
+  <si>
+    <t>95.772</t>
+  </si>
+  <si>
+    <t>253.384</t>
+  </si>
+  <si>
+    <t>148.693</t>
+  </si>
+  <si>
+    <t>15.959</t>
+  </si>
+  <si>
+    <t>0.5716125</t>
+  </si>
+  <si>
+    <t>629.80</t>
+  </si>
+  <si>
+    <t>11164000.</t>
+  </si>
+  <si>
+    <t>0.1624</t>
+  </si>
+  <si>
+    <t>269.393</t>
+  </si>
+  <si>
+    <t>230.352</t>
+  </si>
+  <si>
+    <t>27.882</t>
+  </si>
+  <si>
+    <t>219.181</t>
+  </si>
+  <si>
+    <t>1.4942407</t>
+  </si>
+  <si>
+    <t>240.93</t>
+  </si>
+  <si>
+    <t>24099000.</t>
+  </si>
+  <si>
+    <t>0.2796</t>
+  </si>
+  <si>
+    <t>23.909</t>
+  </si>
+  <si>
+    <t>107.962</t>
+  </si>
+  <si>
+    <t>147.080</t>
+  </si>
+  <si>
+    <t>283.104</t>
+  </si>
+  <si>
+    <t>0.4744232</t>
+  </si>
+  <si>
+    <t>758.82</t>
+  </si>
+  <si>
+    <t>7504000.</t>
+  </si>
+  <si>
+    <t>0.2435</t>
+  </si>
+  <si>
+    <t>217.147</t>
+  </si>
+  <si>
+    <t>313.051</t>
+  </si>
+  <si>
+    <t>42.977</t>
+  </si>
+  <si>
+    <t>192.288</t>
+  </si>
+  <si>
+    <t>2.7688033</t>
+  </si>
+  <si>
+    <t>130.02</t>
+  </si>
+  <si>
+    <t>23814000.</t>
+  </si>
+  <si>
+    <t>0.4156</t>
+  </si>
+  <si>
+    <t>288.882</t>
+  </si>
+  <si>
+    <t>135.272</t>
+  </si>
+  <si>
+    <t>152.781</t>
+  </si>
+  <si>
+    <t>280.575</t>
+  </si>
+  <si>
+    <t>0.4781658</t>
+  </si>
+  <si>
+    <t>752.88</t>
+  </si>
+  <si>
+    <t>23363000.</t>
+  </si>
+  <si>
+    <t>0.2523</t>
+  </si>
+  <si>
+    <t>231.540</t>
+  </si>
+  <si>
+    <t>94.756</t>
+  </si>
+  <si>
+    <t>165.253</t>
+  </si>
+  <si>
+    <t>305.114</t>
+  </si>
+  <si>
+    <t>0.4915209</t>
+  </si>
+  <si>
+    <t>732.42</t>
+  </si>
+  <si>
+    <t>23181000.</t>
+  </si>
+  <si>
+    <t>0.2503</t>
+  </si>
+  <si>
+    <t>243.878</t>
+  </si>
+  <si>
+    <t>267.454</t>
+  </si>
+  <si>
+    <t>165.155</t>
+  </si>
+  <si>
+    <t>134.240</t>
+  </si>
+  <si>
+    <t>0.4974208</t>
+  </si>
+  <si>
+    <t>723.73</t>
+  </si>
+  <si>
+    <t>21106000.</t>
+  </si>
+  <si>
+    <t>0.2296</t>
+  </si>
+  <si>
+    <t>134.505</t>
+  </si>
+  <si>
+    <t>215.956</t>
+  </si>
+  <si>
+    <t>148.759</t>
+  </si>
+  <si>
+    <t>29.834</t>
+  </si>
+  <si>
+    <t>0.5775515</t>
+  </si>
+  <si>
+    <t>623.32</t>
+  </si>
+  <si>
+    <t>23565000.</t>
+  </si>
+  <si>
+    <t>0.2466</t>
+  </si>
+  <si>
+    <t>218.934</t>
+  </si>
+  <si>
+    <t>255.702</t>
+  </si>
+  <si>
+    <t>165.121</t>
+  </si>
+  <si>
+    <t>43.864</t>
+  </si>
+  <si>
+    <t>0.4851490</t>
+  </si>
+  <si>
+    <t>742.04</t>
+  </si>
+  <si>
+    <t>21272000.</t>
+  </si>
+  <si>
+    <t>0.2152</t>
+  </si>
+  <si>
+    <t>64.727</t>
+  </si>
+  <si>
+    <t>213.675</t>
+  </si>
+  <si>
+    <t>149.411</t>
+  </si>
+  <si>
+    <t>269.613</t>
+  </si>
+  <si>
+    <t>0.5699784</t>
+  </si>
+  <si>
+    <t>631.60</t>
+  </si>
+  <si>
+    <t>23286000.</t>
+  </si>
+  <si>
+    <t>0.2655</t>
+  </si>
+  <si>
+    <t>10.274</t>
+  </si>
+  <si>
+    <t>267.136</t>
+  </si>
+  <si>
+    <t>164.914</t>
+  </si>
+  <si>
+    <t>317.497</t>
+  </si>
+  <si>
+    <t>0.4941719</t>
+  </si>
+  <si>
+    <t>728.49</t>
+  </si>
+  <si>
+    <t>23231000.</t>
+  </si>
+  <si>
+    <t>0.2471</t>
+  </si>
+  <si>
+    <t>116.879</t>
+  </si>
+  <si>
+    <t>124.941</t>
+  </si>
+  <si>
+    <t>165.250</t>
+  </si>
+  <si>
+    <t>130.961</t>
+  </si>
+  <si>
+    <t>0.4956884</t>
+  </si>
+  <si>
+    <t>726.26</t>
+  </si>
+  <si>
+    <t>21148000.</t>
+  </si>
+  <si>
+    <t>0.2274</t>
+  </si>
+  <si>
+    <t>190.862</t>
+  </si>
+  <si>
+    <t>117.480</t>
+  </si>
+  <si>
+    <t>148.885</t>
+  </si>
+  <si>
+    <t>280.956</t>
+  </si>
+  <si>
+    <t>0.5756381</t>
+  </si>
+  <si>
+    <t>625.39</t>
+  </si>
+  <si>
+    <t>24037000.</t>
+  </si>
+  <si>
+    <t>0.3152</t>
+  </si>
+  <si>
+    <t>54.793</t>
+  </si>
+  <si>
+    <t>142.035</t>
+  </si>
+  <si>
+    <t>152.364</t>
+  </si>
+  <si>
+    <t>272.817</t>
+  </si>
+  <si>
+    <t>0.4730563</t>
+  </si>
+  <si>
+    <t>761.01</t>
+  </si>
+  <si>
+    <t>21197000.</t>
+  </si>
+  <si>
+    <t>0.2307</t>
+  </si>
+  <si>
+    <t>97.023</t>
+  </si>
+  <si>
+    <t>238.786</t>
+  </si>
+  <si>
+    <t>148.595</t>
+  </si>
+  <si>
+    <t>233.022</t>
+  </si>
+  <si>
+    <t>0.5739872</t>
+  </si>
+  <si>
+    <t>627.19</t>
+  </si>
+  <si>
+    <t>21297000.</t>
+  </si>
+  <si>
+    <t>0.2095</t>
+  </si>
+  <si>
+    <t>300.836</t>
+  </si>
+  <si>
+    <t>131.854</t>
+  </si>
+  <si>
+    <t>150.740</t>
+  </si>
+  <si>
+    <t>330.393</t>
+  </si>
+  <si>
+    <t>0.5679040</t>
+  </si>
+  <si>
+    <t>633.91</t>
+  </si>
+  <si>
+    <t>23317000.</t>
+  </si>
+  <si>
+    <t>0.2627</t>
+  </si>
+  <si>
+    <t>99.401</t>
+  </si>
+  <si>
+    <t>105.000</t>
+  </si>
+  <si>
+    <t>165.048</t>
+  </si>
+  <si>
+    <t>8.679</t>
+  </si>
+  <si>
+    <t>0.4930702</t>
+  </si>
+  <si>
+    <t>730.12</t>
+  </si>
+  <si>
+    <t>23146000.</t>
+  </si>
+  <si>
+    <t>0.2755</t>
+  </si>
+  <si>
+    <t>223.631</t>
+  </si>
+  <si>
+    <t>287.689</t>
+  </si>
+  <si>
+    <t>150.271</t>
+  </si>
+  <si>
+    <t>302.470</t>
+  </si>
+  <si>
+    <t>0.5018735</t>
+  </si>
+  <si>
+    <t>717.31</t>
+  </si>
+  <si>
+    <t>21039000.</t>
+  </si>
+  <si>
+    <t>0.2320</t>
+  </si>
+  <si>
+    <t>320.635</t>
+  </si>
+  <si>
+    <t>333.101</t>
+  </si>
+  <si>
+    <t>148.915</t>
+  </si>
+  <si>
+    <t>254.297</t>
+  </si>
+  <si>
+    <t>0.5802269</t>
+  </si>
+  <si>
+    <t>620.45</t>
+  </si>
+  <si>
+    <t>19336000.</t>
+  </si>
+  <si>
+    <t>0.1438</t>
+  </si>
+  <si>
+    <t>89.904</t>
+  </si>
+  <si>
+    <t>70.243</t>
+  </si>
+  <si>
+    <t>145.740</t>
+  </si>
+  <si>
+    <t>60.143</t>
+  </si>
+  <si>
+    <t>0.6537221</t>
+  </si>
+  <si>
+    <t>550.69</t>
+  </si>
+  <si>
+    <t>21158000.</t>
+  </si>
+  <si>
+    <t>0.2807</t>
+  </si>
+  <si>
+    <t>216.805</t>
+  </si>
+  <si>
+    <t>204.517</t>
+  </si>
+  <si>
+    <t>146.004</t>
+  </si>
+  <si>
+    <t>221.949</t>
+  </si>
+  <si>
+    <t>0.5782402</t>
+  </si>
+  <si>
+    <t>622.58</t>
+  </si>
+  <si>
+    <t>23790000.</t>
+  </si>
+  <si>
+    <t>0.3112</t>
+  </si>
+  <si>
+    <t>61.885</t>
+  </si>
+  <si>
+    <t>174.044</t>
+  </si>
+  <si>
+    <t>150.997</t>
+  </si>
+  <si>
+    <t>116.363</t>
+  </si>
+  <si>
+    <t>0.4810760</t>
+  </si>
+  <si>
+    <t>748.32</t>
+  </si>
+  <si>
+    <t>23306000.</t>
+  </si>
+  <si>
+    <t>0.2597</t>
+  </si>
+  <si>
+    <t>44.233</t>
+  </si>
+  <si>
+    <t>212.853</t>
+  </si>
+  <si>
+    <t>164.944</t>
+  </si>
+  <si>
+    <t>60.170</t>
+  </si>
+  <si>
+    <t>0.4934152</t>
+  </si>
+  <si>
+    <t>729.61</t>
+  </si>
+  <si>
+    <t>23091000.</t>
+  </si>
+  <si>
+    <t>0.2682</t>
+  </si>
+  <si>
+    <t>231.920</t>
+  </si>
+  <si>
+    <t>215.443</t>
+  </si>
+  <si>
+    <t>165.117</t>
+  </si>
+  <si>
+    <t>327.729</t>
+  </si>
+  <si>
+    <t>0.5003695</t>
+  </si>
+  <si>
+    <t>719.47</t>
+  </si>
+  <si>
+    <t>23575000.</t>
+  </si>
+  <si>
+    <t>0.3445</t>
+  </si>
+  <si>
+    <t>197.144</t>
+  </si>
+  <si>
+    <t>236.950</t>
+  </si>
+  <si>
+    <t>154.164</t>
+  </si>
+  <si>
+    <t>318.902</t>
+  </si>
+  <si>
+    <t>0.4866038</t>
+  </si>
+  <si>
+    <t>739.82</t>
+  </si>
+  <si>
+    <t>21033000.</t>
+  </si>
+  <si>
+    <t>0.2258</t>
+  </si>
+  <si>
+    <t>40.542</t>
+  </si>
+  <si>
+    <t>256.860</t>
+  </si>
+  <si>
+    <t>148.585</t>
+  </si>
+  <si>
+    <t>13.467</t>
+  </si>
+  <si>
+    <t>0.5806001</t>
+  </si>
+  <si>
+    <t>620.05</t>
+  </si>
+  <si>
+    <t>23974000.</t>
+  </si>
+  <si>
+    <t>0.4325</t>
+  </si>
+  <si>
+    <t>59.739</t>
+  </si>
+  <si>
+    <t>197.676</t>
+  </si>
+  <si>
+    <t>158.272</t>
+  </si>
+  <si>
+    <t>173.392</t>
+  </si>
+  <si>
+    <t>0.4728089</t>
+  </si>
+  <si>
+    <t>761.41</t>
+  </si>
+  <si>
+    <t>21160000.</t>
+  </si>
+  <si>
+    <t>0.2201</t>
+  </si>
+  <si>
+    <t>313.183</t>
+  </si>
+  <si>
+    <t>268.013</t>
+  </si>
+  <si>
+    <t>151.390</t>
+  </si>
+  <si>
+    <t>169.962</t>
+  </si>
+  <si>
+    <t>0.5732248</t>
+  </si>
+  <si>
+    <t>628.03</t>
+  </si>
+  <si>
+    <t>23352000.</t>
+  </si>
+  <si>
+    <t>0.2495</t>
+  </si>
+  <si>
+    <t>171.632</t>
+  </si>
+  <si>
+    <t>39.713</t>
+  </si>
+  <si>
+    <t>165.015</t>
+  </si>
+  <si>
+    <t>339.210</t>
+  </si>
+  <si>
+    <t>0.4918707</t>
+  </si>
+  <si>
+    <t>731.90</t>
+  </si>
+  <si>
+    <t>23276000.</t>
+  </si>
+  <si>
+    <t>0.2509</t>
+  </si>
+  <si>
+    <t>9.836</t>
+  </si>
+  <si>
+    <t>55.937</t>
+  </si>
+  <si>
+    <t>165.102</t>
+  </si>
+  <si>
+    <t>30.339</t>
+  </si>
+  <si>
+    <t>0.4943462</t>
+  </si>
+  <si>
+    <t>728.23</t>
+  </si>
+  <si>
+    <t>21065000.</t>
+  </si>
+  <si>
+    <t>0.1498</t>
+  </si>
+  <si>
+    <t>299.482</t>
+  </si>
+  <si>
+    <t>43.659</t>
+  </si>
+  <si>
+    <t>154.842</t>
+  </si>
+  <si>
+    <t>89.749</t>
+  </si>
+  <si>
+    <t>0.5747808</t>
+  </si>
+  <si>
+    <t>626.33</t>
+  </si>
+  <si>
+    <t>17056000.</t>
+  </si>
+  <si>
+    <t>0.4317</t>
+  </si>
+  <si>
+    <t>90.372</t>
+  </si>
+  <si>
+    <t>337.062</t>
+  </si>
+  <si>
+    <t>51.624</t>
+  </si>
+  <si>
+    <t>50.597</t>
+  </si>
+  <si>
+    <t>0.7889862</t>
+  </si>
+  <si>
+    <t>456.28</t>
+  </si>
+  <si>
+    <t>23323000.</t>
+  </si>
+  <si>
+    <t>0.2619</t>
+  </si>
+  <si>
+    <t>309.685</t>
+  </si>
+  <si>
+    <t>204.846</t>
+  </si>
+  <si>
+    <t>165.265</t>
+  </si>
+  <si>
+    <t>193.558</t>
+  </si>
+  <si>
+    <t>0.4929260</t>
+  </si>
+  <si>
+    <t>730.33</t>
+  </si>
+  <si>
+    <t>23800000.</t>
+  </si>
+  <si>
+    <t>0.4155</t>
+  </si>
+  <si>
+    <t>187.429</t>
+  </si>
+  <si>
+    <t>128.345</t>
+  </si>
+  <si>
+    <t>150.336</t>
+  </si>
+  <si>
+    <t>252.611</t>
+  </si>
+  <si>
+    <t>0.4787365</t>
+  </si>
+  <si>
+    <t>751.98</t>
+  </si>
+  <si>
+    <t>24482000.</t>
+  </si>
+  <si>
+    <t>0.3313</t>
+  </si>
+  <si>
+    <t>138.071</t>
+  </si>
+  <si>
+    <t>33.416</t>
+  </si>
+  <si>
+    <t>145.173</t>
+  </si>
+  <si>
+    <t>313.355</t>
+  </si>
+  <si>
+    <t>0.4634134</t>
+  </si>
+  <si>
+    <t>776.84</t>
+  </si>
+  <si>
+    <t>23408000.</t>
+  </si>
+  <si>
+    <t>0.2541</t>
+  </si>
+  <si>
+    <t>330.295</t>
+  </si>
+  <si>
+    <t>141.667</t>
+  </si>
+  <si>
+    <t>164.964</t>
+  </si>
+  <si>
+    <t>295.702</t>
+  </si>
+  <si>
+    <t>0.4901154</t>
+  </si>
+  <si>
+    <t>734.52</t>
+  </si>
+  <si>
+    <t>S/2000 J 11</t>
+  </si>
+  <si>
+    <t>12297000.</t>
+  </si>
+  <si>
+    <t>173.544</t>
+  </si>
+  <si>
+    <t>309.734</t>
+  </si>
+  <si>
+    <t>28.631</t>
+  </si>
+  <si>
+    <t>294.497</t>
+  </si>
+  <si>
+    <t>1.2939791</t>
+  </si>
+  <si>
+    <t>278.21</t>
+  </si>
+  <si>
+    <t>28347000.</t>
+  </si>
+  <si>
+    <t>0.4100</t>
+  </si>
+  <si>
+    <t>165.201</t>
+  </si>
+  <si>
+    <t>237.932</t>
+  </si>
+  <si>
+    <t>157.291</t>
+  </si>
+  <si>
+    <t>344.782</t>
+  </si>
+  <si>
+    <t>0.3671484</t>
+  </si>
+  <si>
+    <t>980.53</t>
+  </si>
+  <si>
+    <t>S/2003 J 3</t>
+  </si>
+  <si>
+    <t>20221000.</t>
+  </si>
+  <si>
+    <t>0.1969</t>
+  </si>
+  <si>
+    <t>66.338</t>
+  </si>
+  <si>
+    <t>311.780</t>
+  </si>
+  <si>
+    <t>147.547</t>
+  </si>
+  <si>
+    <t>231.489</t>
+  </si>
+  <si>
+    <t>0.6165779</t>
+  </si>
+  <si>
+    <t>583.87</t>
+  </si>
+  <si>
+    <t>23929000.</t>
+  </si>
+  <si>
+    <t>0.3624</t>
+  </si>
+  <si>
+    <t>197.401</t>
+  </si>
+  <si>
+    <t>260.480</t>
+  </si>
+  <si>
+    <t>149.589</t>
+  </si>
+  <si>
+    <t>179.131</t>
+  </si>
+  <si>
+    <t>0.4766663</t>
+  </si>
+  <si>
+    <t>755.25</t>
+  </si>
+  <si>
+    <t>S/2003 J 5</t>
+  </si>
+  <si>
+    <t>23495000.</t>
+  </si>
+  <si>
+    <t>0.2476</t>
+  </si>
+  <si>
+    <t>90.066</t>
+  </si>
+  <si>
+    <t>336.636</t>
+  </si>
+  <si>
+    <t>165.248</t>
+  </si>
+  <si>
+    <t>176.683</t>
+  </si>
+  <si>
+    <t>0.4873118</t>
+  </si>
+  <si>
+    <t>738.75</t>
+  </si>
+  <si>
+    <t>23385000.</t>
+  </si>
+  <si>
+    <t>0.2632</t>
+  </si>
+  <si>
+    <t>292.662</t>
+  </si>
+  <si>
+    <t>348.415</t>
+  </si>
+  <si>
+    <t>165.047</t>
+  </si>
+  <si>
+    <t>44.321</t>
+  </si>
+  <si>
+    <t>0.4909185</t>
+  </si>
+  <si>
+    <t>733.32</t>
+  </si>
+  <si>
+    <t>23042000.</t>
+  </si>
+  <si>
+    <t>0.4299</t>
+  </si>
+  <si>
+    <t>170.833</t>
+  </si>
+  <si>
+    <t>258.937</t>
+  </si>
+  <si>
+    <t>165.073</t>
+  </si>
+  <si>
+    <t>151.911</t>
+  </si>
+  <si>
+    <t>0.5026172</t>
+  </si>
+  <si>
+    <t>716.25</t>
+  </si>
+  <si>
+    <t>17830000.</t>
+  </si>
+  <si>
+    <t>0.4904</t>
+  </si>
+  <si>
+    <t>13.288</t>
+  </si>
+  <si>
+    <t>38.543</t>
+  </si>
+  <si>
+    <t>151.003</t>
+  </si>
+  <si>
+    <t>65.530</t>
+  </si>
+  <si>
+    <t>0.7351860</t>
+  </si>
+  <si>
+    <t>489.67</t>
+  </si>
+  <si>
+    <t>S/2003 J 15</t>
+  </si>
+  <si>
+    <t>22627000.</t>
+  </si>
+  <si>
+    <t>0.1899</t>
+  </si>
+  <si>
+    <t>18.405</t>
+  </si>
+  <si>
+    <t>58.865</t>
+  </si>
+  <si>
+    <t>146.492</t>
+  </si>
+  <si>
+    <t>236.674</t>
+  </si>
+  <si>
+    <t>0.5219082</t>
+  </si>
+  <si>
+    <t>689.78</t>
+  </si>
+  <si>
+    <t>21097000.</t>
+  </si>
+  <si>
+    <t>0.2281</t>
+  </si>
+  <si>
+    <t>57.681</t>
+  </si>
+  <si>
+    <t>307.563</t>
+  </si>
+  <si>
+    <t>148.683</t>
+  </si>
+  <si>
+    <t>16.883</t>
+  </si>
+  <si>
+    <t>0.5779589</t>
+  </si>
+  <si>
+    <t>622.88</t>
+  </si>
+  <si>
+    <t>20508000.</t>
+  </si>
+  <si>
+    <t>0.0895</t>
+  </si>
+  <si>
+    <t>130.894</t>
+  </si>
+  <si>
+    <t>202.160</t>
+  </si>
+  <si>
+    <t>146.077</t>
+  </si>
+  <si>
+    <t>158.247</t>
+  </si>
+  <si>
+    <t>0.6018719</t>
+  </si>
+  <si>
+    <t>598.13</t>
+  </si>
+  <si>
+    <t>23533000.</t>
+  </si>
+  <si>
+    <t>176.668</t>
+  </si>
+  <si>
+    <t>223.035</t>
+  </si>
+  <si>
+    <t>165.116</t>
+  </si>
+  <si>
+    <t>27.442</t>
+  </si>
+  <si>
+    <t>0.4862156</t>
+  </si>
+  <si>
+    <t>740.41</t>
+  </si>
+  <si>
+    <t>23567000.</t>
+  </si>
+  <si>
+    <t>0.2746</t>
+  </si>
+  <si>
+    <t>255.114</t>
+  </si>
+  <si>
+    <t>144.222</t>
+  </si>
+  <si>
+    <t>146.424</t>
+  </si>
+  <si>
+    <t>41.706</t>
+  </si>
+  <si>
+    <t>0.4914942</t>
+  </si>
+  <si>
+    <t>732.46</t>
+  </si>
+  <si>
+    <t>23449000.</t>
+  </si>
+  <si>
+    <t>0.2491</t>
+  </si>
+  <si>
+    <t>189.230</t>
+  </si>
+  <si>
+    <t>160.525</t>
+  </si>
+  <si>
+    <t>165.100</t>
+  </si>
+  <si>
+    <t>282.871</t>
+  </si>
+  <si>
+    <t>0.4887995</t>
+  </si>
+  <si>
+    <t>736.50</t>
+  </si>
+  <si>
+    <t>21004000.</t>
+  </si>
+  <si>
+    <t>0.2267</t>
+  </si>
+  <si>
+    <t>18.252</t>
+  </si>
+  <si>
+    <t>312.074</t>
+  </si>
+  <si>
+    <t>148.673</t>
+  </si>
+  <si>
+    <t>5.802</t>
+  </si>
+  <si>
+    <t>0.5817371</t>
+  </si>
+  <si>
+    <t>618.84</t>
+  </si>
+  <si>
+    <t>23446000.</t>
+  </si>
+  <si>
+    <t>0.2534</t>
+  </si>
+  <si>
+    <t>31.514</t>
+  </si>
+  <si>
+    <t>256.027</t>
+  </si>
+  <si>
+    <t>165.318</t>
+  </si>
+  <si>
+    <t>250.728</t>
+  </si>
+  <si>
+    <t>0.4888998</t>
+  </si>
+  <si>
+    <t>736.35</t>
+  </si>
+  <si>
+    <t>23124000.</t>
+  </si>
+  <si>
+    <t>0.3493</t>
+  </si>
+  <si>
+    <t>270.154</t>
+  </si>
+  <si>
+    <t>285.597</t>
+  </si>
+  <si>
+    <t>153.597</t>
+  </si>
+  <si>
+    <t>24.866</t>
+  </si>
+  <si>
+    <t>0.5011321</t>
+  </si>
+  <si>
+    <t>718.37</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,8 +2310,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,6 +2377,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEAECF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEEEEE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,7 +2441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -845,12 +2512,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -882,12 +2543,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -917,6 +2572,39 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1199,27 +2887,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:P153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.6640625" style="30" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="28" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="45" t="s">
         <v>92</v>
       </c>
       <c r="D1" s="23" t="s">
@@ -1232,12 +2921,12 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="22" t="s">
         <v>94</v>
       </c>
@@ -1247,6 +2936,9 @@
       <c r="F2" s="22" t="s">
         <v>98</v>
       </c>
+      <c r="G2" t="s">
+        <v>253</v>
+      </c>
       <c r="H2" t="s">
         <v>188</v>
       </c>
@@ -1263,14 +2955,14 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="35">
         <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1281,6 +2973,10 @@
       </c>
       <c r="F3" s="2" t="s">
         <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IFERROR(VLOOKUP(B3,$B$87:$J$153,5,FALSE),"null")</f>
+        <v>276.047</v>
       </c>
       <c r="H3" t="str">
         <f>UPPER(SUBSTITUTE(SUBSTITUTE(B3," ","_"),"/","_"))</f>
@@ -1290,7 +2986,7 @@
         <f>LOWER(SUBSTITUTE(SUBSTITUTE(B3," ","-"),"/","/"))</f>
         <v>metis</v>
       </c>
-      <c r="J3" s="30" t="str">
+      <c r="J3" s="28" t="str">
         <f>SUBSTITUTE(C3/2,",",".")</f>
         <v>21.5</v>
       </c>
@@ -1335,14 +3031,14 @@
 };</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="35">
         <v>16.399999999999999</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1354,24 +3050,28 @@
       <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G67" si="0">IFERROR(VLOOKUP(B4,$B$87:$J$153,5,FALSE),"null")</f>
+        <v>135.673</v>
+      </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H67" si="0">UPPER(SUBSTITUTE(SUBSTITUTE(B4," ","_"),"/","_"))</f>
+        <f t="shared" ref="H4:H67" si="1">UPPER(SUBSTITUTE(SUBSTITUTE(B4," ","_"),"/","_"))</f>
         <v>ADRASTEA</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I67" si="1">LOWER(SUBSTITUTE(SUBSTITUTE(B4," ","-"),"/","/"))</f>
+        <f t="shared" ref="I4:I67" si="2">LOWER(SUBSTITUTE(SUBSTITUTE(B4," ","-"),"/","/"))</f>
         <v>adrastea</v>
       </c>
-      <c r="J4" s="30" t="str">
-        <f t="shared" ref="J4:J67" si="2">SUBSTITUTE(C4/2,",",".")</f>
+      <c r="J4" s="28" t="str">
+        <f t="shared" ref="J4:J67" si="3">SUBSTITUTE(C4/2,",",".")</f>
         <v>8.2</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ref="K4:K67" si="3">CONCATENATE(D4,"e16")</f>
+        <f t="shared" ref="K4:K67" si="4">CONCATENATE(D4,"e16")</f>
         <v>0.2e16</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L4:L67" si="4">"export const " &amp; H4 &amp; ": CelestialBody = {
+        <f t="shared" ref="L4:L67" si="5">"export const " &amp; H4 &amp; ": CelestialBody = {
   id: '" &amp; I4 &amp; "',
   position: {
     x: 0,
@@ -1407,14 +3107,14 @@
 };</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="35">
         <v>167</v>
       </c>
       <c r="D5" s="2">
@@ -1426,24 +3126,28 @@
       <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>185.194</v>
+      </c>
       <c r="H5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AMALTHEA</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>amalthea</v>
       </c>
-      <c r="J5" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J5" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>83.5</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>208e16</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const AMALTHEA: CelestialBody = {
   id: 'amalthea',
   position: {
@@ -1463,14 +3167,14 @@
 };</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="35">
         <v>98.6</v>
       </c>
       <c r="D6" s="2">
@@ -1482,24 +3186,28 @@
       <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>135.956</v>
+      </c>
       <c r="H6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>THEBE</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>thebe</v>
       </c>
-      <c r="J6" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J6" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>49.3</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43e16</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const THEBE: CelestialBody = {
   id: 'thebe',
   position: {
@@ -1519,14 +3227,14 @@
 };</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="36">
         <v>3643.2</v>
       </c>
       <c r="D7" s="4">
@@ -1538,24 +3246,28 @@
       <c r="F7" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>342.021</v>
+      </c>
       <c r="H7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>IO</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>io</v>
       </c>
-      <c r="J7" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J7" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1821.6</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8931900e16</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const IO: CelestialBody = {
   id: 'io',
   position: {
@@ -1575,14 +3287,14 @@
 };</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="36">
         <v>3121.6</v>
       </c>
       <c r="D8" s="4">
@@ -1594,24 +3306,28 @@
       <c r="F8" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>171.016</v>
+      </c>
       <c r="H8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EUROPA</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>europa</v>
       </c>
-      <c r="J8" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J8" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1560.8</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4800000e16</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const EUROPA: CelestialBody = {
   id: 'europa',
   position: {
@@ -1631,14 +3347,14 @@
 };</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="40">
+      <c r="C9" s="36">
         <v>5262.4</v>
       </c>
       <c r="D9" s="4">
@@ -1650,24 +3366,28 @@
       <c r="F9" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>317.540</v>
+      </c>
       <c r="H9" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>GANYMEDE</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ganymede</v>
       </c>
-      <c r="J9" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J9" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>2631.2</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14819000e16</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const GANYMEDE: CelestialBody = {
   id: 'ganymede',
   position: {
@@ -1687,14 +3407,14 @@
 };</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="36">
         <v>4820.6000000000004</v>
       </c>
       <c r="D10" s="4">
@@ -1706,24 +3426,28 @@
       <c r="F10" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>181.408</v>
+      </c>
       <c r="H10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CALLISTO</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>callisto</v>
       </c>
-      <c r="J10" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J10" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>2410.3</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10759000e16</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const CALLISTO: CelestialBody = {
   id: 'callisto',
   position: {
@@ -1743,14 +3467,14 @@
 };</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="41">
+      <c r="C11" s="37">
         <v>9</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -1762,24 +3486,28 @@
       <c r="F11" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>313.051</v>
+      </c>
       <c r="H11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>THEMISTO</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>themisto</v>
       </c>
-      <c r="J11" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J11" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.069e16</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const THEMISTO: CelestialBody = {
   id: 'themisto',
   position: {
@@ -1799,14 +3527,14 @@
 };</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="38">
         <v>21.5</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -1818,24 +3546,28 @@
       <c r="F12" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>230.352</v>
+      </c>
       <c r="H12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LEDA</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>leda</v>
       </c>
-      <c r="J12" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J12" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>10.75</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.6e16</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const LEDA: CelestialBody = {
   id: 'leda',
   position: {
@@ -1855,14 +3587,14 @@
 };</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>11</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="C13" s="43">
+      <c r="C13" s="39">
         <v>3</v>
       </c>
       <c r="D13" s="10" t="s">
@@ -1874,24 +3606,28 @@
       <c r="F13" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
       <c r="H13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ERSA</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ersa</v>
       </c>
-      <c r="J13" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J13" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0045e16</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const ERSA: CelestialBody = {
   id: 'ersa',
   position: {
@@ -1911,14 +3647,14 @@
 };</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>12</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="43">
+      <c r="C14" s="39">
         <v>3</v>
       </c>
       <c r="D14" s="10" t="s">
@@ -1930,24 +3666,28 @@
       <c r="F14" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
       <c r="H14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PANDIA</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pandia</v>
       </c>
-      <c r="J14" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J14" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0045e16</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const PANDIA: CelestialBody = {
   id: 'pandia',
   position: {
@@ -1967,14 +3707,14 @@
 };</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="42">
+      <c r="C15" s="38">
         <v>139.6</v>
       </c>
       <c r="D15" s="8">
@@ -1986,24 +3726,28 @@
       <c r="F15" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>66.874</v>
+      </c>
       <c r="H15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HIMALIA</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>himalia</v>
       </c>
-      <c r="J15" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J15" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>69.8</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>420e16</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const HIMALIA: CelestialBody = {
   id: 'himalia',
   position: {
@@ -2023,14 +3767,14 @@
 };</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="42">
+      <c r="C16" s="38">
         <v>42.2</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -2042,24 +3786,28 @@
       <c r="F16" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>330.475</v>
+      </c>
       <c r="H16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>LYSITHEA</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>lysithea</v>
       </c>
-      <c r="J16" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J16" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>21.1</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.3e16</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const LYSITHEA: CelestialBody = {
   id: 'lysithea',
   position: {
@@ -2079,14 +3827,14 @@
 };</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>15</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="42">
+      <c r="C17" s="38">
         <v>79.900000000000006</v>
       </c>
       <c r="D17" s="8">
@@ -2098,24 +3846,28 @@
       <c r="F17" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>330.985</v>
+      </c>
       <c r="H17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ELARA</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>elara</v>
       </c>
-      <c r="J17" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J17" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>39.95</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>87e16</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const ELARA: CelestialBody = {
   id: 'elara',
   position: {
@@ -2135,14 +3887,14 @@
 };</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>16</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="39">
         <v>4</v>
       </c>
       <c r="D18" s="10" t="s">
@@ -2154,24 +3906,28 @@
       <c r="F18" s="10" t="s">
         <v>21</v>
       </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
       <c r="H18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DIA</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>dia</v>
       </c>
-      <c r="J18" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J18" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.009e16</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const DIA: CelestialBody = {
   id: 'dia',
   position: {
@@ -2191,14 +3947,14 @@
 };</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>17</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="40">
         <v>3</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -2210,24 +3966,28 @@
       <c r="F19" s="12" t="s">
         <v>22</v>
       </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>337.062</v>
+      </c>
       <c r="H19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CARPO</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>carpo</v>
       </c>
-      <c r="J19" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J19" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0045e16</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const CARPO: CelestialBody = {
   id: 'carpo',
   position: {
@@ -2247,14 +4007,14 @@
 };</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>18</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="40">
         <v>1</v>
       </c>
       <c r="D20" s="12" t="s">
@@ -2266,24 +4026,28 @@
       <c r="F20" s="12" t="s">
         <v>24</v>
       </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
       <c r="H20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>VALETUDO</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>valetudo</v>
       </c>
-      <c r="J20" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J20" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.00015e16</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const VALETUDO: CelestialBody = {
   id: 'valetudo',
   position: {
@@ -2303,14 +4067,14 @@
 };</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>19</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="41">
         <v>2</v>
       </c>
       <c r="D21" s="14" t="s">
@@ -2322,24 +4086,28 @@
       <c r="F21" s="14" t="s">
         <v>26</v>
       </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>70.243</v>
+      </c>
       <c r="H21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EUPORIE</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>euporie</v>
       </c>
-      <c r="J21" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J21" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const EUPORIE: CelestialBody = {
   id: 'euporie',
   position: {
@@ -2359,14 +4127,14 @@
 };</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>20</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="41">
         <v>2</v>
       </c>
       <c r="D22" s="14" t="s">
@@ -2378,24 +4146,28 @@
       <c r="F22" s="14" t="s">
         <v>28</v>
       </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
       <c r="H22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EUPHEME</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>eupheme</v>
       </c>
-      <c r="J22" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J22" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const EUPHEME: CelestialBody = {
   id: 'eupheme',
   position: {
@@ -2415,14 +4187,14 @@
 };</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>21</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="41">
         <v>2</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -2434,24 +4206,28 @@
       <c r="F23" s="14" t="s">
         <v>29</v>
       </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>202.160</v>
+      </c>
       <c r="H23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S_2003_J_18</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>s/2003-j-18</v>
       </c>
-      <c r="J23" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J23" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const S_2003_J_18: CelestialBody = {
   id: 's/2003-j-18',
   position: {
@@ -2471,14 +4247,14 @@
 };</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>22</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="41">
         <v>1</v>
       </c>
       <c r="D24" s="14" t="s">
@@ -2490,24 +4266,28 @@
       <c r="F24" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>312.074</v>
+      </c>
       <c r="H24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S_2010_J_2</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>s/2010-j-2</v>
       </c>
-      <c r="J24" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J24" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.00015e16</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const S_2010_J_2: CelestialBody = {
   id: 's/2010-j-2',
   position: {
@@ -2527,14 +4307,14 @@
 };</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>23</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="41">
         <v>4</v>
       </c>
       <c r="D25" s="14" t="s">
@@ -2546,24 +4326,28 @@
       <c r="F25" s="14" t="s">
         <v>31</v>
       </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>43.659</v>
+      </c>
       <c r="H25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HELIKE</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>helike</v>
       </c>
-      <c r="J25" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J25" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.009e16</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const HELIKE: CelestialBody = {
   id: 'helike',
   position: {
@@ -2583,14 +4367,14 @@
 };</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>24</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="41">
         <v>2</v>
       </c>
       <c r="D26" s="14" t="s">
@@ -2602,24 +4386,28 @@
       <c r="F26" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>307.563</v>
+      </c>
       <c r="H26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S_2003_J_16</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>s/2003-j-16</v>
       </c>
-      <c r="J26" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J26" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const S_2003_J_16: CelestialBody = {
   id: 's/2003-j-16',
   position: {
@@ -2639,14 +4427,14 @@
 };</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>25</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="45">
+      <c r="C27" s="41">
         <v>2</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -2658,24 +4446,28 @@
       <c r="F27" s="14" t="s">
         <v>33</v>
       </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>237.932</v>
+      </c>
       <c r="H27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S_2003_J_2</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>s/2003-j-2</v>
       </c>
-      <c r="J27" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J27" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const S_2003_J_2: CelestialBody = {
   id: 's/2003-j-2',
   position: {
@@ -2695,14 +4487,14 @@
 };</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>26</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="41">
         <v>3</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -2714,24 +4506,28 @@
       <c r="F28" s="14" t="s">
         <v>34</v>
       </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>333.101</v>
+      </c>
       <c r="H28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EUANTHE</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>euanthe</v>
       </c>
-      <c r="J28" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J28" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0045e16</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const EUANTHE: CelestialBody = {
   id: 'euanthe',
   position: {
@@ -2751,14 +4547,14 @@
 };</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>27</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="45">
+      <c r="C29" s="41">
         <v>2</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -2770,24 +4566,28 @@
       <c r="F29" s="14" t="s">
         <v>35</v>
       </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
       <c r="H29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S_2017_J_7</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>s/2017-j-7</v>
       </c>
-      <c r="J29" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J29" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const S_2017_J_7: CelestialBody = {
   id: 's/2017-j-7',
   position: {
@@ -2807,14 +4607,14 @@
 };</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>28</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="45">
+      <c r="C30" s="41">
         <v>4</v>
       </c>
       <c r="D30" s="14" t="s">
@@ -2826,24 +4626,28 @@
       <c r="F30" s="14" t="s">
         <v>36</v>
       </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>131.854</v>
+      </c>
       <c r="H30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HERMIPPE</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>hermippe</v>
       </c>
-      <c r="J30" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J30" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.009e16</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const HERMIPPE: CelestialBody = {
   id: 'hermippe',
   position: {
@@ -2863,14 +4667,14 @@
 };</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>29</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="45">
+      <c r="C31" s="41">
         <v>7</v>
       </c>
       <c r="D31" s="14" t="s">
@@ -2882,24 +4686,28 @@
       <c r="F31" s="14" t="s">
         <v>37</v>
       </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>117.480</v>
+      </c>
       <c r="H31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PRAXIDIKE</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>praxidike</v>
       </c>
-      <c r="J31" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J31" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.043e16</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const PRAXIDIKE: CelestialBody = {
   id: 'praxidike',
   position: {
@@ -2919,14 +4727,14 @@
 };</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>30</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="45">
+      <c r="C32" s="41">
         <v>4</v>
       </c>
       <c r="D32" s="14" t="s">
@@ -2938,24 +4746,28 @@
       <c r="F32" s="14" t="s">
         <v>38</v>
       </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>238.786</v>
+      </c>
       <c r="H32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>THYONE</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>thyone</v>
       </c>
-      <c r="J32" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J32" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.009e16</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const THYONE: CelestialBody = {
   id: 'thyone',
   position: {
@@ -2975,14 +4787,14 @@
 };</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>31</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="45">
+      <c r="C33" s="41">
         <v>2</v>
       </c>
       <c r="D33" s="14" t="s">
@@ -2994,24 +4806,28 @@
       <c r="F33" s="14" t="s">
         <v>39</v>
       </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>268.013</v>
+      </c>
       <c r="H33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>THELXINOE</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>thelxinoe</v>
       </c>
-      <c r="J33" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J33" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const THELXINOE: CelestialBody = {
   id: 'thelxinoe',
   position: {
@@ -3031,14 +4847,14 @@
 };</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>32</v>
       </c>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="45">
+      <c r="C34" s="41">
         <v>2</v>
       </c>
       <c r="D34" s="14" t="s">
@@ -3050,24 +4866,28 @@
       <c r="F34" s="14" t="s">
         <v>40</v>
       </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
       <c r="H34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S_2017_J_3</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>s/2017-j-3</v>
       </c>
-      <c r="J34" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J34" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const S_2017_J_3: CelestialBody = {
   id: 's/2017-j-3',
   position: {
@@ -3087,14 +4907,14 @@
 };</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>33</v>
       </c>
-      <c r="B35" s="34" t="s">
+      <c r="B35" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="46">
+      <c r="C35" s="42">
         <v>29.1</v>
       </c>
       <c r="D35" s="16" t="s">
@@ -3106,24 +4926,28 @@
       <c r="F35" s="16" t="s">
         <v>41</v>
       </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>253.384</v>
+      </c>
       <c r="H35" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ANANKE</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>ananke</v>
       </c>
-      <c r="J35" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J35" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>14.55</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.0e16</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const ANANKE: CelestialBody = {
   id: 'ananke',
   position: {
@@ -3143,14 +4967,14 @@
 };</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <v>34</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="46">
+      <c r="C36" s="42">
         <v>2</v>
       </c>
       <c r="D36" s="16" t="s">
@@ -3162,24 +4986,28 @@
       <c r="F36" s="16" t="s">
         <v>42</v>
       </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>256.860</v>
+      </c>
       <c r="H36" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>MNEME</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>mneme</v>
       </c>
-      <c r="J36" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J36" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const MNEME: CelestialBody = {
   id: 'mneme',
   position: {
@@ -3199,14 +5027,14 @@
 };</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>35</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B37" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="45">
+      <c r="C37" s="41">
         <v>1</v>
       </c>
       <c r="D37" s="14" t="s">
@@ -3218,24 +5046,28 @@
       <c r="F37" s="14" t="s">
         <v>43</v>
       </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
       <c r="H37" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S_2016_J_1</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>s/2016-j-1</v>
       </c>
-      <c r="J37" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J37" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.00015e16</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const S_2016_J_1: CelestialBody = {
   id: 's/2016-j-1',
   position: {
@@ -3255,14 +5087,14 @@
 };</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>36</v>
       </c>
-      <c r="B38" s="28" t="s">
+      <c r="B38" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="C38" s="45">
+      <c r="C38" s="41">
         <v>2</v>
       </c>
       <c r="D38" s="14" t="s">
@@ -3274,24 +5106,28 @@
       <c r="F38" s="14" t="s">
         <v>44</v>
       </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>204.517</v>
+      </c>
       <c r="H38" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ORTHOSIE</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>orthosie</v>
       </c>
-      <c r="J38" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J38" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const ORTHOSIE: CelestialBody = {
   id: 'orthosie',
   position: {
@@ -3311,14 +5147,14 @@
 };</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>37</v>
       </c>
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="C39" s="45">
+      <c r="C39" s="41">
         <v>4</v>
       </c>
       <c r="D39" s="14" t="s">
@@ -3330,24 +5166,28 @@
       <c r="F39" s="14" t="s">
         <v>45</v>
       </c>
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v>215.956</v>
+      </c>
       <c r="H39" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HARPALYKE</v>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>harpalyke</v>
       </c>
-      <c r="J39" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J39" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.009e16</v>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const HARPALYKE: CelestialBody = {
   id: 'harpalyke',
   position: {
@@ -3367,14 +5207,14 @@
 };</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>38</v>
       </c>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="C40" s="45">
+      <c r="C40" s="41">
         <v>5</v>
       </c>
       <c r="D40" s="14" t="s">
@@ -3386,24 +5226,28 @@
       <c r="F40" s="14" t="s">
         <v>46</v>
       </c>
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v>213.675</v>
+      </c>
       <c r="H40" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>IOCASTE</v>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>iocaste</v>
       </c>
-      <c r="J40" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J40" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.019e16</v>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const IOCASTE: CelestialBody = {
   id: 'iocaste',
   position: {
@@ -3423,14 +5267,14 @@
 };</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>39</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B41" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C41" s="45">
+      <c r="C41" s="41">
         <v>3</v>
       </c>
       <c r="D41" s="14" t="s">
@@ -3442,24 +5286,28 @@
       <c r="F41" s="14" t="s">
         <v>47</v>
       </c>
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
       <c r="H41" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S_2017_J_9</v>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>s/2017-j-9</v>
       </c>
-      <c r="J41" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J41" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0045e16</v>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const S_2017_J_9: CelestialBody = {
   id: 's/2017-j-9',
   position: {
@@ -3479,14 +5327,14 @@
 };</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>40</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="45">
+      <c r="C42" s="41">
         <v>1</v>
       </c>
       <c r="D42" s="14" t="s">
@@ -3498,24 +5346,28 @@
       <c r="F42" s="14" t="s">
         <v>48</v>
       </c>
+      <c r="G42" t="str">
+        <f t="shared" si="0"/>
+        <v>38.543</v>
+      </c>
       <c r="H42" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S_2003_J_12</v>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>s/2003-j-12</v>
       </c>
-      <c r="J42" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J42" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.00015e16</v>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const S_2003_J_12: CelestialBody = {
   id: 's/2003-j-12',
   position: {
@@ -3535,14 +5387,14 @@
 };</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>41</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="45">
+      <c r="C43" s="41">
         <v>2</v>
       </c>
       <c r="D43" s="14" t="s">
@@ -3554,24 +5406,28 @@
       <c r="F43" s="14" t="s">
         <v>22</v>
       </c>
+      <c r="G43" t="str">
+        <f t="shared" si="0"/>
+        <v>260.480</v>
+      </c>
       <c r="H43" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S_2003_J_4</v>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>s/2003-j-4</v>
       </c>
-      <c r="J43" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J43" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const S_2003_J_4: CelestialBody = {
   id: 's/2003-j-4',
   position: {
@@ -3591,14 +5447,14 @@
 };</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17">
         <v>42</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="47">
+      <c r="C44" s="43">
         <v>3</v>
       </c>
       <c r="D44" s="18" t="s">
@@ -3610,24 +5466,28 @@
       <c r="F44" s="18" t="s">
         <v>50</v>
       </c>
+      <c r="G44" t="str">
+        <f t="shared" si="0"/>
+        <v>267.136</v>
+      </c>
       <c r="H44" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ERINOME</v>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>erinome</v>
       </c>
-      <c r="J44" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J44" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0045e16</v>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const ERINOME: CelestialBody = {
   id: 'erinome',
   position: {
@@ -3647,14 +5507,14 @@
 };</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
         <v>43</v>
       </c>
-      <c r="B45" s="29" t="s">
+      <c r="B45" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C45" s="47">
+      <c r="C45" s="43">
         <v>3</v>
       </c>
       <c r="D45" s="18" t="s">
@@ -3666,24 +5526,28 @@
       <c r="F45" s="18" t="s">
         <v>52</v>
       </c>
+      <c r="G45" t="str">
+        <f t="shared" si="0"/>
+        <v>105.000</v>
+      </c>
       <c r="H45" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AITNE</v>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>aitne</v>
       </c>
-      <c r="J45" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J45" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0045e16</v>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const AITNE: CelestialBody = {
   id: 'aitne',
   position: {
@@ -3703,14 +5567,14 @@
 };</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17">
         <v>44</v>
       </c>
-      <c r="B46" s="29" t="s">
+      <c r="B46" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C46" s="47">
+      <c r="C46" s="43">
         <v>2</v>
       </c>
       <c r="D46" s="18" t="s">
@@ -3722,24 +5586,28 @@
       <c r="F46" s="18" t="s">
         <v>53</v>
       </c>
+      <c r="G46" t="str">
+        <f t="shared" si="0"/>
+        <v>141.667</v>
+      </c>
       <c r="H46" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HERSE</v>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>herse</v>
       </c>
-      <c r="J46" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J46" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const HERSE: CelestialBody = {
   id: 'herse',
   position: {
@@ -3759,14 +5627,14 @@
 };</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17">
         <v>45</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B47" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C47" s="47">
+      <c r="C47" s="43">
         <v>5</v>
       </c>
       <c r="D47" s="18" t="s">
@@ -3778,24 +5646,28 @@
       <c r="F47" s="18" t="s">
         <v>54</v>
       </c>
+      <c r="G47" t="str">
+        <f t="shared" si="0"/>
+        <v>94.756</v>
+      </c>
       <c r="H47" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>TAYGETE</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>taygete</v>
       </c>
-      <c r="J47" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J47" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.016e16</v>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const TAYGETE: CelestialBody = {
   id: 'taygete',
   position: {
@@ -3815,14 +5687,14 @@
 };</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="17">
         <v>46</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C48" s="47">
+      <c r="C48" s="43">
         <v>2</v>
       </c>
       <c r="D48" s="18" t="s">
@@ -3834,24 +5706,28 @@
       <c r="F48" s="18" t="s">
         <v>55</v>
       </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
       <c r="H48" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S_2017_J_2</v>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>s/2017-j-2</v>
       </c>
-      <c r="J48" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J48" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const S_2017_J_2: CelestialBody = {
   id: 's/2017-j-2',
   position: {
@@ -3871,14 +5747,14 @@
 };</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>47</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B49" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="C49" s="45">
+      <c r="C49" s="41">
         <v>2</v>
       </c>
       <c r="D49" s="14" t="s">
@@ -3890,24 +5766,28 @@
       <c r="F49" s="14" t="s">
         <v>56</v>
       </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
       <c r="H49" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S_2017_J_6</v>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>s/2017-j-6</v>
       </c>
-      <c r="J49" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J49" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const S_2017_J_6: CelestialBody = {
   id: 's/2017-j-6',
   position: {
@@ -3927,14 +5807,14 @@
 };</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="17">
         <v>48</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B50" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="47">
+      <c r="C50" s="43">
         <v>4</v>
       </c>
       <c r="D50" s="18" t="s">
@@ -3946,24 +5826,28 @@
       <c r="F50" s="18" t="s">
         <v>57</v>
       </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>204.846</v>
+      </c>
       <c r="H50" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EUKELADE</v>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>eukelade</v>
       </c>
-      <c r="J50" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J50" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.009e16</v>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const EUKELADE: CelestialBody = {
   id: 'eukelade',
   position: {
@@ -3983,14 +5867,14 @@
 };</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="19">
         <v>49</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="48">
+      <c r="C51" s="44">
         <v>46.7</v>
       </c>
       <c r="D51" s="20">
@@ -4002,24 +5886,28 @@
       <c r="F51" s="20" t="s">
         <v>58</v>
       </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>233.375</v>
+      </c>
       <c r="H51" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CARME</v>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>carme</v>
       </c>
-      <c r="J51" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J51" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>23.35</v>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13e16</v>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const CARME: CelestialBody = {
   id: 'carme',
   position: {
@@ -4039,14 +5927,14 @@
 };</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="17">
         <v>50</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="C52" s="47">
+      <c r="C52" s="43">
         <v>2</v>
       </c>
       <c r="D52" s="18" t="s">
@@ -4058,24 +5946,28 @@
       <c r="F52" s="18" t="s">
         <v>59</v>
       </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>223.035</v>
+      </c>
       <c r="H52" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S_2003_J_19</v>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>s/2003-j-19</v>
       </c>
-      <c r="J52" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J52" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const S_2003_J_19: CelestialBody = {
   id: 's/2003-j-19',
   position: {
@@ -4095,14 +5987,14 @@
 };</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="17">
         <v>51</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B53" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C53" s="47">
+      <c r="C53" s="43">
         <v>4</v>
       </c>
       <c r="D53" s="18" t="s">
@@ -4114,24 +6006,28 @@
       <c r="F53" s="18" t="s">
         <v>60</v>
       </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>124.941</v>
+      </c>
       <c r="H53" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ISONOE</v>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>isonoe</v>
       </c>
-      <c r="J53" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J53" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.009e16</v>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const ISONOE: CelestialBody = {
   id: 'isonoe',
   position: {
@@ -4151,14 +6047,14 @@
 };</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="17">
         <v>52</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B54" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C54" s="47">
+      <c r="C54" s="43">
         <v>2</v>
       </c>
       <c r="D54" s="18" t="s">
@@ -4170,24 +6066,28 @@
       <c r="F54" s="18" t="s">
         <v>61</v>
       </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>258.937</v>
+      </c>
       <c r="H54" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S_2003_J_10</v>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>s/2003-j-10</v>
       </c>
-      <c r="J54" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J54" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const S_2003_J_10: CelestialBody = {
   id: 's/2003-j-10',
   position: {
@@ -4207,14 +6107,14 @@
 };</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
         <v>53</v>
       </c>
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="C55" s="45">
+      <c r="C55" s="41">
         <v>4</v>
       </c>
       <c r="D55" s="14" t="s">
@@ -4226,24 +6126,28 @@
       <c r="F55" s="14" t="s">
         <v>62</v>
       </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>142.035</v>
+      </c>
       <c r="H55" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>AUTONOE</v>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>autonoe</v>
       </c>
-      <c r="J55" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J55" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.009e16</v>
       </c>
       <c r="L55" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const AUTONOE: CelestialBody = {
   id: 'autonoe',
   position: {
@@ -4263,14 +6167,14 @@
 };</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
         <v>54</v>
       </c>
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="C56" s="45">
+      <c r="C56" s="41">
         <v>2</v>
       </c>
       <c r="D56" s="14" t="s">
@@ -4282,24 +6186,28 @@
       <c r="F56" s="14" t="s">
         <v>63</v>
       </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
       <c r="H56" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PHILOPHROSYNE</v>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>philophrosyne</v>
       </c>
-      <c r="J56" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J56" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const PHILOPHROSYNE: CelestialBody = {
   id: 'philophrosyne',
   position: {
@@ -4319,14 +6227,14 @@
 };</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
         <v>55</v>
       </c>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="45">
+      <c r="C57" s="41">
         <v>2</v>
       </c>
       <c r="D57" s="14" t="s">
@@ -4338,24 +6246,28 @@
       <c r="F57" s="14" t="s">
         <v>64</v>
       </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>128.345</v>
+      </c>
       <c r="H57" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>CYLLENE</v>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>cyllene</v>
       </c>
-      <c r="J57" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J57" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L57" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const CYLLENE: CelestialBody = {
   id: 'cyllene',
   position: {
@@ -4375,14 +6287,14 @@
 };</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="17">
         <v>56</v>
       </c>
-      <c r="B58" s="29" t="s">
+      <c r="B58" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C58" s="47">
+      <c r="C58" s="43">
         <v>2</v>
       </c>
       <c r="D58" s="18" t="s">
@@ -4394,24 +6306,28 @@
       <c r="F58" s="18" t="s">
         <v>65</v>
       </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>215.443</v>
+      </c>
       <c r="H58" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PASITHEE</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pasithee</v>
       </c>
-      <c r="J58" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J58" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L58" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const PASITHEE: CelestialBody = {
   id: 'pasithee',
   position: {
@@ -4431,14 +6347,14 @@
 };</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="17">
         <v>57</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B59" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C59" s="47">
+      <c r="C59" s="43">
         <v>2</v>
       </c>
       <c r="D59" s="18" t="s">
@@ -4450,24 +6366,28 @@
       <c r="F59" s="18" t="s">
         <v>66</v>
       </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>160.525</v>
+      </c>
       <c r="H59" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S_2010_J_1</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>s/2010-j-1</v>
       </c>
-      <c r="J59" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J59" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const S_2010_J_1: CelestialBody = {
   id: 's/2010-j-1',
   position: {
@@ -4487,14 +6407,14 @@
 };</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>58</v>
       </c>
-      <c r="B60" s="34" t="s">
+      <c r="B60" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="C60" s="46">
+      <c r="C60" s="42">
         <v>57.8</v>
       </c>
       <c r="D60" s="16">
@@ -4506,24 +6426,28 @@
       <c r="F60" s="16" t="s">
         <v>67</v>
       </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>279.769</v>
+      </c>
       <c r="H60" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>PASIPHAE</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>pasiphae</v>
       </c>
-      <c r="J60" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J60" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>28.9</v>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30e16</v>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const PASIPHAE: CelestialBody = {
   id: 'pasiphae',
   position: {
@@ -4543,14 +6467,14 @@
 };</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
         <v>59</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B61" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="C61" s="45">
+      <c r="C61" s="41">
         <v>2</v>
       </c>
       <c r="D61" s="14" t="s">
@@ -4562,24 +6486,28 @@
       <c r="F61" s="14" t="s">
         <v>68</v>
       </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>174.044</v>
+      </c>
       <c r="H61" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>SPONDE</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>sponde</v>
       </c>
-      <c r="J61" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J61" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const SPONDE: CelestialBody = {
   id: 'sponde',
   position: {
@@ -4599,14 +6527,14 @@
 };</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="17">
         <v>60</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B62" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C62" s="47">
+      <c r="C62" s="43">
         <v>1</v>
       </c>
       <c r="D62" s="18" t="s">
@@ -4618,24 +6546,28 @@
       <c r="F62" s="18" t="s">
         <v>69</v>
       </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
       <c r="H62" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S_2017_J_8</v>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>s/2017-j-8</v>
       </c>
-      <c r="J62" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J62" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.00015e16</v>
       </c>
       <c r="L62" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const S_2017_J_8: CelestialBody = {
   id: 's/2017-j-8',
   position: {
@@ -4655,14 +6587,14 @@
 };</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
         <v>61</v>
       </c>
-      <c r="B63" s="28" t="s">
+      <c r="B63" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="C63" s="45">
+      <c r="C63" s="41">
         <v>3</v>
       </c>
       <c r="D63" s="14" t="s">
@@ -4674,24 +6606,28 @@
       <c r="F63" s="14" t="s">
         <v>70</v>
       </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>287.689</v>
+      </c>
       <c r="H63" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EURYDOME</v>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>eurydome</v>
       </c>
-      <c r="J63" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J63" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0045e16</v>
       </c>
       <c r="L63" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const EURYDOME: CelestialBody = {
   id: 'eurydome',
   position: {
@@ -4711,14 +6647,14 @@
 };</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>62</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B64" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C64" s="47">
+      <c r="C64" s="43">
         <v>2</v>
       </c>
       <c r="D64" s="18" t="s">
@@ -4730,24 +6666,28 @@
       <c r="F64" s="18" t="s">
         <v>71</v>
       </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>null</v>
+      </c>
       <c r="H64" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>S_2017_J_5</v>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>s/2017-j-5</v>
       </c>
-      <c r="J64" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J64" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const S_2017_J_5: CelestialBody = {
   id: 's/2017-j-5',
   position: {
@@ -4767,14 +6707,14 @@
 };</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
         <v>63</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="C65" s="47">
+      <c r="C65" s="43">
         <v>6.9</v>
       </c>
       <c r="D65" s="18" t="s">
@@ -4786,24 +6726,28 @@
       <c r="F65" s="18" t="s">
         <v>72</v>
       </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>255.702</v>
+      </c>
       <c r="H65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>KALYKE</v>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>kalyke</v>
       </c>
-      <c r="J65" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J65" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>3.45</v>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.04e16</v>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const KALYKE: CelestialBody = {
   id: 'kalyke',
   position: {
@@ -4823,14 +6767,14 @@
 };</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13">
         <v>64</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B66" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="C66" s="45">
+      <c r="C66" s="41">
         <v>3</v>
       </c>
       <c r="D66" s="14" t="s">
@@ -4842,24 +6786,28 @@
       <c r="F66" s="14" t="s">
         <v>73</v>
       </c>
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>236.950</v>
+      </c>
       <c r="H66" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>HEGEMONE</v>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>hegemone</v>
       </c>
-      <c r="J66" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J66" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0045e16</v>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const HEGEMONE: CelestialBody = {
   id: 'hegemone',
   position: {
@@ -4879,14 +6827,14 @@
 };</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="17">
         <v>65</v>
       </c>
-      <c r="B67" s="29" t="s">
+      <c r="B67" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="C67" s="47">
+      <c r="C67" s="43">
         <v>2</v>
       </c>
       <c r="D67" s="18" t="s">
@@ -4898,24 +6846,28 @@
       <c r="F67" s="18" t="s">
         <v>74</v>
       </c>
+      <c r="G67" t="str">
+        <f t="shared" si="0"/>
+        <v>212.853</v>
+      </c>
       <c r="H67" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>KALE</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>kale</v>
       </c>
-      <c r="J67" s="30" t="str">
-        <f t="shared" si="2"/>
+      <c r="J67" s="28" t="str">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.0015e16</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>export const KALE: CelestialBody = {
   id: 'kale',
   position: {
@@ -4935,14 +6887,14 @@
 };</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="17">
         <v>66</v>
       </c>
-      <c r="B68" s="29" t="s">
+      <c r="B68" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C68" s="47">
+      <c r="C68" s="43">
         <v>2</v>
       </c>
       <c r="D68" s="18" t="s">
@@ -4954,24 +6906,28 @@
       <c r="F68" s="18" t="s">
         <v>75</v>
       </c>
+      <c r="G68" t="str">
+        <f t="shared" ref="G68:G81" si="6">IFERROR(VLOOKUP(B68,$B$87:$J$153,5,FALSE),"null")</f>
+        <v>55.937</v>
+      </c>
       <c r="H68" t="str">
-        <f t="shared" ref="H68:H81" si="5">UPPER(SUBSTITUTE(SUBSTITUTE(B68," ","_"),"/","_"))</f>
+        <f t="shared" ref="H68:H81" si="7">UPPER(SUBSTITUTE(SUBSTITUTE(B68," ","_"),"/","_"))</f>
         <v>KALLICHORE</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" ref="I68:I81" si="6">LOWER(SUBSTITUTE(SUBSTITUTE(B68," ","-"),"/","/"))</f>
+        <f t="shared" ref="I68:I81" si="8">LOWER(SUBSTITUTE(SUBSTITUTE(B68," ","-"),"/","/"))</f>
         <v>kallichore</v>
       </c>
-      <c r="J68" s="30" t="str">
-        <f t="shared" ref="J68:J81" si="7">SUBSTITUTE(C68/2,",",".")</f>
+      <c r="J68" s="28" t="str">
+        <f t="shared" ref="J68:J81" si="9">SUBSTITUTE(C68/2,",",".")</f>
         <v>1</v>
       </c>
       <c r="K68" t="str">
-        <f t="shared" ref="K68:K81" si="8">CONCATENATE(D68,"e16")</f>
+        <f t="shared" ref="K68:K81" si="10">CONCATENATE(D68,"e16")</f>
         <v>0.0015e16</v>
       </c>
       <c r="L68" t="str">
-        <f t="shared" ref="L68:L81" si="9">"export const " &amp; H68 &amp; ": CelestialBody = {
+        <f t="shared" ref="L68:L81" si="11">"export const " &amp; H68 &amp; ": CelestialBody = {
   id: '" &amp; I68 &amp; "',
   position: {
     x: 0,
@@ -5007,14 +6963,14 @@
 };</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="17">
         <v>67</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="27" t="s">
         <v>164</v>
       </c>
-      <c r="C69" s="47">
+      <c r="C69" s="43">
         <v>2</v>
       </c>
       <c r="D69" s="18" t="s">
@@ -5026,24 +6982,28 @@
       <c r="F69" s="18" t="s">
         <v>76</v>
       </c>
+      <c r="G69" t="str">
+        <f t="shared" si="6"/>
+        <v>256.027</v>
+      </c>
       <c r="H69" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>S_2011_J_1</v>
       </c>
       <c r="I69" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>s/2011-j-1</v>
       </c>
-      <c r="J69" s="30" t="str">
-        <f t="shared" si="7"/>
+      <c r="J69" s="28" t="str">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K69" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.0015e16</v>
       </c>
       <c r="L69" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>export const S_2011_J_1: CelestialBody = {
   id: 's/2011-j-1',
   position: {
@@ -5063,14 +7023,14 @@
 };</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13">
         <v>68</v>
       </c>
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="C70" s="45">
+      <c r="C70" s="41">
         <v>2</v>
       </c>
       <c r="D70" s="14" t="s">
@@ -5082,24 +7042,28 @@
       <c r="F70" s="14" t="s">
         <v>77</v>
       </c>
+      <c r="G70" t="str">
+        <f t="shared" si="6"/>
+        <v>null</v>
+      </c>
       <c r="H70" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>S_2017_J_1</v>
       </c>
       <c r="I70" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>s/2017-j-1</v>
       </c>
-      <c r="J70" s="30" t="str">
-        <f t="shared" si="7"/>
+      <c r="J70" s="28" t="str">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K70" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.0015e16</v>
       </c>
       <c r="L70" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>export const S_2017_J_1: CelestialBody = {
   id: 's/2017-j-1',
   position: {
@@ -5119,14 +7083,14 @@
 };</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="17">
         <v>69</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B71" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="C71" s="47">
+      <c r="C71" s="43">
         <v>4</v>
       </c>
       <c r="D71" s="18" t="s">
@@ -5138,24 +7102,28 @@
       <c r="F71" s="18" t="s">
         <v>78</v>
       </c>
+      <c r="G71" t="str">
+        <f t="shared" si="6"/>
+        <v>267.454</v>
+      </c>
       <c r="H71" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>CHALDENE</v>
       </c>
       <c r="I71" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>chaldene</v>
       </c>
-      <c r="J71" s="30" t="str">
-        <f t="shared" si="7"/>
+      <c r="J71" s="28" t="str">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="K71" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.009e16</v>
       </c>
       <c r="L71" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>export const CHALDENE: CelestialBody = {
   id: 'chaldene',
   position: {
@@ -5175,14 +7143,14 @@
 };</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="19">
         <v>70</v>
       </c>
-      <c r="B72" s="35" t="s">
+      <c r="B72" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C72" s="48">
+      <c r="C72" s="44">
         <v>3</v>
       </c>
       <c r="D72" s="20" t="s">
@@ -5194,24 +7162,28 @@
       <c r="F72" s="20" t="s">
         <v>79</v>
       </c>
+      <c r="G72" t="str">
+        <f t="shared" si="6"/>
+        <v>39.713</v>
+      </c>
       <c r="H72" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>ARCHE</v>
       </c>
       <c r="I72" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>arche</v>
       </c>
-      <c r="J72" s="30" t="str">
-        <f t="shared" si="7"/>
+      <c r="J72" s="28" t="str">
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="K72" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.0045e16</v>
       </c>
       <c r="L72" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>export const ARCHE: CelestialBody = {
   id: 'arche',
   position: {
@@ -5231,14 +7203,14 @@
 };</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="17">
         <v>71</v>
       </c>
-      <c r="B73" s="29" t="s">
+      <c r="B73" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="C73" s="47">
+      <c r="C73" s="43">
         <v>4</v>
       </c>
       <c r="D73" s="18" t="s">
@@ -5250,24 +7222,28 @@
       <c r="F73" s="18" t="s">
         <v>80</v>
       </c>
+      <c r="G73" t="str">
+        <f t="shared" si="6"/>
+        <v>null</v>
+      </c>
       <c r="H73" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>EIRENE</v>
       </c>
       <c r="I73" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>eirene</v>
       </c>
-      <c r="J73" s="30" t="str">
-        <f t="shared" si="7"/>
+      <c r="J73" s="28" t="str">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="K73" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.009e16</v>
       </c>
       <c r="L73" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>export const EIRENE: CelestialBody = {
   id: 'eirene',
   position: {
@@ -5287,14 +7263,14 @@
 };</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="13">
         <v>72</v>
       </c>
-      <c r="B74" s="28" t="s">
+      <c r="B74" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="C74" s="45">
+      <c r="C74" s="41">
         <v>2</v>
       </c>
       <c r="D74" s="14" t="s">
@@ -5306,24 +7282,28 @@
       <c r="F74" s="14" t="s">
         <v>81</v>
       </c>
+      <c r="G74" t="str">
+        <f t="shared" si="6"/>
+        <v>33.416</v>
+      </c>
       <c r="H74" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>KORE</v>
       </c>
       <c r="I74" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>kore</v>
       </c>
-      <c r="J74" s="30" t="str">
-        <f t="shared" si="7"/>
+      <c r="J74" s="28" t="str">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K74" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.0015e16</v>
       </c>
       <c r="L74" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>export const KORE: CelestialBody = {
   id: 'kore',
   position: {
@@ -5343,14 +7323,14 @@
 };</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="13">
         <v>73</v>
       </c>
-      <c r="B75" s="28" t="s">
+      <c r="B75" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="C75" s="45">
+      <c r="C75" s="41">
         <v>1</v>
       </c>
       <c r="D75" s="14" t="s">
@@ -5362,24 +7342,28 @@
       <c r="F75" s="14" t="s">
         <v>82</v>
       </c>
+      <c r="G75" t="str">
+        <f t="shared" si="6"/>
+        <v>285.597</v>
+      </c>
       <c r="H75" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>S_2011_J_2</v>
       </c>
       <c r="I75" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>s/2011-j-2</v>
       </c>
-      <c r="J75" s="30" t="str">
-        <f t="shared" si="7"/>
+      <c r="J75" s="28" t="str">
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="K75" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.00015e16</v>
       </c>
       <c r="L75" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>export const S_2011_J_2: CelestialBody = {
   id: 's/2011-j-2',
   position: {
@@ -5399,14 +7383,14 @@
 };</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="17">
         <v>74</v>
       </c>
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="C76" s="47">
+      <c r="C76" s="43">
         <v>1</v>
       </c>
       <c r="D76" s="18" t="s">
@@ -5418,24 +7402,28 @@
       <c r="F76" s="18" t="s">
         <v>83</v>
       </c>
+      <c r="G76" t="str">
+        <f t="shared" si="6"/>
+        <v>348.415</v>
+      </c>
       <c r="H76" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>S_2003_J_9</v>
       </c>
       <c r="I76" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>s/2003-j-9</v>
       </c>
-      <c r="J76" s="30" t="str">
-        <f t="shared" si="7"/>
+      <c r="J76" s="28" t="str">
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="K76" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.00015e16</v>
       </c>
       <c r="L76" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>export const S_2003_J_9: CelestialBody = {
   id: 's/2003-j-9',
   position: {
@@ -5455,14 +7443,14 @@
 };</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13">
         <v>75</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="C77" s="45">
+      <c r="C77" s="41">
         <v>5</v>
       </c>
       <c r="D77" s="14" t="s">
@@ -5474,24 +7462,28 @@
       <c r="F77" s="14" t="s">
         <v>84</v>
       </c>
+      <c r="G77" t="str">
+        <f t="shared" si="6"/>
+        <v>135.272</v>
+      </c>
       <c r="H77" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>MEGACLITE</v>
       </c>
       <c r="I77" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>megaclite</v>
       </c>
-      <c r="J77" s="30" t="str">
-        <f t="shared" si="7"/>
+      <c r="J77" s="28" t="str">
+        <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
       <c r="K77" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.021e16</v>
       </c>
       <c r="L77" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>export const MEGACLITE: CelestialBody = {
   id: 'megaclite',
   position: {
@@ -5511,14 +7503,14 @@
 };</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13">
         <v>76</v>
       </c>
-      <c r="B78" s="28" t="s">
+      <c r="B78" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="C78" s="45">
+      <c r="C78" s="41">
         <v>4</v>
       </c>
       <c r="D78" s="14" t="s">
@@ -5530,24 +7522,28 @@
       <c r="F78" s="14" t="s">
         <v>85</v>
       </c>
+      <c r="G78" t="str">
+        <f t="shared" si="6"/>
+        <v>197.676</v>
+      </c>
       <c r="H78" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>AOEDE</v>
       </c>
       <c r="I78" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>aoede</v>
       </c>
-      <c r="J78" s="30" t="str">
-        <f t="shared" si="7"/>
+      <c r="J78" s="28" t="str">
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="K78" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.009e16</v>
       </c>
       <c r="L78" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>export const AOEDE: CelestialBody = {
   id: 'aoede',
   position: {
@@ -5567,14 +7563,14 @@
 };</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="15">
         <v>77</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="C79" s="46">
+      <c r="C79" s="42">
         <v>2</v>
       </c>
       <c r="D79" s="16" t="s">
@@ -5586,24 +7582,28 @@
       <c r="F79" s="16" t="s">
         <v>86</v>
       </c>
+      <c r="G79" t="str">
+        <f t="shared" si="6"/>
+        <v>144.222</v>
+      </c>
       <c r="H79" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>S_2003_J_23</v>
       </c>
       <c r="I79" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>s/2003-j-23</v>
       </c>
-      <c r="J79" s="30" t="str">
-        <f t="shared" si="7"/>
+      <c r="J79" s="28" t="str">
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="K79" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.0015e16</v>
       </c>
       <c r="L79" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>export const S_2003_J_23: CelestialBody = {
   id: 's/2003-j-23',
   position: {
@@ -5623,14 +7623,14 @@
 };</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="13">
         <v>78</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="B80" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="C80" s="45">
+      <c r="C80" s="41">
         <v>9.6</v>
       </c>
       <c r="D80" s="14" t="s">
@@ -5642,24 +7642,28 @@
       <c r="F80" s="14" t="s">
         <v>87</v>
       </c>
+      <c r="G80" t="str">
+        <f t="shared" si="6"/>
+        <v>107.962</v>
+      </c>
       <c r="H80" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>CALLIRRHOE</v>
       </c>
       <c r="I80" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>callirrhoe</v>
       </c>
-      <c r="J80" s="30" t="str">
-        <f t="shared" si="7"/>
+      <c r="J80" s="28" t="str">
+        <f t="shared" si="9"/>
         <v>4.8</v>
       </c>
       <c r="K80" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.087e16</v>
       </c>
       <c r="L80" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>export const CALLIRRHOE: CelestialBody = {
   id: 'callirrhoe',
   position: {
@@ -5679,14 +7683,14 @@
 };</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <v>79</v>
       </c>
-      <c r="B81" s="34" t="s">
+      <c r="B81" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="C81" s="46">
+      <c r="C81" s="42">
         <v>35</v>
       </c>
       <c r="D81" s="16" t="s">
@@ -5698,24 +7702,28 @@
       <c r="F81" s="16" t="s">
         <v>88</v>
       </c>
+      <c r="G81" t="str">
+        <f t="shared" si="6"/>
+        <v>165.352</v>
+      </c>
       <c r="H81" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>SINOPE</v>
       </c>
       <c r="I81" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>sinope</v>
       </c>
-      <c r="J81" s="30" t="str">
-        <f t="shared" si="7"/>
+      <c r="J81" s="28" t="str">
+        <f t="shared" si="9"/>
         <v>17.5</v>
       </c>
       <c r="K81" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>7.5e16</v>
       </c>
       <c r="L81" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>export const SINOPE: CelestialBody = {
   id: 'sinope',
   position: {
@@ -5734,6 +7742,2234 @@
   orbitBody: null
 };</v>
       </c>
+    </row>
+    <row r="85" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B85" s="52" t="s">
+        <v>249</v>
+      </c>
+      <c r="C85" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="D85" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="E85" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="F85" s="53" t="s">
+        <v>253</v>
+      </c>
+      <c r="G85" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="H85" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="I85" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="J85" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="K85" s="53"/>
+      <c r="L85" s="53"/>
+      <c r="M85" s="54"/>
+    </row>
+    <row r="86" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B86" s="52"/>
+      <c r="C86" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="F86" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="G86" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="H86" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="I86" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="J86" s="55" t="s">
+        <v>261</v>
+      </c>
+      <c r="K86" s="55"/>
+      <c r="L86" s="55"/>
+      <c r="M86" s="54"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B87" s="49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="D87" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="50" t="s">
+        <v>190</v>
+      </c>
+      <c r="F87" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="G87" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="H87" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="I87" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="J87" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="K87" s="50"/>
+      <c r="L87" s="50"/>
+      <c r="M87" s="50"/>
+      <c r="N87" s="50"/>
+      <c r="O87" s="50"/>
+      <c r="P87" s="51"/>
+    </row>
+    <row r="88" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B88" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="D88" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="F88" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="G88" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="H88" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="I88" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="J88" s="50" t="s">
+        <v>202</v>
+      </c>
+      <c r="K88" s="50"/>
+      <c r="L88" s="50"/>
+      <c r="M88" s="50"/>
+      <c r="N88" s="50"/>
+      <c r="O88" s="50"/>
+      <c r="P88" s="51"/>
+    </row>
+    <row r="89" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B89" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="E89" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="F89" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="G89" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="H89" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="I89" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="J89" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="K89" s="50"/>
+      <c r="L89" s="50"/>
+      <c r="M89" s="50"/>
+      <c r="N89" s="50"/>
+      <c r="O89" s="50"/>
+      <c r="P89" s="51"/>
+    </row>
+    <row r="90" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B90" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C90" s="50" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="F90" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="G90" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="H90" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="I90" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="J90" s="50" t="s">
+        <v>217</v>
+      </c>
+      <c r="K90" s="50"/>
+      <c r="L90" s="50"/>
+      <c r="M90" s="50"/>
+      <c r="N90" s="50"/>
+      <c r="O90" s="50"/>
+      <c r="P90" s="51"/>
+    </row>
+    <row r="91" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B91" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="D91" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="E91" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="F91" s="50" t="s">
+        <v>221</v>
+      </c>
+      <c r="G91" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="H91" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="I91" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="J91" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="K91" s="50"/>
+      <c r="L91" s="50"/>
+      <c r="M91" s="50"/>
+      <c r="N91" s="50"/>
+      <c r="O91" s="50"/>
+      <c r="P91" s="51"/>
+    </row>
+    <row r="92" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B92" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="50" t="s">
+        <v>226</v>
+      </c>
+      <c r="D92" s="50" t="s">
+        <v>227</v>
+      </c>
+      <c r="E92" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="F92" s="50" t="s">
+        <v>229</v>
+      </c>
+      <c r="G92" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="H92" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="I92" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="J92" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="K92" s="50"/>
+      <c r="L92" s="50"/>
+      <c r="M92" s="50"/>
+      <c r="N92" s="50"/>
+      <c r="O92" s="50"/>
+      <c r="P92" s="51"/>
+    </row>
+    <row r="93" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B93" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="50" t="s">
+        <v>234</v>
+      </c>
+      <c r="D93" s="50" t="s">
+        <v>235</v>
+      </c>
+      <c r="E93" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="F93" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="G93" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="H93" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="I93" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="J93" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="K93" s="50"/>
+      <c r="L93" s="50"/>
+      <c r="M93" s="50"/>
+      <c r="N93" s="50"/>
+      <c r="O93" s="50"/>
+      <c r="P93" s="51"/>
+    </row>
+    <row r="94" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B94" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="D94" s="50" t="s">
+        <v>243</v>
+      </c>
+      <c r="E94" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="F94" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="G94" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="H94" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="I94" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="J94" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="K94" s="50"/>
+      <c r="L94" s="50"/>
+      <c r="M94" s="50"/>
+      <c r="N94" s="50"/>
+      <c r="O94" s="50"/>
+      <c r="P94" s="51"/>
+    </row>
+    <row r="95" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B95" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="D95" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="E95" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="F95" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="G95" s="50" t="s">
+        <v>266</v>
+      </c>
+      <c r="H95" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="I95" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="J95" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="K95" s="50"/>
+      <c r="L95" s="50"/>
+      <c r="M95" s="51"/>
+    </row>
+    <row r="96" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+      <c r="B96" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="C96" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="D96" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="E96" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="F96" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="G96" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="H96" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="I96" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="J96" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="K96" s="50"/>
+      <c r="L96" s="50"/>
+      <c r="M96" s="51"/>
+    </row>
+    <row r="97" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B97" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="D97" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="E97" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="F97" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="G97" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="H97" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="I97" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="J97" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="K97" s="50"/>
+      <c r="L97" s="50"/>
+      <c r="M97" s="51"/>
+    </row>
+    <row r="98" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B98" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C98" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="D98" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="E98" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="F98" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="G98" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="H98" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="I98" s="50" t="s">
+        <v>292</v>
+      </c>
+      <c r="J98" s="50" t="s">
+        <v>293</v>
+      </c>
+      <c r="K98" s="50"/>
+      <c r="L98" s="50"/>
+      <c r="M98" s="51"/>
+    </row>
+    <row r="99" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B99" s="49" t="s">
+        <v>108</v>
+      </c>
+      <c r="C99" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="D99" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="E99" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="F99" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="G99" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="H99" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="I99" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="J99" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="K99" s="50"/>
+      <c r="L99" s="50"/>
+      <c r="M99" s="51"/>
+    </row>
+    <row r="100" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B100" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="D100" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="E100" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="F100" s="50" t="s">
+        <v>305</v>
+      </c>
+      <c r="G100" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="H100" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="I100" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="J100" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="K100" s="50"/>
+      <c r="L100" s="50"/>
+      <c r="M100" s="51"/>
+    </row>
+    <row r="101" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B101" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="D101" s="50" t="s">
+        <v>311</v>
+      </c>
+      <c r="E101" s="50" t="s">
+        <v>312</v>
+      </c>
+      <c r="F101" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="G101" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="H101" s="50" t="s">
+        <v>315</v>
+      </c>
+      <c r="I101" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="J101" s="50" t="s">
+        <v>317</v>
+      </c>
+      <c r="K101" s="50"/>
+      <c r="L101" s="50"/>
+      <c r="M101" s="51"/>
+    </row>
+    <row r="102" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B102" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="D102" s="50" t="s">
+        <v>319</v>
+      </c>
+      <c r="E102" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="F102" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="G102" s="50" t="s">
+        <v>322</v>
+      </c>
+      <c r="H102" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="I102" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="J102" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="K102" s="50"/>
+      <c r="L102" s="50"/>
+      <c r="M102" s="51"/>
+    </row>
+    <row r="103" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B103" s="49" t="s">
+        <v>146</v>
+      </c>
+      <c r="C103" s="50" t="s">
+        <v>326</v>
+      </c>
+      <c r="D103" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="E103" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="F103" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="G103" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="H103" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="I103" s="50" t="s">
+        <v>332</v>
+      </c>
+      <c r="J103" s="50" t="s">
+        <v>333</v>
+      </c>
+      <c r="K103" s="50"/>
+      <c r="L103" s="50"/>
+      <c r="M103" s="51"/>
+    </row>
+    <row r="104" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B104" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" s="50" t="s">
+        <v>334</v>
+      </c>
+      <c r="D104" s="50" t="s">
+        <v>335</v>
+      </c>
+      <c r="E104" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="F104" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="G104" s="50" t="s">
+        <v>338</v>
+      </c>
+      <c r="H104" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="I104" s="50" t="s">
+        <v>340</v>
+      </c>
+      <c r="J104" s="50" t="s">
+        <v>341</v>
+      </c>
+      <c r="K104" s="50"/>
+      <c r="L104" s="50"/>
+      <c r="M104" s="51"/>
+    </row>
+    <row r="105" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B105" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C105" s="50" t="s">
+        <v>342</v>
+      </c>
+      <c r="D105" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="E105" s="50" t="s">
+        <v>344</v>
+      </c>
+      <c r="F105" s="50" t="s">
+        <v>345</v>
+      </c>
+      <c r="G105" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="H105" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="I105" s="50" t="s">
+        <v>348</v>
+      </c>
+      <c r="J105" s="50" t="s">
+        <v>349</v>
+      </c>
+      <c r="K105" s="50"/>
+      <c r="L105" s="50"/>
+      <c r="M105" s="51"/>
+    </row>
+    <row r="106" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B106" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C106" s="50" t="s">
+        <v>350</v>
+      </c>
+      <c r="D106" s="50" t="s">
+        <v>351</v>
+      </c>
+      <c r="E106" s="50" t="s">
+        <v>352</v>
+      </c>
+      <c r="F106" s="50" t="s">
+        <v>353</v>
+      </c>
+      <c r="G106" s="50" t="s">
+        <v>354</v>
+      </c>
+      <c r="H106" s="50" t="s">
+        <v>355</v>
+      </c>
+      <c r="I106" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="J106" s="50" t="s">
+        <v>357</v>
+      </c>
+      <c r="K106" s="50"/>
+      <c r="L106" s="50"/>
+      <c r="M106" s="51"/>
+    </row>
+    <row r="107" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B107" s="49" t="s">
+        <v>165</v>
+      </c>
+      <c r="C107" s="50" t="s">
+        <v>358</v>
+      </c>
+      <c r="D107" s="50" t="s">
+        <v>359</v>
+      </c>
+      <c r="E107" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="F107" s="50" t="s">
+        <v>361</v>
+      </c>
+      <c r="G107" s="50" t="s">
+        <v>362</v>
+      </c>
+      <c r="H107" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="I107" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="J107" s="50" t="s">
+        <v>365</v>
+      </c>
+      <c r="K107" s="50"/>
+      <c r="L107" s="50"/>
+      <c r="M107" s="51"/>
+    </row>
+    <row r="108" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B108" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C108" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="D108" s="50" t="s">
+        <v>367</v>
+      </c>
+      <c r="E108" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="F108" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="G108" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="H108" s="50" t="s">
+        <v>371</v>
+      </c>
+      <c r="I108" s="50" t="s">
+        <v>372</v>
+      </c>
+      <c r="J108" s="50" t="s">
+        <v>373</v>
+      </c>
+      <c r="K108" s="50"/>
+      <c r="L108" s="50"/>
+      <c r="M108" s="51"/>
+    </row>
+    <row r="109" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B109" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="C109" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="D109" s="50" t="s">
+        <v>375</v>
+      </c>
+      <c r="E109" s="50" t="s">
+        <v>376</v>
+      </c>
+      <c r="F109" s="50" t="s">
+        <v>377</v>
+      </c>
+      <c r="G109" s="50" t="s">
+        <v>378</v>
+      </c>
+      <c r="H109" s="50" t="s">
+        <v>379</v>
+      </c>
+      <c r="I109" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="J109" s="50" t="s">
+        <v>381</v>
+      </c>
+      <c r="K109" s="50"/>
+      <c r="L109" s="50"/>
+      <c r="M109" s="51"/>
+    </row>
+    <row r="110" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B110" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C110" s="50" t="s">
+        <v>382</v>
+      </c>
+      <c r="D110" s="50" t="s">
+        <v>383</v>
+      </c>
+      <c r="E110" s="50" t="s">
+        <v>384</v>
+      </c>
+      <c r="F110" s="50" t="s">
+        <v>385</v>
+      </c>
+      <c r="G110" s="50" t="s">
+        <v>386</v>
+      </c>
+      <c r="H110" s="50" t="s">
+        <v>387</v>
+      </c>
+      <c r="I110" s="50" t="s">
+        <v>388</v>
+      </c>
+      <c r="J110" s="50" t="s">
+        <v>389</v>
+      </c>
+      <c r="K110" s="50"/>
+      <c r="L110" s="50"/>
+      <c r="M110" s="51"/>
+    </row>
+    <row r="111" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B111" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="C111" s="50" t="s">
+        <v>390</v>
+      </c>
+      <c r="D111" s="50" t="s">
+        <v>391</v>
+      </c>
+      <c r="E111" s="50" t="s">
+        <v>392</v>
+      </c>
+      <c r="F111" s="50" t="s">
+        <v>393</v>
+      </c>
+      <c r="G111" s="50" t="s">
+        <v>394</v>
+      </c>
+      <c r="H111" s="50" t="s">
+        <v>395</v>
+      </c>
+      <c r="I111" s="50" t="s">
+        <v>396</v>
+      </c>
+      <c r="J111" s="50" t="s">
+        <v>397</v>
+      </c>
+      <c r="K111" s="50"/>
+      <c r="L111" s="50"/>
+      <c r="M111" s="51"/>
+    </row>
+    <row r="112" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B112" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="C112" s="50" t="s">
+        <v>398</v>
+      </c>
+      <c r="D112" s="50" t="s">
+        <v>399</v>
+      </c>
+      <c r="E112" s="50" t="s">
+        <v>400</v>
+      </c>
+      <c r="F112" s="50" t="s">
+        <v>401</v>
+      </c>
+      <c r="G112" s="50" t="s">
+        <v>402</v>
+      </c>
+      <c r="H112" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="I112" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="J112" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="K112" s="50"/>
+      <c r="L112" s="50"/>
+      <c r="M112" s="51"/>
+    </row>
+    <row r="113" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B113" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" s="50" t="s">
+        <v>406</v>
+      </c>
+      <c r="D113" s="50" t="s">
+        <v>407</v>
+      </c>
+      <c r="E113" s="50" t="s">
+        <v>408</v>
+      </c>
+      <c r="F113" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="G113" s="50" t="s">
+        <v>410</v>
+      </c>
+      <c r="H113" s="50" t="s">
+        <v>411</v>
+      </c>
+      <c r="I113" s="50" t="s">
+        <v>412</v>
+      </c>
+      <c r="J113" s="50" t="s">
+        <v>413</v>
+      </c>
+      <c r="K113" s="50"/>
+      <c r="L113" s="50"/>
+      <c r="M113" s="51"/>
+    </row>
+    <row r="114" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B114" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114" s="50" t="s">
+        <v>414</v>
+      </c>
+      <c r="D114" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="E114" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="F114" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="G114" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="H114" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="I114" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="J114" s="50" t="s">
+        <v>421</v>
+      </c>
+      <c r="K114" s="50"/>
+      <c r="L114" s="50"/>
+      <c r="M114" s="51"/>
+    </row>
+    <row r="115" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B115" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" s="50" t="s">
+        <v>422</v>
+      </c>
+      <c r="D115" s="50" t="s">
+        <v>423</v>
+      </c>
+      <c r="E115" s="50" t="s">
+        <v>424</v>
+      </c>
+      <c r="F115" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="G115" s="50" t="s">
+        <v>426</v>
+      </c>
+      <c r="H115" s="50" t="s">
+        <v>427</v>
+      </c>
+      <c r="I115" s="50" t="s">
+        <v>428</v>
+      </c>
+      <c r="J115" s="50" t="s">
+        <v>429</v>
+      </c>
+      <c r="K115" s="50"/>
+      <c r="L115" s="50"/>
+      <c r="M115" s="51"/>
+    </row>
+    <row r="116" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B116" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="50" t="s">
+        <v>430</v>
+      </c>
+      <c r="D116" s="50" t="s">
+        <v>431</v>
+      </c>
+      <c r="E116" s="50" t="s">
+        <v>432</v>
+      </c>
+      <c r="F116" s="50" t="s">
+        <v>433</v>
+      </c>
+      <c r="G116" s="50" t="s">
+        <v>434</v>
+      </c>
+      <c r="H116" s="50" t="s">
+        <v>435</v>
+      </c>
+      <c r="I116" s="50" t="s">
+        <v>436</v>
+      </c>
+      <c r="J116" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="K116" s="50"/>
+      <c r="L116" s="50"/>
+      <c r="M116" s="51"/>
+    </row>
+    <row r="117" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B117" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C117" s="50" t="s">
+        <v>438</v>
+      </c>
+      <c r="D117" s="50" t="s">
+        <v>439</v>
+      </c>
+      <c r="E117" s="50" t="s">
+        <v>440</v>
+      </c>
+      <c r="F117" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="G117" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="H117" s="50" t="s">
+        <v>443</v>
+      </c>
+      <c r="I117" s="50" t="s">
+        <v>444</v>
+      </c>
+      <c r="J117" s="50" t="s">
+        <v>445</v>
+      </c>
+      <c r="K117" s="50"/>
+      <c r="L117" s="50"/>
+      <c r="M117" s="51"/>
+    </row>
+    <row r="118" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B118" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C118" s="50" t="s">
+        <v>446</v>
+      </c>
+      <c r="D118" s="50" t="s">
+        <v>447</v>
+      </c>
+      <c r="E118" s="50" t="s">
+        <v>448</v>
+      </c>
+      <c r="F118" s="50" t="s">
+        <v>449</v>
+      </c>
+      <c r="G118" s="50" t="s">
+        <v>450</v>
+      </c>
+      <c r="H118" s="50" t="s">
+        <v>451</v>
+      </c>
+      <c r="I118" s="50" t="s">
+        <v>452</v>
+      </c>
+      <c r="J118" s="50" t="s">
+        <v>453</v>
+      </c>
+      <c r="K118" s="50"/>
+      <c r="L118" s="50"/>
+      <c r="M118" s="51"/>
+    </row>
+    <row r="119" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B119" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C119" s="50" t="s">
+        <v>454</v>
+      </c>
+      <c r="D119" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="E119" s="50" t="s">
+        <v>456</v>
+      </c>
+      <c r="F119" s="50" t="s">
+        <v>457</v>
+      </c>
+      <c r="G119" s="50" t="s">
+        <v>458</v>
+      </c>
+      <c r="H119" s="50" t="s">
+        <v>459</v>
+      </c>
+      <c r="I119" s="50" t="s">
+        <v>460</v>
+      </c>
+      <c r="J119" s="50" t="s">
+        <v>461</v>
+      </c>
+      <c r="K119" s="50"/>
+      <c r="L119" s="50"/>
+      <c r="M119" s="51"/>
+    </row>
+    <row r="120" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B120" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="C120" s="50" t="s">
+        <v>462</v>
+      </c>
+      <c r="D120" s="50" t="s">
+        <v>463</v>
+      </c>
+      <c r="E120" s="50" t="s">
+        <v>464</v>
+      </c>
+      <c r="F120" s="50" t="s">
+        <v>465</v>
+      </c>
+      <c r="G120" s="50" t="s">
+        <v>466</v>
+      </c>
+      <c r="H120" s="50" t="s">
+        <v>467</v>
+      </c>
+      <c r="I120" s="50" t="s">
+        <v>468</v>
+      </c>
+      <c r="J120" s="50" t="s">
+        <v>469</v>
+      </c>
+      <c r="K120" s="50"/>
+      <c r="L120" s="50"/>
+      <c r="M120" s="51"/>
+    </row>
+    <row r="121" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B121" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121" s="50" t="s">
+        <v>470</v>
+      </c>
+      <c r="D121" s="50" t="s">
+        <v>471</v>
+      </c>
+      <c r="E121" s="50" t="s">
+        <v>472</v>
+      </c>
+      <c r="F121" s="50" t="s">
+        <v>473</v>
+      </c>
+      <c r="G121" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="H121" s="50" t="s">
+        <v>475</v>
+      </c>
+      <c r="I121" s="50" t="s">
+        <v>476</v>
+      </c>
+      <c r="J121" s="50" t="s">
+        <v>477</v>
+      </c>
+      <c r="K121" s="50"/>
+      <c r="L121" s="50"/>
+      <c r="M121" s="51"/>
+    </row>
+    <row r="122" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B122" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C122" s="50" t="s">
+        <v>478</v>
+      </c>
+      <c r="D122" s="50" t="s">
+        <v>479</v>
+      </c>
+      <c r="E122" s="50" t="s">
+        <v>480</v>
+      </c>
+      <c r="F122" s="50" t="s">
+        <v>481</v>
+      </c>
+      <c r="G122" s="50" t="s">
+        <v>482</v>
+      </c>
+      <c r="H122" s="50" t="s">
+        <v>483</v>
+      </c>
+      <c r="I122" s="50" t="s">
+        <v>484</v>
+      </c>
+      <c r="J122" s="50" t="s">
+        <v>485</v>
+      </c>
+      <c r="K122" s="50"/>
+      <c r="L122" s="50"/>
+      <c r="M122" s="51"/>
+    </row>
+    <row r="123" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B123" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="C123" s="50" t="s">
+        <v>486</v>
+      </c>
+      <c r="D123" s="50" t="s">
+        <v>487</v>
+      </c>
+      <c r="E123" s="50" t="s">
+        <v>488</v>
+      </c>
+      <c r="F123" s="50" t="s">
+        <v>489</v>
+      </c>
+      <c r="G123" s="50" t="s">
+        <v>490</v>
+      </c>
+      <c r="H123" s="50" t="s">
+        <v>491</v>
+      </c>
+      <c r="I123" s="50" t="s">
+        <v>492</v>
+      </c>
+      <c r="J123" s="50" t="s">
+        <v>493</v>
+      </c>
+      <c r="K123" s="50"/>
+      <c r="L123" s="50"/>
+      <c r="M123" s="51"/>
+    </row>
+    <row r="124" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B124" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="C124" s="50" t="s">
+        <v>494</v>
+      </c>
+      <c r="D124" s="50" t="s">
+        <v>495</v>
+      </c>
+      <c r="E124" s="50" t="s">
+        <v>496</v>
+      </c>
+      <c r="F124" s="50" t="s">
+        <v>497</v>
+      </c>
+      <c r="G124" s="50" t="s">
+        <v>498</v>
+      </c>
+      <c r="H124" s="50" t="s">
+        <v>499</v>
+      </c>
+      <c r="I124" s="50" t="s">
+        <v>500</v>
+      </c>
+      <c r="J124" s="50" t="s">
+        <v>501</v>
+      </c>
+      <c r="K124" s="50"/>
+      <c r="L124" s="50"/>
+      <c r="M124" s="51"/>
+    </row>
+    <row r="125" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B125" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="C125" s="50" t="s">
+        <v>502</v>
+      </c>
+      <c r="D125" s="50" t="s">
+        <v>503</v>
+      </c>
+      <c r="E125" s="50" t="s">
+        <v>504</v>
+      </c>
+      <c r="F125" s="50" t="s">
+        <v>505</v>
+      </c>
+      <c r="G125" s="50" t="s">
+        <v>506</v>
+      </c>
+      <c r="H125" s="50" t="s">
+        <v>507</v>
+      </c>
+      <c r="I125" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="J125" s="50" t="s">
+        <v>509</v>
+      </c>
+      <c r="K125" s="50"/>
+      <c r="L125" s="50"/>
+      <c r="M125" s="51"/>
+    </row>
+    <row r="126" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B126" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C126" s="50" t="s">
+        <v>510</v>
+      </c>
+      <c r="D126" s="50" t="s">
+        <v>511</v>
+      </c>
+      <c r="E126" s="50" t="s">
+        <v>512</v>
+      </c>
+      <c r="F126" s="50" t="s">
+        <v>513</v>
+      </c>
+      <c r="G126" s="50" t="s">
+        <v>514</v>
+      </c>
+      <c r="H126" s="50" t="s">
+        <v>515</v>
+      </c>
+      <c r="I126" s="50" t="s">
+        <v>516</v>
+      </c>
+      <c r="J126" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="K126" s="50"/>
+      <c r="L126" s="50"/>
+      <c r="M126" s="51"/>
+    </row>
+    <row r="127" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B127" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C127" s="50" t="s">
+        <v>518</v>
+      </c>
+      <c r="D127" s="50" t="s">
+        <v>519</v>
+      </c>
+      <c r="E127" s="50" t="s">
+        <v>520</v>
+      </c>
+      <c r="F127" s="50" t="s">
+        <v>521</v>
+      </c>
+      <c r="G127" s="50" t="s">
+        <v>522</v>
+      </c>
+      <c r="H127" s="50" t="s">
+        <v>523</v>
+      </c>
+      <c r="I127" s="50" t="s">
+        <v>524</v>
+      </c>
+      <c r="J127" s="50" t="s">
+        <v>525</v>
+      </c>
+      <c r="K127" s="50"/>
+      <c r="L127" s="50"/>
+      <c r="M127" s="51"/>
+    </row>
+    <row r="128" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B128" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="C128" s="50" t="s">
+        <v>526</v>
+      </c>
+      <c r="D128" s="50" t="s">
+        <v>527</v>
+      </c>
+      <c r="E128" s="50" t="s">
+        <v>528</v>
+      </c>
+      <c r="F128" s="50" t="s">
+        <v>529</v>
+      </c>
+      <c r="G128" s="50" t="s">
+        <v>530</v>
+      </c>
+      <c r="H128" s="50" t="s">
+        <v>531</v>
+      </c>
+      <c r="I128" s="50" t="s">
+        <v>532</v>
+      </c>
+      <c r="J128" s="50" t="s">
+        <v>533</v>
+      </c>
+      <c r="K128" s="50"/>
+      <c r="L128" s="50"/>
+      <c r="M128" s="51"/>
+    </row>
+    <row r="129" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B129" s="49" t="s">
+        <v>166</v>
+      </c>
+      <c r="C129" s="50" t="s">
+        <v>534</v>
+      </c>
+      <c r="D129" s="50" t="s">
+        <v>535</v>
+      </c>
+      <c r="E129" s="50" t="s">
+        <v>536</v>
+      </c>
+      <c r="F129" s="50" t="s">
+        <v>537</v>
+      </c>
+      <c r="G129" s="50" t="s">
+        <v>538</v>
+      </c>
+      <c r="H129" s="50" t="s">
+        <v>539</v>
+      </c>
+      <c r="I129" s="50" t="s">
+        <v>540</v>
+      </c>
+      <c r="J129" s="50" t="s">
+        <v>541</v>
+      </c>
+      <c r="K129" s="50"/>
+      <c r="L129" s="50"/>
+      <c r="M129" s="51"/>
+    </row>
+    <row r="130" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B130" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="C130" s="50" t="s">
+        <v>542</v>
+      </c>
+      <c r="D130" s="50" t="s">
+        <v>543</v>
+      </c>
+      <c r="E130" s="50" t="s">
+        <v>544</v>
+      </c>
+      <c r="F130" s="50" t="s">
+        <v>545</v>
+      </c>
+      <c r="G130" s="50" t="s">
+        <v>546</v>
+      </c>
+      <c r="H130" s="50" t="s">
+        <v>547</v>
+      </c>
+      <c r="I130" s="50" t="s">
+        <v>548</v>
+      </c>
+      <c r="J130" s="50" t="s">
+        <v>549</v>
+      </c>
+      <c r="K130" s="50"/>
+      <c r="L130" s="50"/>
+      <c r="M130" s="51"/>
+    </row>
+    <row r="131" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B131" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C131" s="50" t="s">
+        <v>550</v>
+      </c>
+      <c r="D131" s="50" t="s">
+        <v>551</v>
+      </c>
+      <c r="E131" s="50" t="s">
+        <v>552</v>
+      </c>
+      <c r="F131" s="50" t="s">
+        <v>553</v>
+      </c>
+      <c r="G131" s="50" t="s">
+        <v>554</v>
+      </c>
+      <c r="H131" s="50" t="s">
+        <v>555</v>
+      </c>
+      <c r="I131" s="50" t="s">
+        <v>556</v>
+      </c>
+      <c r="J131" s="50" t="s">
+        <v>557</v>
+      </c>
+      <c r="K131" s="50"/>
+      <c r="L131" s="50"/>
+      <c r="M131" s="51"/>
+    </row>
+    <row r="132" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B132" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C132" s="50" t="s">
+        <v>558</v>
+      </c>
+      <c r="D132" s="50" t="s">
+        <v>559</v>
+      </c>
+      <c r="E132" s="50" t="s">
+        <v>560</v>
+      </c>
+      <c r="F132" s="50" t="s">
+        <v>561</v>
+      </c>
+      <c r="G132" s="50" t="s">
+        <v>562</v>
+      </c>
+      <c r="H132" s="50" t="s">
+        <v>563</v>
+      </c>
+      <c r="I132" s="50" t="s">
+        <v>564</v>
+      </c>
+      <c r="J132" s="50" t="s">
+        <v>565</v>
+      </c>
+      <c r="K132" s="50"/>
+      <c r="L132" s="50"/>
+      <c r="M132" s="51"/>
+    </row>
+    <row r="133" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B133" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="C133" s="50" t="s">
+        <v>566</v>
+      </c>
+      <c r="D133" s="50" t="s">
+        <v>567</v>
+      </c>
+      <c r="E133" s="50" t="s">
+        <v>568</v>
+      </c>
+      <c r="F133" s="50" t="s">
+        <v>569</v>
+      </c>
+      <c r="G133" s="50" t="s">
+        <v>570</v>
+      </c>
+      <c r="H133" s="50" t="s">
+        <v>571</v>
+      </c>
+      <c r="I133" s="50" t="s">
+        <v>572</v>
+      </c>
+      <c r="J133" s="50" t="s">
+        <v>573</v>
+      </c>
+      <c r="K133" s="50"/>
+      <c r="L133" s="50"/>
+      <c r="M133" s="51"/>
+    </row>
+    <row r="134" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B134" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C134" s="50" t="s">
+        <v>574</v>
+      </c>
+      <c r="D134" s="50" t="s">
+        <v>575</v>
+      </c>
+      <c r="E134" s="50" t="s">
+        <v>576</v>
+      </c>
+      <c r="F134" s="50" t="s">
+        <v>577</v>
+      </c>
+      <c r="G134" s="50" t="s">
+        <v>578</v>
+      </c>
+      <c r="H134" s="50" t="s">
+        <v>579</v>
+      </c>
+      <c r="I134" s="50" t="s">
+        <v>580</v>
+      </c>
+      <c r="J134" s="50" t="s">
+        <v>581</v>
+      </c>
+      <c r="K134" s="50"/>
+      <c r="L134" s="50"/>
+      <c r="M134" s="51"/>
+    </row>
+    <row r="135" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B135" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C135" s="50" t="s">
+        <v>582</v>
+      </c>
+      <c r="D135" s="50" t="s">
+        <v>583</v>
+      </c>
+      <c r="E135" s="50" t="s">
+        <v>584</v>
+      </c>
+      <c r="F135" s="50" t="s">
+        <v>585</v>
+      </c>
+      <c r="G135" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="H135" s="50" t="s">
+        <v>587</v>
+      </c>
+      <c r="I135" s="50" t="s">
+        <v>588</v>
+      </c>
+      <c r="J135" s="50" t="s">
+        <v>589</v>
+      </c>
+      <c r="K135" s="50"/>
+      <c r="L135" s="50"/>
+      <c r="M135" s="51"/>
+    </row>
+    <row r="136" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B136" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C136" s="50" t="s">
+        <v>590</v>
+      </c>
+      <c r="D136" s="50" t="s">
+        <v>591</v>
+      </c>
+      <c r="E136" s="50" t="s">
+        <v>592</v>
+      </c>
+      <c r="F136" s="50" t="s">
+        <v>593</v>
+      </c>
+      <c r="G136" s="50" t="s">
+        <v>594</v>
+      </c>
+      <c r="H136" s="50" t="s">
+        <v>595</v>
+      </c>
+      <c r="I136" s="50" t="s">
+        <v>596</v>
+      </c>
+      <c r="J136" s="50" t="s">
+        <v>597</v>
+      </c>
+      <c r="K136" s="50"/>
+      <c r="L136" s="50"/>
+      <c r="M136" s="51"/>
+    </row>
+    <row r="137" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B137" s="49" t="s">
+        <v>598</v>
+      </c>
+      <c r="C137" s="50" t="s">
+        <v>599</v>
+      </c>
+      <c r="D137" s="50" t="s">
+        <v>455</v>
+      </c>
+      <c r="E137" s="50" t="s">
+        <v>600</v>
+      </c>
+      <c r="F137" s="50" t="s">
+        <v>601</v>
+      </c>
+      <c r="G137" s="50" t="s">
+        <v>602</v>
+      </c>
+      <c r="H137" s="50" t="s">
+        <v>603</v>
+      </c>
+      <c r="I137" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="J137" s="50" t="s">
+        <v>605</v>
+      </c>
+      <c r="K137" s="50"/>
+      <c r="L137" s="50"/>
+      <c r="M137" s="51"/>
+    </row>
+    <row r="138" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B138" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C138" s="50" t="s">
+        <v>606</v>
+      </c>
+      <c r="D138" s="50" t="s">
+        <v>607</v>
+      </c>
+      <c r="E138" s="50" t="s">
+        <v>608</v>
+      </c>
+      <c r="F138" s="50" t="s">
+        <v>609</v>
+      </c>
+      <c r="G138" s="50" t="s">
+        <v>610</v>
+      </c>
+      <c r="H138" s="50" t="s">
+        <v>611</v>
+      </c>
+      <c r="I138" s="50" t="s">
+        <v>612</v>
+      </c>
+      <c r="J138" s="50" t="s">
+        <v>613</v>
+      </c>
+      <c r="K138" s="50"/>
+      <c r="L138" s="50"/>
+      <c r="M138" s="51"/>
+    </row>
+    <row r="139" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B139" s="49" t="s">
+        <v>614</v>
+      </c>
+      <c r="C139" s="50" t="s">
+        <v>615</v>
+      </c>
+      <c r="D139" s="50" t="s">
+        <v>616</v>
+      </c>
+      <c r="E139" s="50" t="s">
+        <v>617</v>
+      </c>
+      <c r="F139" s="50" t="s">
+        <v>618</v>
+      </c>
+      <c r="G139" s="50" t="s">
+        <v>619</v>
+      </c>
+      <c r="H139" s="50" t="s">
+        <v>620</v>
+      </c>
+      <c r="I139" s="50" t="s">
+        <v>621</v>
+      </c>
+      <c r="J139" s="50" t="s">
+        <v>622</v>
+      </c>
+      <c r="K139" s="50"/>
+      <c r="L139" s="50"/>
+      <c r="M139" s="51"/>
+    </row>
+    <row r="140" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B140" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C140" s="50" t="s">
+        <v>623</v>
+      </c>
+      <c r="D140" s="50" t="s">
+        <v>624</v>
+      </c>
+      <c r="E140" s="50" t="s">
+        <v>625</v>
+      </c>
+      <c r="F140" s="50" t="s">
+        <v>626</v>
+      </c>
+      <c r="G140" s="50" t="s">
+        <v>627</v>
+      </c>
+      <c r="H140" s="50" t="s">
+        <v>628</v>
+      </c>
+      <c r="I140" s="50" t="s">
+        <v>629</v>
+      </c>
+      <c r="J140" s="50" t="s">
+        <v>630</v>
+      </c>
+      <c r="K140" s="50"/>
+      <c r="L140" s="50"/>
+      <c r="M140" s="51"/>
+    </row>
+    <row r="141" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B141" s="49" t="s">
+        <v>631</v>
+      </c>
+      <c r="C141" s="50" t="s">
+        <v>632</v>
+      </c>
+      <c r="D141" s="50" t="s">
+        <v>633</v>
+      </c>
+      <c r="E141" s="50" t="s">
+        <v>634</v>
+      </c>
+      <c r="F141" s="50" t="s">
+        <v>635</v>
+      </c>
+      <c r="G141" s="50" t="s">
+        <v>636</v>
+      </c>
+      <c r="H141" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="I141" s="50" t="s">
+        <v>638</v>
+      </c>
+      <c r="J141" s="50" t="s">
+        <v>639</v>
+      </c>
+      <c r="K141" s="50"/>
+      <c r="L141" s="50"/>
+      <c r="M141" s="51"/>
+    </row>
+    <row r="142" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B142" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="C142" s="50" t="s">
+        <v>640</v>
+      </c>
+      <c r="D142" s="50" t="s">
+        <v>641</v>
+      </c>
+      <c r="E142" s="50" t="s">
+        <v>642</v>
+      </c>
+      <c r="F142" s="50" t="s">
+        <v>643</v>
+      </c>
+      <c r="G142" s="50" t="s">
+        <v>644</v>
+      </c>
+      <c r="H142" s="50" t="s">
+        <v>645</v>
+      </c>
+      <c r="I142" s="50" t="s">
+        <v>646</v>
+      </c>
+      <c r="J142" s="50" t="s">
+        <v>647</v>
+      </c>
+      <c r="K142" s="50"/>
+      <c r="L142" s="50"/>
+      <c r="M142" s="51"/>
+    </row>
+    <row r="143" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B143" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="C143" s="50" t="s">
+        <v>648</v>
+      </c>
+      <c r="D143" s="50" t="s">
+        <v>649</v>
+      </c>
+      <c r="E143" s="50" t="s">
+        <v>650</v>
+      </c>
+      <c r="F143" s="50" t="s">
+        <v>651</v>
+      </c>
+      <c r="G143" s="50" t="s">
+        <v>652</v>
+      </c>
+      <c r="H143" s="50" t="s">
+        <v>653</v>
+      </c>
+      <c r="I143" s="50" t="s">
+        <v>654</v>
+      </c>
+      <c r="J143" s="50" t="s">
+        <v>655</v>
+      </c>
+      <c r="K143" s="50"/>
+      <c r="L143" s="50"/>
+      <c r="M143" s="51"/>
+    </row>
+    <row r="144" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B144" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C144" s="50" t="s">
+        <v>656</v>
+      </c>
+      <c r="D144" s="50" t="s">
+        <v>657</v>
+      </c>
+      <c r="E144" s="50" t="s">
+        <v>658</v>
+      </c>
+      <c r="F144" s="50" t="s">
+        <v>659</v>
+      </c>
+      <c r="G144" s="50" t="s">
+        <v>660</v>
+      </c>
+      <c r="H144" s="50" t="s">
+        <v>661</v>
+      </c>
+      <c r="I144" s="50" t="s">
+        <v>662</v>
+      </c>
+      <c r="J144" s="50" t="s">
+        <v>663</v>
+      </c>
+      <c r="K144" s="50"/>
+      <c r="L144" s="50"/>
+      <c r="M144" s="51"/>
+    </row>
+    <row r="145" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B145" s="49" t="s">
+        <v>664</v>
+      </c>
+      <c r="C145" s="50" t="s">
+        <v>665</v>
+      </c>
+      <c r="D145" s="50" t="s">
+        <v>666</v>
+      </c>
+      <c r="E145" s="50" t="s">
+        <v>667</v>
+      </c>
+      <c r="F145" s="50" t="s">
+        <v>668</v>
+      </c>
+      <c r="G145" s="50" t="s">
+        <v>669</v>
+      </c>
+      <c r="H145" s="50" t="s">
+        <v>670</v>
+      </c>
+      <c r="I145" s="50" t="s">
+        <v>671</v>
+      </c>
+      <c r="J145" s="50" t="s">
+        <v>672</v>
+      </c>
+      <c r="K145" s="50"/>
+      <c r="L145" s="50"/>
+      <c r="M145" s="51"/>
+    </row>
+    <row r="146" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B146" s="49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C146" s="50" t="s">
+        <v>673</v>
+      </c>
+      <c r="D146" s="50" t="s">
+        <v>674</v>
+      </c>
+      <c r="E146" s="50" t="s">
+        <v>675</v>
+      </c>
+      <c r="F146" s="50" t="s">
+        <v>676</v>
+      </c>
+      <c r="G146" s="50" t="s">
+        <v>677</v>
+      </c>
+      <c r="H146" s="50" t="s">
+        <v>678</v>
+      </c>
+      <c r="I146" s="50" t="s">
+        <v>679</v>
+      </c>
+      <c r="J146" s="50" t="s">
+        <v>680</v>
+      </c>
+      <c r="K146" s="50"/>
+      <c r="L146" s="50"/>
+      <c r="M146" s="51"/>
+    </row>
+    <row r="147" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B147" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="C147" s="50" t="s">
+        <v>681</v>
+      </c>
+      <c r="D147" s="50" t="s">
+        <v>682</v>
+      </c>
+      <c r="E147" s="50" t="s">
+        <v>683</v>
+      </c>
+      <c r="F147" s="50" t="s">
+        <v>684</v>
+      </c>
+      <c r="G147" s="50" t="s">
+        <v>685</v>
+      </c>
+      <c r="H147" s="50" t="s">
+        <v>686</v>
+      </c>
+      <c r="I147" s="50" t="s">
+        <v>687</v>
+      </c>
+      <c r="J147" s="50" t="s">
+        <v>688</v>
+      </c>
+      <c r="K147" s="50"/>
+      <c r="L147" s="50"/>
+      <c r="M147" s="51"/>
+    </row>
+    <row r="148" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B148" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="C148" s="50" t="s">
+        <v>689</v>
+      </c>
+      <c r="D148" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="E148" s="50" t="s">
+        <v>690</v>
+      </c>
+      <c r="F148" s="50" t="s">
+        <v>691</v>
+      </c>
+      <c r="G148" s="50" t="s">
+        <v>692</v>
+      </c>
+      <c r="H148" s="50" t="s">
+        <v>693</v>
+      </c>
+      <c r="I148" s="50" t="s">
+        <v>694</v>
+      </c>
+      <c r="J148" s="50" t="s">
+        <v>695</v>
+      </c>
+      <c r="K148" s="50"/>
+      <c r="L148" s="50"/>
+      <c r="M148" s="51"/>
+    </row>
+    <row r="149" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B149" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C149" s="50" t="s">
+        <v>696</v>
+      </c>
+      <c r="D149" s="50" t="s">
+        <v>697</v>
+      </c>
+      <c r="E149" s="50" t="s">
+        <v>698</v>
+      </c>
+      <c r="F149" s="50" t="s">
+        <v>699</v>
+      </c>
+      <c r="G149" s="50" t="s">
+        <v>700</v>
+      </c>
+      <c r="H149" s="50" t="s">
+        <v>701</v>
+      </c>
+      <c r="I149" s="50" t="s">
+        <v>702</v>
+      </c>
+      <c r="J149" s="50" t="s">
+        <v>703</v>
+      </c>
+      <c r="K149" s="50"/>
+      <c r="L149" s="50"/>
+      <c r="M149" s="51"/>
+    </row>
+    <row r="150" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B150" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C150" s="50" t="s">
+        <v>704</v>
+      </c>
+      <c r="D150" s="50" t="s">
+        <v>705</v>
+      </c>
+      <c r="E150" s="50" t="s">
+        <v>706</v>
+      </c>
+      <c r="F150" s="50" t="s">
+        <v>707</v>
+      </c>
+      <c r="G150" s="50" t="s">
+        <v>708</v>
+      </c>
+      <c r="H150" s="50" t="s">
+        <v>709</v>
+      </c>
+      <c r="I150" s="50" t="s">
+        <v>710</v>
+      </c>
+      <c r="J150" s="50" t="s">
+        <v>711</v>
+      </c>
+      <c r="K150" s="50"/>
+      <c r="L150" s="50"/>
+      <c r="M150" s="51"/>
+    </row>
+    <row r="151" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B151" s="49" t="s">
+        <v>114</v>
+      </c>
+      <c r="C151" s="50" t="s">
+        <v>712</v>
+      </c>
+      <c r="D151" s="50" t="s">
+        <v>713</v>
+      </c>
+      <c r="E151" s="50" t="s">
+        <v>714</v>
+      </c>
+      <c r="F151" s="50" t="s">
+        <v>715</v>
+      </c>
+      <c r="G151" s="50" t="s">
+        <v>716</v>
+      </c>
+      <c r="H151" s="50" t="s">
+        <v>717</v>
+      </c>
+      <c r="I151" s="50" t="s">
+        <v>718</v>
+      </c>
+      <c r="J151" s="50" t="s">
+        <v>719</v>
+      </c>
+      <c r="K151" s="50"/>
+      <c r="L151" s="50"/>
+      <c r="M151" s="51"/>
+    </row>
+    <row r="152" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B152" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="C152" s="50" t="s">
+        <v>720</v>
+      </c>
+      <c r="D152" s="50" t="s">
+        <v>721</v>
+      </c>
+      <c r="E152" s="50" t="s">
+        <v>722</v>
+      </c>
+      <c r="F152" s="50" t="s">
+        <v>723</v>
+      </c>
+      <c r="G152" s="50" t="s">
+        <v>724</v>
+      </c>
+      <c r="H152" s="50" t="s">
+        <v>725</v>
+      </c>
+      <c r="I152" s="50" t="s">
+        <v>726</v>
+      </c>
+      <c r="J152" s="50" t="s">
+        <v>727</v>
+      </c>
+      <c r="K152" s="50"/>
+      <c r="L152" s="50"/>
+      <c r="M152" s="51"/>
+    </row>
+    <row r="153" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="B153" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="C153" s="50" t="s">
+        <v>728</v>
+      </c>
+      <c r="D153" s="50" t="s">
+        <v>729</v>
+      </c>
+      <c r="E153" s="50" t="s">
+        <v>730</v>
+      </c>
+      <c r="F153" s="50" t="s">
+        <v>731</v>
+      </c>
+      <c r="G153" s="50" t="s">
+        <v>732</v>
+      </c>
+      <c r="H153" s="50" t="s">
+        <v>733</v>
+      </c>
+      <c r="I153" s="50" t="s">
+        <v>734</v>
+      </c>
+      <c r="J153" s="50" t="s">
+        <v>735</v>
+      </c>
+      <c r="K153" s="50"/>
+      <c r="L153" s="50"/>
+      <c r="M153" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5827,8 +10063,16 @@
     <hyperlink ref="B79" r:id="rId84" tooltip="S/2003 J 23" display="https://en.wikipedia.org/wiki/S/2003_J_23"/>
     <hyperlink ref="B80" r:id="rId85" tooltip="Callirrhoe (moon)" display="https://en.wikipedia.org/wiki/Callirrhoe_(moon)"/>
     <hyperlink ref="B81" r:id="rId86" tooltip="Sinope (moon)" display="https://en.wikipedia.org/wiki/Sinope_(moon)"/>
+    <hyperlink ref="C85" r:id="rId87" location="legend" display="https://ssd.jpl.nasa.gov/?sat_elem - legend"/>
+    <hyperlink ref="D85" r:id="rId88" location="legend" display="https://ssd.jpl.nasa.gov/?sat_elem - legend"/>
+    <hyperlink ref="E85" r:id="rId89" location="legend" display="https://ssd.jpl.nasa.gov/?sat_elem - legend"/>
+    <hyperlink ref="F85" r:id="rId90" location="legend" display="https://ssd.jpl.nasa.gov/?sat_elem - legend"/>
+    <hyperlink ref="G85" r:id="rId91" location="legend" display="https://ssd.jpl.nasa.gov/?sat_elem - legend"/>
+    <hyperlink ref="H85" r:id="rId92" location="legend" display="https://ssd.jpl.nasa.gov/?sat_elem - legend"/>
+    <hyperlink ref="I85" r:id="rId93" location="legend" display="https://ssd.jpl.nasa.gov/?sat_elem - legend"/>
+    <hyperlink ref="J85" r:id="rId94" location="legend" display="https://ssd.jpl.nasa.gov/?sat_elem - legend"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="598" r:id="rId87"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="598" r:id="rId95"/>
 </worksheet>
 </file>
--- a/src/app/scene/data/jupiter.xlsx
+++ b/src/app/scene/data/jupiter.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="752">
   <si>
     <t>Metis</t>
   </si>
@@ -2254,6 +2254,54 @@
   </si>
   <si>
     <t>718.37</t>
+  </si>
+  <si>
+    <t>356.6</t>
+  </si>
+  <si>
+    <t>282.4</t>
+  </si>
+  <si>
+    <t>169.9</t>
+  </si>
+  <si>
+    <t>201.41718</t>
+  </si>
+  <si>
+    <t>168.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 236.9</t>
+  </si>
+  <si>
+    <t>91.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25.53</t>
+  </si>
+  <si>
+    <t>259.5</t>
+  </si>
+  <si>
+    <t>344.4</t>
+  </si>
+  <si>
+    <t>236.9</t>
+  </si>
+  <si>
+    <t>161.6</t>
+  </si>
+  <si>
+    <t>70.8</t>
+  </si>
+  <si>
+    <t>77.5</t>
+  </si>
+  <si>
+    <t>161.3</t>
+  </si>
+  <si>
+    <t>284.4</t>
   </si>
 </sst>
 </file>
@@ -2331,7 +2379,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2383,6 +2431,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2441,7 +2495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2573,18 +2627,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2606,6 +2648,19 @@
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2889,8 +2944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P153"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="I68" sqref="I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2905,10 +2960,10 @@
       <c r="A1" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="52" t="s">
         <v>92</v>
       </c>
       <c r="D1" s="23" t="s">
@@ -2925,8 +2980,8 @@
       <c r="A2" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="46"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="22" t="s">
         <v>94</v>
       </c>
@@ -2983,7 +3038,7 @@
         <v>METIS</v>
       </c>
       <c r="I3" t="str">
-        <f>LOWER(SUBSTITUTE(SUBSTITUTE(B3," ","-"),"/","/"))</f>
+        <f>LOWER(SUBSTITUTE(SUBSTITUTE(B3," ","-"),"/","_"))</f>
         <v>metis</v>
       </c>
       <c r="J3" s="28" t="str">
@@ -3007,7 +3062,7 @@
   semiMajorAxis: "&amp;E3&amp;",
   eccentricity: "&amp;F3&amp;",
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: "&amp;G3&amp;",
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -3024,7 +3079,7 @@
   semiMajorAxis: 128852,
   eccentricity: 0.0077,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 276.047,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -3059,7 +3114,7 @@
         <v>ADRASTEA</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I67" si="2">LOWER(SUBSTITUTE(SUBSTITUTE(B4," ","-"),"/","/"))</f>
+        <f t="shared" ref="I4:I67" si="2">LOWER(SUBSTITUTE(SUBSTITUTE(B4," ","-"),"/","_"))</f>
         <v>adrastea</v>
       </c>
       <c r="J4" s="28" t="str">
@@ -3083,7 +3138,7 @@
   semiMajorAxis: "&amp;E4&amp;",
   eccentricity: "&amp;F4&amp;",
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: "&amp;G4&amp;",
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -3100,7 +3155,7 @@
   semiMajorAxis: 129000,
   eccentricity: 0.0063,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 135.673,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -3160,7 +3215,7 @@
   semiMajorAxis: 181366,
   eccentricity: 0.0075,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 185.194,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -3220,7 +3275,7 @@
   semiMajorAxis: 222452,
   eccentricity: 0.0180,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 135.956,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -3280,7 +3335,7 @@
   semiMajorAxis: 421700,
   eccentricity: 0.0041,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 342.021,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -3340,7 +3395,7 @@
   semiMajorAxis: 671034,
   eccentricity: 0.0094,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 171.016,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -3400,7 +3455,7 @@
   semiMajorAxis: 1070412,
   eccentricity: 0.0011,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 317.540,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -3460,7 +3515,7 @@
   semiMajorAxis: 1882709,
   eccentricity: 0.0074,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 181.408,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -3520,7 +3575,7 @@
   semiMajorAxis: 7405000,
   eccentricity: 0.2514,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 313.051,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -3580,7 +3635,7 @@
   semiMajorAxis: 11196000,
   eccentricity: 0.1648,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 230.352,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -3606,9 +3661,8 @@
       <c r="F13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="G13" s="56" t="s">
+        <v>736</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
@@ -3640,7 +3694,7 @@
   semiMajorAxis: 11348700,
   eccentricity: 0.1043,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 356.6,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -3666,9 +3720,8 @@
       <c r="F14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G14" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="G14" s="56" t="s">
+        <v>737</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
@@ -3700,7 +3753,7 @@
   semiMajorAxis: 11462300,
   eccentricity: 0.2084,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 282.4,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -3760,7 +3813,7 @@
   semiMajorAxis: 11497400,
   eccentricity: 0.1510,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 66.874,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -3820,7 +3873,7 @@
   semiMajorAxis: 11628300,
   eccentricity: 0.1377,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 330.475,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -3880,7 +3933,7 @@
   semiMajorAxis: 11671600,
   eccentricity: 0.2079,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 330.985,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -3906,9 +3959,8 @@
       <c r="F18" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G18" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="G18" s="56" t="s">
+        <v>738</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
@@ -3940,7 +3992,7 @@
   semiMajorAxis: 12304900,
   eccentricity: 0.2606,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 169.9,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -4000,7 +4052,7 @@
   semiMajorAxis: 17151800,
   eccentricity: 0.4967,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 337.062,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -4026,9 +4078,8 @@
       <c r="F20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G20" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="G20" s="56" t="s">
+        <v>739</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
@@ -4060,7 +4111,7 @@
   semiMajorAxis: 18819000,
   eccentricity: 0.2018,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 201.41718,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -4120,7 +4171,7 @@
   semiMajorAxis: 19593900,
   eccentricity: 0.1402,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 70.243,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -4146,9 +4197,8 @@
       <c r="F22" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G22" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="G22" s="56" t="s">
+        <v>740</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="1"/>
@@ -4180,7 +4230,7 @@
   semiMajorAxis: 20126300,
   eccentricity: 0.4104,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 168.7,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -4216,7 +4266,7 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" si="2"/>
-        <v>s/2003-j-18</v>
+        <v>s_2003-j-18</v>
       </c>
       <c r="J23" s="28" t="str">
         <f t="shared" si="3"/>
@@ -4229,7 +4279,7 @@
       <c r="L23" t="str">
         <f t="shared" si="5"/>
         <v>export const S_2003_J_18: CelestialBody = {
-  id: 's/2003-j-18',
+  id: 's_2003-j-18',
   position: {
     x: 0,
     y: 0
@@ -4240,7 +4290,7 @@
   semiMajorAxis: 20348800,
   eccentricity: 0.0465,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 202.160,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -4276,7 +4326,7 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" si="2"/>
-        <v>s/2010-j-2</v>
+        <v>s_2010-j-2</v>
       </c>
       <c r="J24" s="28" t="str">
         <f t="shared" si="3"/>
@@ -4289,7 +4339,7 @@
       <c r="L24" t="str">
         <f t="shared" si="5"/>
         <v>export const S_2010_J_2: CelestialBody = {
-  id: 's/2010-j-2',
+  id: 's_2010-j-2',
   position: {
     x: 0,
     y: 0
@@ -4300,7 +4350,7 @@
   semiMajorAxis: 20436700,
   eccentricity: 0.3403,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 312.074,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -4360,7 +4410,7 @@
   semiMajorAxis: 20479500,
   eccentricity: 0.1331,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 43.659,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -4396,7 +4446,7 @@
       </c>
       <c r="I26" t="str">
         <f t="shared" si="2"/>
-        <v>s/2003-j-16</v>
+        <v>s_2003-j-16</v>
       </c>
       <c r="J26" s="28" t="str">
         <f t="shared" si="3"/>
@@ -4409,7 +4459,7 @@
       <c r="L26" t="str">
         <f t="shared" si="5"/>
         <v>export const S_2003_J_16: CelestialBody = {
-  id: 's/2003-j-16',
+  id: 's_2003-j-16',
   position: {
     x: 0,
     y: 0
@@ -4420,7 +4470,7 @@
   semiMajorAxis: 20512500,
   eccentricity: 0.3331,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 307.563,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -4456,7 +4506,7 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" si="2"/>
-        <v>s/2003-j-2</v>
+        <v>s_2003-j-2</v>
       </c>
       <c r="J27" s="28" t="str">
         <f t="shared" si="3"/>
@@ -4469,7 +4519,7 @@
       <c r="L27" t="str">
         <f t="shared" si="5"/>
         <v>export const S_2003_J_2: CelestialBody = {
-  id: 's/2003-j-2',
+  id: 's_2003-j-2',
   position: {
     x: 0,
     y: 0
@@ -4480,7 +4530,7 @@
   semiMajorAxis: 20554400,
   eccentricity: 0.2777,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 237.932,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -4540,7 +4590,7 @@
   semiMajorAxis: 20583300,
   eccentricity: 0.1096,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 333.101,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -4566,9 +4616,8 @@
       <c r="F29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G29" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="G29" s="56" t="s">
+        <v>741</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="1"/>
@@ -4576,7 +4625,7 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" si="2"/>
-        <v>s/2017-j-7</v>
+        <v>s_2017-j-7</v>
       </c>
       <c r="J29" s="28" t="str">
         <f t="shared" si="3"/>
@@ -4589,7 +4638,7 @@
       <c r="L29" t="str">
         <f t="shared" si="5"/>
         <v>export const S_2017_J_7: CelestialBody = {
-  id: 's/2017-j-7',
+  id: 's_2017-j-7',
   position: {
     x: 0,
     y: 0
@@ -4600,7 +4649,7 @@
   semiMajorAxis: 20600100,
   eccentricity: 0.2626,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly:  236.9,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -4660,7 +4709,7 @@
   semiMajorAxis: 20666200,
   eccentricity: 0.1981,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 131.854,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -4720,7 +4769,7 @@
   semiMajorAxis: 20682900,
   eccentricity: 0.2959,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 117.480,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -4780,7 +4829,7 @@
   semiMajorAxis: 20712800,
   eccentricity: 0.1770,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 238.786,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -4840,7 +4889,7 @@
   semiMajorAxis: 20893300,
   eccentricity: 0.1709,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 268.013,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -4866,9 +4915,8 @@
       <c r="F34" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="G34" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="G34" s="56" t="s">
+        <v>742</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="1"/>
@@ -4876,7 +4924,7 @@
       </c>
       <c r="I34" t="str">
         <f t="shared" si="2"/>
-        <v>s/2017-j-3</v>
+        <v>s_2017-j-3</v>
       </c>
       <c r="J34" s="28" t="str">
         <f t="shared" si="3"/>
@@ -4889,7 +4937,7 @@
       <c r="L34" t="str">
         <f t="shared" si="5"/>
         <v>export const S_2017_J_3: CelestialBody = {
-  id: 's/2017-j-3',
+  id: 's_2017-j-3',
   position: {
     x: 0,
     y: 0
@@ -4900,7 +4948,7 @@
   semiMajorAxis: 20976900,
   eccentricity: 0.1907,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 91.2,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -4960,7 +5008,7 @@
   semiMajorAxis: 21042500,
   eccentricity: 0.1747,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 253.384,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -5020,7 +5068,7 @@
   semiMajorAxis: 21064100,
   eccentricity: 0.3428,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 256.860,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -5046,9 +5094,8 @@
       <c r="F37" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G37" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="G37" s="56" t="s">
+        <v>743</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="1"/>
@@ -5056,7 +5103,7 @@
       </c>
       <c r="I37" t="str">
         <f t="shared" si="2"/>
-        <v>s/2016-j-1</v>
+        <v>s_2016-j-1</v>
       </c>
       <c r="J37" s="28" t="str">
         <f t="shared" si="3"/>
@@ -5069,7 +5116,7 @@
       <c r="L37" t="str">
         <f t="shared" si="5"/>
         <v>export const S_2016_J_1: CelestialBody = {
-  id: 's/2016-j-1',
+  id: 's_2016-j-1',
   position: {
     x: 0,
     y: 0
@@ -5080,7 +5127,7 @@
   semiMajorAxis: 21154000,
   eccentricity: 0.1294,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly:  25.53,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -5140,7 +5187,7 @@
   semiMajorAxis: 21171000,
   eccentricity: 0.4838,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 204.517,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -5200,7 +5247,7 @@
   semiMajorAxis: 21280200,
   eccentricity: 0.1602,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 215.956,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -5260,7 +5307,7 @@
   semiMajorAxis: 21431800,
   eccentricity: 0.3295,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 213.675,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -5286,9 +5333,8 @@
       <c r="F41" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G41" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="G41" s="56" t="s">
+        <v>744</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="1"/>
@@ -5296,7 +5342,7 @@
       </c>
       <c r="I41" t="str">
         <f t="shared" si="2"/>
-        <v>s/2017-j-9</v>
+        <v>s_2017-j-9</v>
       </c>
       <c r="J41" s="28" t="str">
         <f t="shared" si="3"/>
@@ -5309,7 +5355,7 @@
       <c r="L41" t="str">
         <f t="shared" si="5"/>
         <v>export const S_2017_J_9: CelestialBody = {
-  id: 's/2017-j-9',
+  id: 's_2017-j-9',
   position: {
     x: 0,
     y: 0
@@ -5320,7 +5366,7 @@
   semiMajorAxis: 21492900,
   eccentricity: 0.2524,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 259.5,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -5356,7 +5402,7 @@
       </c>
       <c r="I42" t="str">
         <f t="shared" si="2"/>
-        <v>s/2003-j-12</v>
+        <v>s_2003-j-12</v>
       </c>
       <c r="J42" s="28" t="str">
         <f t="shared" si="3"/>
@@ -5369,7 +5415,7 @@
       <c r="L42" t="str">
         <f t="shared" si="5"/>
         <v>export const S_2003_J_12: CelestialBody = {
-  id: 's/2003-j-12',
+  id: 's_2003-j-12',
   position: {
     x: 0,
     y: 0
@@ -5380,7 +5426,7 @@
   semiMajorAxis: 21557700,
   eccentricity: 0.3657,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 38.543,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -5416,7 +5462,7 @@
       </c>
       <c r="I43" t="str">
         <f t="shared" si="2"/>
-        <v>s/2003-j-4</v>
+        <v>s_2003-j-4</v>
       </c>
       <c r="J43" s="28" t="str">
         <f t="shared" si="3"/>
@@ -5429,7 +5475,7 @@
       <c r="L43" t="str">
         <f t="shared" si="5"/>
         <v>export const S_2003_J_4: CelestialBody = {
-  id: 's/2003-j-4',
+  id: 's_2003-j-4',
   position: {
     x: 0,
     y: 0
@@ -5440,7 +5486,7 @@
   semiMajorAxis: 22048600,
   eccentricity: 0.4967,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 260.480,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -5500,7 +5546,7 @@
   semiMajorAxis: 22354300,
   eccentricity: 0.2052,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 267.136,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -5560,7 +5606,7 @@
   semiMajorAxis: 22386500,
   eccentricity: 0.3150,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 105.000,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -5620,7 +5666,7 @@
   semiMajorAxis: 22408800,
   eccentricity: 0.1854,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 141.667,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -5680,7 +5726,7 @@
   semiMajorAxis: 22433500,
   eccentricity: 0.3257,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 94.756,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -5706,9 +5752,8 @@
       <c r="F48" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="G48" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="G48" s="56" t="s">
+        <v>745</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="1"/>
@@ -5716,7 +5761,7 @@
       </c>
       <c r="I48" t="str">
         <f t="shared" si="2"/>
-        <v>s/2017-j-2</v>
+        <v>s_2017-j-2</v>
       </c>
       <c r="J48" s="28" t="str">
         <f t="shared" si="3"/>
@@ -5729,7 +5774,7 @@
       <c r="L48" t="str">
         <f t="shared" si="5"/>
         <v>export const S_2017_J_2: CelestialBody = {
-  id: 's/2017-j-2',
+  id: 's_2017-j-2',
   position: {
     x: 0,
     y: 0
@@ -5740,7 +5785,7 @@
   semiMajorAxis: 22472900,
   eccentricity: 0.3852,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 344.4,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -5766,9 +5811,8 @@
       <c r="F49" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G49" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="G49" s="56" t="s">
+        <v>746</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="1"/>
@@ -5776,7 +5820,7 @@
       </c>
       <c r="I49" t="str">
         <f t="shared" si="2"/>
-        <v>s/2017-j-6</v>
+        <v>s_2017-j-6</v>
       </c>
       <c r="J49" s="28" t="str">
         <f t="shared" si="3"/>
@@ -5789,7 +5833,7 @@
       <c r="L49" t="str">
         <f t="shared" si="5"/>
         <v>export const S_2017_J_6: CelestialBody = {
-  id: 's/2017-j-6',
+  id: 's_2017-j-6',
   position: {
     x: 0,
     y: 0
@@ -5800,7 +5844,7 @@
   semiMajorAxis: 22543800,
   eccentricity: 0.3226,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 236.9,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -5860,7 +5904,7 @@
   semiMajorAxis: 22576700,
   eccentricity: 0.2790,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 204.846,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -5920,7 +5964,7 @@
   semiMajorAxis: 22579900,
   eccentricity: 0.2295,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 233.375,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -5956,7 +6000,7 @@
       </c>
       <c r="I52" t="str">
         <f t="shared" si="2"/>
-        <v>s/2003-j-19</v>
+        <v>s_2003-j-19</v>
       </c>
       <c r="J52" s="28" t="str">
         <f t="shared" si="3"/>
@@ -5969,7 +6013,7 @@
       <c r="L52" t="str">
         <f t="shared" si="5"/>
         <v>export const S_2003_J_19: CelestialBody = {
-  id: 's/2003-j-19',
+  id: 's_2003-j-19',
   position: {
     x: 0,
     y: 0
@@ -5980,7 +6024,7 @@
   semiMajorAxis: 22752500,
   eccentricity: 0.2928,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 223.035,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -6040,7 +6084,7 @@
   semiMajorAxis: 22776700,
   eccentricity: 0.2159,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 124.941,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -6076,7 +6120,7 @@
       </c>
       <c r="I54" t="str">
         <f t="shared" si="2"/>
-        <v>s/2003-j-10</v>
+        <v>s_2003-j-10</v>
       </c>
       <c r="J54" s="28" t="str">
         <f t="shared" si="3"/>
@@ -6089,7 +6133,7 @@
       <c r="L54" t="str">
         <f t="shared" si="5"/>
         <v>export const S_2003_J_10: CelestialBody = {
-  id: 's/2003-j-10',
+  id: 's_2003-j-10',
   position: {
     x: 0,
     y: 0
@@ -6100,7 +6144,7 @@
   semiMajorAxis: 22896200,
   eccentricity: 0.2066,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 258.937,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -6160,7 +6204,7 @@
   semiMajorAxis: 22933400,
   eccentricity: 0.4290,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 142.035,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -6186,9 +6230,8 @@
       <c r="F56" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G56" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="G56" s="56" t="s">
+        <v>747</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="1"/>
@@ -6220,7 +6263,7 @@
   semiMajorAxis: 22939900,
   eccentricity: 0.3013,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 161.6,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -6280,7 +6323,7 @@
   semiMajorAxis: 22965200,
   eccentricity: 0.6079,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 128.345,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -6340,7 +6383,7 @@
   semiMajorAxis: 22967800,
   eccentricity: 0.2097,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 215.443,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -6376,7 +6419,7 @@
       </c>
       <c r="I59" t="str">
         <f t="shared" si="2"/>
-        <v>s/2010-j-1</v>
+        <v>s_2010-j-1</v>
       </c>
       <c r="J59" s="28" t="str">
         <f t="shared" si="3"/>
@@ -6389,7 +6432,7 @@
       <c r="L59" t="str">
         <f t="shared" si="5"/>
         <v>export const S_2010_J_1: CelestialBody = {
-  id: 's/2010-j-1',
+  id: 's_2010-j-1',
   position: {
     x: 0,
     y: 0
@@ -6400,7 +6443,7 @@
   semiMajorAxis: 22986900,
   eccentricity: 0.2937,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 160.525,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -6460,7 +6503,7 @@
   semiMajorAxis: 23119300,
   eccentricity: 0.4362,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 279.769,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -6520,7 +6563,7 @@
   semiMajorAxis: 23146500,
   eccentricity: 0.3455,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 174.044,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -6546,9 +6589,8 @@
       <c r="F62" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="G62" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="G62" s="56" t="s">
+        <v>748</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="1"/>
@@ -6556,7 +6598,7 @@
       </c>
       <c r="I62" t="str">
         <f t="shared" si="2"/>
-        <v>s/2017-j-8</v>
+        <v>s_2017-j-8</v>
       </c>
       <c r="J62" s="28" t="str">
         <f t="shared" si="3"/>
@@ -6569,7 +6611,7 @@
       <c r="L62" t="str">
         <f t="shared" si="5"/>
         <v>export const S_2017_J_8: CelestialBody = {
-  id: 's/2017-j-8',
+  id: 's_2017-j-8',
   position: {
     x: 0,
     y: 0
@@ -6580,7 +6622,7 @@
   semiMajorAxis: 23173700,
   eccentricity: 0.2039,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 70.8,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -6640,7 +6682,7 @@
   semiMajorAxis: 23214500,
   eccentricity: 0.2975,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 287.689,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -6666,9 +6708,8 @@
       <c r="F64" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G64" t="str">
-        <f t="shared" si="0"/>
-        <v>null</v>
+      <c r="G64" s="56" t="s">
+        <v>749</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="1"/>
@@ -6676,7 +6717,7 @@
       </c>
       <c r="I64" t="str">
         <f t="shared" si="2"/>
-        <v>s/2017-j-5</v>
+        <v>s_2017-j-5</v>
       </c>
       <c r="J64" s="28" t="str">
         <f t="shared" si="3"/>
@@ -6689,7 +6730,7 @@
       <c r="L64" t="str">
         <f t="shared" si="5"/>
         <v>export const S_2017_J_5: CelestialBody = {
-  id: 's/2017-j-5',
+  id: 's_2017-j-5',
   position: {
     x: 0,
     y: 0
@@ -6700,7 +6741,7 @@
   semiMajorAxis: 23352500,
   eccentricity: 0.2460,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 77.5,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -6760,7 +6801,7 @@
   semiMajorAxis: 23377400,
   eccentricity: 0.2660,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 255.702,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -6820,7 +6861,7 @@
   semiMajorAxis: 23422300,
   eccentricity: 0.3358,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 236.950,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -6880,7 +6921,7 @@
   semiMajorAxis: 23512200,
   eccentricity: 0.2893,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 212.853,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -6915,7 +6956,7 @@
         <v>KALLICHORE</v>
       </c>
       <c r="I68" t="str">
-        <f t="shared" ref="I68:I81" si="8">LOWER(SUBSTITUTE(SUBSTITUTE(B68," ","-"),"/","/"))</f>
+        <f t="shared" ref="I68:I81" si="8">LOWER(SUBSTITUTE(SUBSTITUTE(B68," ","-"),"/","_"))</f>
         <v>kallichore</v>
       </c>
       <c r="J68" s="28" t="str">
@@ -6939,7 +6980,7 @@
   semiMajorAxis: "&amp;E68&amp;",
   eccentricity: "&amp;F68&amp;",
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: "&amp;G68&amp;",
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -6956,7 +6997,7 @@
   semiMajorAxis: 23552900,
   eccentricity: 0.3183,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 55.937,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -6992,7 +7033,7 @@
       </c>
       <c r="I69" t="str">
         <f t="shared" si="8"/>
-        <v>s/2011-j-1</v>
+        <v>s_2011-j-1</v>
       </c>
       <c r="J69" s="28" t="str">
         <f t="shared" si="9"/>
@@ -7005,7 +7046,7 @@
       <c r="L69" t="str">
         <f t="shared" si="11"/>
         <v>export const S_2011_J_1: CelestialBody = {
-  id: 's/2011-j-1',
+  id: 's_2011-j-1',
   position: {
     x: 0,
     y: 0
@@ -7016,7 +7057,7 @@
   semiMajorAxis: 23714400,
   eccentricity: 0.3193,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 256.027,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -7042,9 +7083,8 @@
       <c r="F70" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G70" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="G70" s="56" t="s">
+        <v>750</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="7"/>
@@ -7052,7 +7092,7 @@
       </c>
       <c r="I70" t="str">
         <f t="shared" si="8"/>
-        <v>s/2017-j-1</v>
+        <v>s_2017-j-1</v>
       </c>
       <c r="J70" s="28" t="str">
         <f t="shared" si="9"/>
@@ -7065,7 +7105,7 @@
       <c r="L70" t="str">
         <f t="shared" si="11"/>
         <v>export const S_2017_J_1: CelestialBody = {
-  id: 's/2017-j-1',
+  id: 's_2017-j-1',
   position: {
     x: 0,
     y: 0
@@ -7076,7 +7116,7 @@
   semiMajorAxis: 23753600,
   eccentricity: 0.4500,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 161.3,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -7136,7 +7176,7 @@
   semiMajorAxis: 23848300,
   eccentricity: 0.2705,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 267.454,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -7196,7 +7236,7 @@
   semiMajorAxis: 23926500,
   eccentricity: 0.2367,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 39.713,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -7222,9 +7262,8 @@
       <c r="F73" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="G73" t="str">
-        <f t="shared" si="6"/>
-        <v>null</v>
+      <c r="G73" s="56" t="s">
+        <v>751</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="7"/>
@@ -7256,7 +7295,7 @@
   semiMajorAxis: 23934500,
   eccentricity: 0.2413,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 284.4,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -7316,7 +7355,7 @@
   semiMajorAxis: 23999700,
   eccentricity: 0.2347,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 33.416,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -7352,7 +7391,7 @@
       </c>
       <c r="I75" t="str">
         <f t="shared" si="8"/>
-        <v>s/2011-j-2</v>
+        <v>s_2011-j-2</v>
       </c>
       <c r="J75" s="28" t="str">
         <f t="shared" si="9"/>
@@ -7365,7 +7404,7 @@
       <c r="L75" t="str">
         <f t="shared" si="11"/>
         <v>export const S_2011_J_2: CelestialBody = {
-  id: 's/2011-j-2',
+  id: 's_2011-j-2',
   position: {
     x: 0,
     y: 0
@@ -7376,7 +7415,7 @@
   semiMajorAxis: 24114700,
   eccentricity: 0.1729,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 285.597,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -7412,7 +7451,7 @@
       </c>
       <c r="I76" t="str">
         <f t="shared" si="8"/>
-        <v>s/2003-j-9</v>
+        <v>s_2003-j-9</v>
       </c>
       <c r="J76" s="28" t="str">
         <f t="shared" si="9"/>
@@ -7425,7 +7464,7 @@
       <c r="L76" t="str">
         <f t="shared" si="11"/>
         <v>export const S_2003_J_9: CelestialBody = {
-  id: 's/2003-j-9',
+  id: 's_2003-j-9',
   position: {
     x: 0,
     y: 0
@@ -7436,7 +7475,7 @@
   semiMajorAxis: 24168700,
   eccentricity: 0.1702,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 348.415,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -7496,7 +7535,7 @@
   semiMajorAxis: 24212300,
   eccentricity: 0.3139,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 135.272,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -7556,7 +7595,7 @@
   semiMajorAxis: 24283000,
   eccentricity: 0.3131,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 197.676,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -7592,7 +7631,7 @@
       </c>
       <c r="I79" t="str">
         <f t="shared" si="8"/>
-        <v>s/2003-j-23</v>
+        <v>s_2003-j-23</v>
       </c>
       <c r="J79" s="28" t="str">
         <f t="shared" si="9"/>
@@ -7605,7 +7644,7 @@
       <c r="L79" t="str">
         <f t="shared" si="11"/>
         <v>export const S_2003_J_23: CelestialBody = {
-  id: 's/2003-j-23',
+  id: 's_2003-j-23',
   position: {
     x: 0,
     y: 0
@@ -7616,7 +7655,7 @@
   semiMajorAxis: 24678200,
   eccentricity: 0.3208,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 144.222,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -7676,7 +7715,7 @@
   semiMajorAxis: 24692400,
   eccentricity: 0.3562,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 107.962,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -7736,7 +7775,7 @@
   semiMajorAxis: 24864100,
   eccentricity: 0.1669,
   trueAnomaly: 0,
-  meanAnomaly: 0, // TODO
+  meanAnomaly: 165.352,
   type: CELESTIAL_BODY_TYPE.SATELLITE,
   satellites: [],
   orbitBody: null
@@ -7744,2232 +7783,2232 @@
       </c>
     </row>
     <row r="85" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B85" s="52" t="s">
+      <c r="B85" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="C85" s="53" t="s">
+      <c r="C85" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="D85" s="53" t="s">
+      <c r="D85" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="E85" s="53" t="s">
+      <c r="E85" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="F85" s="53" t="s">
+      <c r="F85" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="G85" s="53" t="s">
+      <c r="G85" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="H85" s="53" t="s">
+      <c r="H85" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="I85" s="53" t="s">
+      <c r="I85" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="J85" s="53" t="s">
+      <c r="J85" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="K85" s="53"/>
-      <c r="L85" s="53"/>
-      <c r="M85" s="54"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="49"/>
+      <c r="M85" s="50"/>
     </row>
     <row r="86" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="52"/>
-      <c r="C86" s="55" t="s">
+      <c r="B86" s="48"/>
+      <c r="C86" s="51" t="s">
         <v>258</v>
       </c>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55" t="s">
+      <c r="D86" s="51"/>
+      <c r="E86" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="F86" s="55" t="s">
+      <c r="F86" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="G86" s="55" t="s">
+      <c r="G86" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="H86" s="55" t="s">
+      <c r="H86" s="51" t="s">
         <v>259</v>
       </c>
-      <c r="I86" s="55" t="s">
+      <c r="I86" s="51" t="s">
         <v>260</v>
       </c>
-      <c r="J86" s="55" t="s">
+      <c r="J86" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="K86" s="55"/>
-      <c r="L86" s="55"/>
-      <c r="M86" s="54"/>
+      <c r="K86" s="51"/>
+      <c r="L86" s="51"/>
+      <c r="M86" s="50"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B87" s="49" t="s">
+      <c r="B87" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="C87" s="50" t="s">
+      <c r="C87" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="D87" s="50" t="s">
+      <c r="D87" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="E87" s="50" t="s">
+      <c r="E87" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="F87" s="50" t="s">
+      <c r="F87" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="G87" s="50" t="s">
+      <c r="G87" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="H87" s="50" t="s">
+      <c r="H87" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="I87" s="50" t="s">
+      <c r="I87" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="J87" s="50" t="s">
+      <c r="J87" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="K87" s="50"/>
-      <c r="L87" s="50"/>
-      <c r="M87" s="50"/>
-      <c r="N87" s="50"/>
-      <c r="O87" s="50"/>
-      <c r="P87" s="51"/>
-    </row>
-    <row r="88" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B88" s="49" t="s">
+      <c r="K87" s="46"/>
+      <c r="L87" s="46"/>
+      <c r="M87" s="46"/>
+      <c r="N87" s="46"/>
+      <c r="O87" s="46"/>
+      <c r="P87" s="47"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B88" s="45" t="s">
         <v>102</v>
       </c>
-      <c r="C88" s="50" t="s">
+      <c r="C88" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="D88" s="50" t="s">
+      <c r="D88" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="E88" s="50" t="s">
+      <c r="E88" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="F88" s="50" t="s">
+      <c r="F88" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="G88" s="50" t="s">
+      <c r="G88" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="H88" s="50" t="s">
+      <c r="H88" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="I88" s="50" t="s">
+      <c r="I88" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="J88" s="50" t="s">
+      <c r="J88" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="K88" s="50"/>
-      <c r="L88" s="50"/>
-      <c r="M88" s="50"/>
-      <c r="N88" s="50"/>
-      <c r="O88" s="50"/>
-      <c r="P88" s="51"/>
-    </row>
-    <row r="89" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B89" s="49" t="s">
+      <c r="K88" s="46"/>
+      <c r="L88" s="46"/>
+      <c r="M88" s="46"/>
+      <c r="N88" s="46"/>
+      <c r="O88" s="46"/>
+      <c r="P88" s="47"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B89" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="C89" s="50" t="s">
+      <c r="C89" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="D89" s="50" t="s">
+      <c r="D89" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="E89" s="50" t="s">
+      <c r="E89" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="F89" s="50" t="s">
+      <c r="F89" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="G89" s="50" t="s">
+      <c r="G89" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="H89" s="50" t="s">
+      <c r="H89" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="I89" s="50" t="s">
+      <c r="I89" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="J89" s="50" t="s">
+      <c r="J89" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="K89" s="50"/>
-      <c r="L89" s="50"/>
-      <c r="M89" s="50"/>
-      <c r="N89" s="50"/>
-      <c r="O89" s="50"/>
-      <c r="P89" s="51"/>
-    </row>
-    <row r="90" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B90" s="49" t="s">
+      <c r="K89" s="46"/>
+      <c r="L89" s="46"/>
+      <c r="M89" s="46"/>
+      <c r="N89" s="46"/>
+      <c r="O89" s="46"/>
+      <c r="P89" s="47"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B90" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="C90" s="50" t="s">
+      <c r="C90" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="D90" s="50" t="s">
+      <c r="D90" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="E90" s="50" t="s">
+      <c r="E90" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="F90" s="50" t="s">
+      <c r="F90" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="G90" s="50" t="s">
+      <c r="G90" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="H90" s="50" t="s">
+      <c r="H90" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="I90" s="50" t="s">
+      <c r="I90" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="J90" s="50" t="s">
+      <c r="J90" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="K90" s="50"/>
-      <c r="L90" s="50"/>
-      <c r="M90" s="50"/>
-      <c r="N90" s="50"/>
-      <c r="O90" s="50"/>
-      <c r="P90" s="51"/>
-    </row>
-    <row r="91" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B91" s="49" t="s">
+      <c r="K90" s="46"/>
+      <c r="L90" s="46"/>
+      <c r="M90" s="46"/>
+      <c r="N90" s="46"/>
+      <c r="O90" s="46"/>
+      <c r="P90" s="47"/>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B91" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="50" t="s">
+      <c r="C91" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="D91" s="50" t="s">
+      <c r="D91" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="E91" s="50" t="s">
+      <c r="E91" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="F91" s="50" t="s">
+      <c r="F91" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="G91" s="50" t="s">
+      <c r="G91" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="H91" s="50" t="s">
+      <c r="H91" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="I91" s="50" t="s">
+      <c r="I91" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="J91" s="50" t="s">
+      <c r="J91" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="K91" s="50"/>
-      <c r="L91" s="50"/>
-      <c r="M91" s="50"/>
-      <c r="N91" s="50"/>
-      <c r="O91" s="50"/>
-      <c r="P91" s="51"/>
-    </row>
-    <row r="92" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B92" s="49" t="s">
+      <c r="K91" s="46"/>
+      <c r="L91" s="46"/>
+      <c r="M91" s="46"/>
+      <c r="N91" s="46"/>
+      <c r="O91" s="46"/>
+      <c r="P91" s="47"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B92" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="50" t="s">
+      <c r="C92" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="D92" s="50" t="s">
+      <c r="D92" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="E92" s="50" t="s">
+      <c r="E92" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="F92" s="50" t="s">
+      <c r="F92" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="G92" s="50" t="s">
+      <c r="G92" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="H92" s="50" t="s">
+      <c r="H92" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="I92" s="50" t="s">
+      <c r="I92" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="J92" s="50" t="s">
+      <c r="J92" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="K92" s="50"/>
-      <c r="L92" s="50"/>
-      <c r="M92" s="50"/>
-      <c r="N92" s="50"/>
-      <c r="O92" s="50"/>
-      <c r="P92" s="51"/>
-    </row>
-    <row r="93" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B93" s="49" t="s">
+      <c r="K92" s="46"/>
+      <c r="L92" s="46"/>
+      <c r="M92" s="46"/>
+      <c r="N92" s="46"/>
+      <c r="O92" s="46"/>
+      <c r="P92" s="47"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B93" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="C93" s="50" t="s">
+      <c r="C93" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="D93" s="50" t="s">
+      <c r="D93" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="E93" s="50" t="s">
+      <c r="E93" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="F93" s="50" t="s">
+      <c r="F93" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="G93" s="50" t="s">
+      <c r="G93" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="H93" s="50" t="s">
+      <c r="H93" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="I93" s="50" t="s">
+      <c r="I93" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="J93" s="50" t="s">
+      <c r="J93" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="K93" s="50"/>
-      <c r="L93" s="50"/>
-      <c r="M93" s="50"/>
-      <c r="N93" s="50"/>
-      <c r="O93" s="50"/>
-      <c r="P93" s="51"/>
-    </row>
-    <row r="94" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B94" s="49" t="s">
+      <c r="K93" s="46"/>
+      <c r="L93" s="46"/>
+      <c r="M93" s="46"/>
+      <c r="N93" s="46"/>
+      <c r="O93" s="46"/>
+      <c r="P93" s="47"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B94" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C94" s="50" t="s">
+      <c r="C94" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="D94" s="50" t="s">
+      <c r="D94" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="E94" s="50" t="s">
+      <c r="E94" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="F94" s="50" t="s">
+      <c r="F94" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="G94" s="50" t="s">
+      <c r="G94" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="H94" s="50" t="s">
+      <c r="H94" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="I94" s="50" t="s">
+      <c r="I94" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="J94" s="50" t="s">
+      <c r="J94" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="K94" s="50"/>
-      <c r="L94" s="50"/>
-      <c r="M94" s="50"/>
-      <c r="N94" s="50"/>
-      <c r="O94" s="50"/>
-      <c r="P94" s="51"/>
-    </row>
-    <row r="95" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B95" s="49" t="s">
+      <c r="K94" s="46"/>
+      <c r="L94" s="46"/>
+      <c r="M94" s="46"/>
+      <c r="N94" s="46"/>
+      <c r="O94" s="46"/>
+      <c r="P94" s="47"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B95" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C95" s="50" t="s">
+      <c r="C95" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="D95" s="50" t="s">
+      <c r="D95" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="E95" s="50" t="s">
+      <c r="E95" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="F95" s="50" t="s">
+      <c r="F95" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="G95" s="50" t="s">
+      <c r="G95" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="H95" s="50" t="s">
+      <c r="H95" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="I95" s="50" t="s">
+      <c r="I95" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="J95" s="50" t="s">
+      <c r="J95" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="K95" s="50"/>
-      <c r="L95" s="50"/>
-      <c r="M95" s="51"/>
-    </row>
-    <row r="96" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="B96" s="49" t="s">
+      <c r="K95" s="46"/>
+      <c r="L95" s="46"/>
+      <c r="M95" s="47"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B96" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="C96" s="50" t="s">
+      <c r="C96" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="D96" s="50" t="s">
+      <c r="D96" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="E96" s="50" t="s">
+      <c r="E96" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="F96" s="50" t="s">
+      <c r="F96" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="G96" s="50" t="s">
+      <c r="G96" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="H96" s="50" t="s">
+      <c r="H96" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="I96" s="50" t="s">
+      <c r="I96" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="J96" s="50" t="s">
+      <c r="J96" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="K96" s="50"/>
-      <c r="L96" s="50"/>
-      <c r="M96" s="51"/>
-    </row>
-    <row r="97" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B97" s="49" t="s">
+      <c r="K96" s="46"/>
+      <c r="L96" s="46"/>
+      <c r="M96" s="47"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B97" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C97" s="50" t="s">
+      <c r="C97" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="D97" s="50" t="s">
+      <c r="D97" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="E97" s="50" t="s">
+      <c r="E97" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="F97" s="50" t="s">
+      <c r="F97" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="G97" s="50" t="s">
+      <c r="G97" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="H97" s="50" t="s">
+      <c r="H97" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="I97" s="50" t="s">
+      <c r="I97" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="J97" s="50" t="s">
+      <c r="J97" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="K97" s="50"/>
-      <c r="L97" s="50"/>
-      <c r="M97" s="51"/>
-    </row>
-    <row r="98" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B98" s="49" t="s">
+      <c r="K97" s="46"/>
+      <c r="L97" s="46"/>
+      <c r="M97" s="47"/>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B98" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="C98" s="50" t="s">
+      <c r="C98" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="D98" s="50" t="s">
+      <c r="D98" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="E98" s="50" t="s">
+      <c r="E98" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="F98" s="50" t="s">
+      <c r="F98" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="G98" s="50" t="s">
+      <c r="G98" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="H98" s="50" t="s">
+      <c r="H98" s="46" t="s">
         <v>291</v>
       </c>
-      <c r="I98" s="50" t="s">
+      <c r="I98" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="J98" s="50" t="s">
+      <c r="J98" s="46" t="s">
         <v>293</v>
       </c>
-      <c r="K98" s="50"/>
-      <c r="L98" s="50"/>
-      <c r="M98" s="51"/>
-    </row>
-    <row r="99" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B99" s="49" t="s">
+      <c r="K98" s="46"/>
+      <c r="L98" s="46"/>
+      <c r="M98" s="47"/>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B99" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="C99" s="50" t="s">
+      <c r="C99" s="46" t="s">
         <v>294</v>
       </c>
-      <c r="D99" s="50" t="s">
+      <c r="D99" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="E99" s="50" t="s">
+      <c r="E99" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="F99" s="50" t="s">
+      <c r="F99" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="G99" s="50" t="s">
+      <c r="G99" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="H99" s="50" t="s">
+      <c r="H99" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="I99" s="50" t="s">
+      <c r="I99" s="46" t="s">
         <v>300</v>
       </c>
-      <c r="J99" s="50" t="s">
+      <c r="J99" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="K99" s="50"/>
-      <c r="L99" s="50"/>
-      <c r="M99" s="51"/>
-    </row>
-    <row r="100" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B100" s="49" t="s">
+      <c r="K99" s="46"/>
+      <c r="L99" s="46"/>
+      <c r="M99" s="47"/>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B100" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C100" s="50" t="s">
+      <c r="C100" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="D100" s="50" t="s">
+      <c r="D100" s="46" t="s">
         <v>303</v>
       </c>
-      <c r="E100" s="50" t="s">
+      <c r="E100" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="F100" s="50" t="s">
+      <c r="F100" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="G100" s="50" t="s">
+      <c r="G100" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="H100" s="50" t="s">
+      <c r="H100" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="I100" s="50" t="s">
+      <c r="I100" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="J100" s="50" t="s">
+      <c r="J100" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="K100" s="50"/>
-      <c r="L100" s="50"/>
-      <c r="M100" s="51"/>
-    </row>
-    <row r="101" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B101" s="49" t="s">
+      <c r="K100" s="46"/>
+      <c r="L100" s="46"/>
+      <c r="M100" s="47"/>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B101" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C101" s="50" t="s">
+      <c r="C101" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="D101" s="50" t="s">
+      <c r="D101" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="E101" s="50" t="s">
+      <c r="E101" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="F101" s="50" t="s">
+      <c r="F101" s="46" t="s">
         <v>313</v>
       </c>
-      <c r="G101" s="50" t="s">
+      <c r="G101" s="46" t="s">
         <v>314</v>
       </c>
-      <c r="H101" s="50" t="s">
+      <c r="H101" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="I101" s="50" t="s">
+      <c r="I101" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="J101" s="50" t="s">
+      <c r="J101" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="K101" s="50"/>
-      <c r="L101" s="50"/>
-      <c r="M101" s="51"/>
-    </row>
-    <row r="102" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B102" s="49" t="s">
+      <c r="K101" s="46"/>
+      <c r="L101" s="46"/>
+      <c r="M101" s="47"/>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B102" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="C102" s="50" t="s">
+      <c r="C102" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="D102" s="50" t="s">
+      <c r="D102" s="46" t="s">
         <v>319</v>
       </c>
-      <c r="E102" s="50" t="s">
+      <c r="E102" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="F102" s="50" t="s">
+      <c r="F102" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="G102" s="50" t="s">
+      <c r="G102" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="H102" s="50" t="s">
+      <c r="H102" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="I102" s="50" t="s">
+      <c r="I102" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="J102" s="50" t="s">
+      <c r="J102" s="46" t="s">
         <v>325</v>
       </c>
-      <c r="K102" s="50"/>
-      <c r="L102" s="50"/>
-      <c r="M102" s="51"/>
-    </row>
-    <row r="103" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B103" s="49" t="s">
+      <c r="K102" s="46"/>
+      <c r="L102" s="46"/>
+      <c r="M102" s="47"/>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B103" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="C103" s="50" t="s">
+      <c r="C103" s="46" t="s">
         <v>326</v>
       </c>
-      <c r="D103" s="50" t="s">
+      <c r="D103" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="E103" s="50" t="s">
+      <c r="E103" s="46" t="s">
         <v>328</v>
       </c>
-      <c r="F103" s="50" t="s">
+      <c r="F103" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="G103" s="50" t="s">
+      <c r="G103" s="46" t="s">
         <v>330</v>
       </c>
-      <c r="H103" s="50" t="s">
+      <c r="H103" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="I103" s="50" t="s">
+      <c r="I103" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="J103" s="50" t="s">
+      <c r="J103" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="K103" s="50"/>
-      <c r="L103" s="50"/>
-      <c r="M103" s="51"/>
-    </row>
-    <row r="104" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B104" s="49" t="s">
+      <c r="K103" s="46"/>
+      <c r="L103" s="46"/>
+      <c r="M103" s="47"/>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B104" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C104" s="50" t="s">
+      <c r="C104" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="D104" s="50" t="s">
+      <c r="D104" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="E104" s="50" t="s">
+      <c r="E104" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="F104" s="50" t="s">
+      <c r="F104" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="G104" s="50" t="s">
+      <c r="G104" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="H104" s="50" t="s">
+      <c r="H104" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="I104" s="50" t="s">
+      <c r="I104" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="J104" s="50" t="s">
+      <c r="J104" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="K104" s="50"/>
-      <c r="L104" s="50"/>
-      <c r="M104" s="51"/>
-    </row>
-    <row r="105" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B105" s="49" t="s">
+      <c r="K104" s="46"/>
+      <c r="L104" s="46"/>
+      <c r="M104" s="47"/>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B105" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="C105" s="50" t="s">
+      <c r="C105" s="46" t="s">
         <v>342</v>
       </c>
-      <c r="D105" s="50" t="s">
+      <c r="D105" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="E105" s="50" t="s">
+      <c r="E105" s="46" t="s">
         <v>344</v>
       </c>
-      <c r="F105" s="50" t="s">
+      <c r="F105" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="G105" s="50" t="s">
+      <c r="G105" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="H105" s="50" t="s">
+      <c r="H105" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="I105" s="50" t="s">
+      <c r="I105" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="J105" s="50" t="s">
+      <c r="J105" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="K105" s="50"/>
-      <c r="L105" s="50"/>
-      <c r="M105" s="51"/>
-    </row>
-    <row r="106" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B106" s="49" t="s">
+      <c r="K105" s="46"/>
+      <c r="L105" s="46"/>
+      <c r="M105" s="47"/>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B106" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="C106" s="50" t="s">
+      <c r="C106" s="46" t="s">
         <v>350</v>
       </c>
-      <c r="D106" s="50" t="s">
+      <c r="D106" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="E106" s="50" t="s">
+      <c r="E106" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="F106" s="50" t="s">
+      <c r="F106" s="46" t="s">
         <v>353</v>
       </c>
-      <c r="G106" s="50" t="s">
+      <c r="G106" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="H106" s="50" t="s">
+      <c r="H106" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="I106" s="50" t="s">
+      <c r="I106" s="46" t="s">
         <v>356</v>
       </c>
-      <c r="J106" s="50" t="s">
+      <c r="J106" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="K106" s="50"/>
-      <c r="L106" s="50"/>
-      <c r="M106" s="51"/>
-    </row>
-    <row r="107" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B107" s="49" t="s">
+      <c r="K106" s="46"/>
+      <c r="L106" s="46"/>
+      <c r="M106" s="47"/>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B107" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="C107" s="50" t="s">
+      <c r="C107" s="46" t="s">
         <v>358</v>
       </c>
-      <c r="D107" s="50" t="s">
+      <c r="D107" s="46" t="s">
         <v>359</v>
       </c>
-      <c r="E107" s="50" t="s">
+      <c r="E107" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="F107" s="50" t="s">
+      <c r="F107" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="G107" s="50" t="s">
+      <c r="G107" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="H107" s="50" t="s">
+      <c r="H107" s="46" t="s">
         <v>363</v>
       </c>
-      <c r="I107" s="50" t="s">
+      <c r="I107" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="J107" s="50" t="s">
+      <c r="J107" s="46" t="s">
         <v>365</v>
       </c>
-      <c r="K107" s="50"/>
-      <c r="L107" s="50"/>
-      <c r="M107" s="51"/>
-    </row>
-    <row r="108" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B108" s="49" t="s">
+      <c r="K107" s="46"/>
+      <c r="L107" s="46"/>
+      <c r="M107" s="47"/>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B108" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="C108" s="50" t="s">
+      <c r="C108" s="46" t="s">
         <v>366</v>
       </c>
-      <c r="D108" s="50" t="s">
+      <c r="D108" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="E108" s="50" t="s">
+      <c r="E108" s="46" t="s">
         <v>368</v>
       </c>
-      <c r="F108" s="50" t="s">
+      <c r="F108" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="G108" s="50" t="s">
+      <c r="G108" s="46" t="s">
         <v>370</v>
       </c>
-      <c r="H108" s="50" t="s">
+      <c r="H108" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="I108" s="50" t="s">
+      <c r="I108" s="46" t="s">
         <v>372</v>
       </c>
-      <c r="J108" s="50" t="s">
+      <c r="J108" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="K108" s="50"/>
-      <c r="L108" s="50"/>
-      <c r="M108" s="51"/>
-    </row>
-    <row r="109" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B109" s="49" t="s">
+      <c r="K108" s="46"/>
+      <c r="L108" s="46"/>
+      <c r="M108" s="47"/>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B109" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="C109" s="50" t="s">
+      <c r="C109" s="46" t="s">
         <v>374</v>
       </c>
-      <c r="D109" s="50" t="s">
+      <c r="D109" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="E109" s="50" t="s">
+      <c r="E109" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="F109" s="50" t="s">
+      <c r="F109" s="46" t="s">
         <v>377</v>
       </c>
-      <c r="G109" s="50" t="s">
+      <c r="G109" s="46" t="s">
         <v>378</v>
       </c>
-      <c r="H109" s="50" t="s">
+      <c r="H109" s="46" t="s">
         <v>379</v>
       </c>
-      <c r="I109" s="50" t="s">
+      <c r="I109" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="J109" s="50" t="s">
+      <c r="J109" s="46" t="s">
         <v>381</v>
       </c>
-      <c r="K109" s="50"/>
-      <c r="L109" s="50"/>
-      <c r="M109" s="51"/>
-    </row>
-    <row r="110" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B110" s="49" t="s">
+      <c r="K109" s="46"/>
+      <c r="L109" s="46"/>
+      <c r="M109" s="47"/>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B110" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="C110" s="50" t="s">
+      <c r="C110" s="46" t="s">
         <v>382</v>
       </c>
-      <c r="D110" s="50" t="s">
+      <c r="D110" s="46" t="s">
         <v>383</v>
       </c>
-      <c r="E110" s="50" t="s">
+      <c r="E110" s="46" t="s">
         <v>384</v>
       </c>
-      <c r="F110" s="50" t="s">
+      <c r="F110" s="46" t="s">
         <v>385</v>
       </c>
-      <c r="G110" s="50" t="s">
+      <c r="G110" s="46" t="s">
         <v>386</v>
       </c>
-      <c r="H110" s="50" t="s">
+      <c r="H110" s="46" t="s">
         <v>387</v>
       </c>
-      <c r="I110" s="50" t="s">
+      <c r="I110" s="46" t="s">
         <v>388</v>
       </c>
-      <c r="J110" s="50" t="s">
+      <c r="J110" s="46" t="s">
         <v>389</v>
       </c>
-      <c r="K110" s="50"/>
-      <c r="L110" s="50"/>
-      <c r="M110" s="51"/>
-    </row>
-    <row r="111" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B111" s="49" t="s">
+      <c r="K110" s="46"/>
+      <c r="L110" s="46"/>
+      <c r="M110" s="47"/>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B111" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="C111" s="50" t="s">
+      <c r="C111" s="46" t="s">
         <v>390</v>
       </c>
-      <c r="D111" s="50" t="s">
+      <c r="D111" s="46" t="s">
         <v>391</v>
       </c>
-      <c r="E111" s="50" t="s">
+      <c r="E111" s="46" t="s">
         <v>392</v>
       </c>
-      <c r="F111" s="50" t="s">
+      <c r="F111" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="G111" s="50" t="s">
+      <c r="G111" s="46" t="s">
         <v>394</v>
       </c>
-      <c r="H111" s="50" t="s">
+      <c r="H111" s="46" t="s">
         <v>395</v>
       </c>
-      <c r="I111" s="50" t="s">
+      <c r="I111" s="46" t="s">
         <v>396</v>
       </c>
-      <c r="J111" s="50" t="s">
+      <c r="J111" s="46" t="s">
         <v>397</v>
       </c>
-      <c r="K111" s="50"/>
-      <c r="L111" s="50"/>
-      <c r="M111" s="51"/>
-    </row>
-    <row r="112" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B112" s="49" t="s">
+      <c r="K111" s="46"/>
+      <c r="L111" s="46"/>
+      <c r="M111" s="47"/>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B112" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="C112" s="50" t="s">
+      <c r="C112" s="46" t="s">
         <v>398</v>
       </c>
-      <c r="D112" s="50" t="s">
+      <c r="D112" s="46" t="s">
         <v>399</v>
       </c>
-      <c r="E112" s="50" t="s">
+      <c r="E112" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="F112" s="50" t="s">
+      <c r="F112" s="46" t="s">
         <v>401</v>
       </c>
-      <c r="G112" s="50" t="s">
+      <c r="G112" s="46" t="s">
         <v>402</v>
       </c>
-      <c r="H112" s="50" t="s">
+      <c r="H112" s="46" t="s">
         <v>403</v>
       </c>
-      <c r="I112" s="50" t="s">
+      <c r="I112" s="46" t="s">
         <v>404</v>
       </c>
-      <c r="J112" s="50" t="s">
+      <c r="J112" s="46" t="s">
         <v>405</v>
       </c>
-      <c r="K112" s="50"/>
-      <c r="L112" s="50"/>
-      <c r="M112" s="51"/>
-    </row>
-    <row r="113" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B113" s="49" t="s">
+      <c r="K112" s="46"/>
+      <c r="L112" s="46"/>
+      <c r="M112" s="47"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B113" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="C113" s="50" t="s">
+      <c r="C113" s="46" t="s">
         <v>406</v>
       </c>
-      <c r="D113" s="50" t="s">
+      <c r="D113" s="46" t="s">
         <v>407</v>
       </c>
-      <c r="E113" s="50" t="s">
+      <c r="E113" s="46" t="s">
         <v>408</v>
       </c>
-      <c r="F113" s="50" t="s">
+      <c r="F113" s="46" t="s">
         <v>409</v>
       </c>
-      <c r="G113" s="50" t="s">
+      <c r="G113" s="46" t="s">
         <v>410</v>
       </c>
-      <c r="H113" s="50" t="s">
+      <c r="H113" s="46" t="s">
         <v>411</v>
       </c>
-      <c r="I113" s="50" t="s">
+      <c r="I113" s="46" t="s">
         <v>412</v>
       </c>
-      <c r="J113" s="50" t="s">
+      <c r="J113" s="46" t="s">
         <v>413</v>
       </c>
-      <c r="K113" s="50"/>
-      <c r="L113" s="50"/>
-      <c r="M113" s="51"/>
-    </row>
-    <row r="114" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B114" s="49" t="s">
+      <c r="K113" s="46"/>
+      <c r="L113" s="46"/>
+      <c r="M113" s="47"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B114" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="C114" s="50" t="s">
+      <c r="C114" s="46" t="s">
         <v>414</v>
       </c>
-      <c r="D114" s="50" t="s">
+      <c r="D114" s="46" t="s">
         <v>415</v>
       </c>
-      <c r="E114" s="50" t="s">
+      <c r="E114" s="46" t="s">
         <v>416</v>
       </c>
-      <c r="F114" s="50" t="s">
+      <c r="F114" s="46" t="s">
         <v>417</v>
       </c>
-      <c r="G114" s="50" t="s">
+      <c r="G114" s="46" t="s">
         <v>418</v>
       </c>
-      <c r="H114" s="50" t="s">
+      <c r="H114" s="46" t="s">
         <v>419</v>
       </c>
-      <c r="I114" s="50" t="s">
+      <c r="I114" s="46" t="s">
         <v>420</v>
       </c>
-      <c r="J114" s="50" t="s">
+      <c r="J114" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="K114" s="50"/>
-      <c r="L114" s="50"/>
-      <c r="M114" s="51"/>
-    </row>
-    <row r="115" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B115" s="49" t="s">
+      <c r="K114" s="46"/>
+      <c r="L114" s="46"/>
+      <c r="M114" s="47"/>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B115" s="45" t="s">
         <v>122</v>
       </c>
-      <c r="C115" s="50" t="s">
+      <c r="C115" s="46" t="s">
         <v>422</v>
       </c>
-      <c r="D115" s="50" t="s">
+      <c r="D115" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="E115" s="50" t="s">
+      <c r="E115" s="46" t="s">
         <v>424</v>
       </c>
-      <c r="F115" s="50" t="s">
+      <c r="F115" s="46" t="s">
         <v>425</v>
       </c>
-      <c r="G115" s="50" t="s">
+      <c r="G115" s="46" t="s">
         <v>426</v>
       </c>
-      <c r="H115" s="50" t="s">
+      <c r="H115" s="46" t="s">
         <v>427</v>
       </c>
-      <c r="I115" s="50" t="s">
+      <c r="I115" s="46" t="s">
         <v>428</v>
       </c>
-      <c r="J115" s="50" t="s">
+      <c r="J115" s="46" t="s">
         <v>429</v>
       </c>
-      <c r="K115" s="50"/>
-      <c r="L115" s="50"/>
-      <c r="M115" s="51"/>
-    </row>
-    <row r="116" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B116" s="49" t="s">
+      <c r="K115" s="46"/>
+      <c r="L115" s="46"/>
+      <c r="M115" s="47"/>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B116" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="C116" s="50" t="s">
+      <c r="C116" s="46" t="s">
         <v>430</v>
       </c>
-      <c r="D116" s="50" t="s">
+      <c r="D116" s="46" t="s">
         <v>431</v>
       </c>
-      <c r="E116" s="50" t="s">
+      <c r="E116" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="F116" s="50" t="s">
+      <c r="F116" s="46" t="s">
         <v>433</v>
       </c>
-      <c r="G116" s="50" t="s">
+      <c r="G116" s="46" t="s">
         <v>434</v>
       </c>
-      <c r="H116" s="50" t="s">
+      <c r="H116" s="46" t="s">
         <v>435</v>
       </c>
-      <c r="I116" s="50" t="s">
+      <c r="I116" s="46" t="s">
         <v>436</v>
       </c>
-      <c r="J116" s="50" t="s">
+      <c r="J116" s="46" t="s">
         <v>437</v>
       </c>
-      <c r="K116" s="50"/>
-      <c r="L116" s="50"/>
-      <c r="M116" s="51"/>
-    </row>
-    <row r="117" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B117" s="49" t="s">
+      <c r="K116" s="46"/>
+      <c r="L116" s="46"/>
+      <c r="M116" s="47"/>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B117" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="C117" s="50" t="s">
+      <c r="C117" s="46" t="s">
         <v>438</v>
       </c>
-      <c r="D117" s="50" t="s">
+      <c r="D117" s="46" t="s">
         <v>439</v>
       </c>
-      <c r="E117" s="50" t="s">
+      <c r="E117" s="46" t="s">
         <v>440</v>
       </c>
-      <c r="F117" s="50" t="s">
+      <c r="F117" s="46" t="s">
         <v>441</v>
       </c>
-      <c r="G117" s="50" t="s">
+      <c r="G117" s="46" t="s">
         <v>442</v>
       </c>
-      <c r="H117" s="50" t="s">
+      <c r="H117" s="46" t="s">
         <v>443</v>
       </c>
-      <c r="I117" s="50" t="s">
+      <c r="I117" s="46" t="s">
         <v>444</v>
       </c>
-      <c r="J117" s="50" t="s">
+      <c r="J117" s="46" t="s">
         <v>445</v>
       </c>
-      <c r="K117" s="50"/>
-      <c r="L117" s="50"/>
-      <c r="M117" s="51"/>
-    </row>
-    <row r="118" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B118" s="49" t="s">
+      <c r="K117" s="46"/>
+      <c r="L117" s="46"/>
+      <c r="M117" s="47"/>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B118" s="45" t="s">
         <v>138</v>
       </c>
-      <c r="C118" s="50" t="s">
+      <c r="C118" s="46" t="s">
         <v>446</v>
       </c>
-      <c r="D118" s="50" t="s">
+      <c r="D118" s="46" t="s">
         <v>447</v>
       </c>
-      <c r="E118" s="50" t="s">
+      <c r="E118" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="F118" s="50" t="s">
+      <c r="F118" s="46" t="s">
         <v>449</v>
       </c>
-      <c r="G118" s="50" t="s">
+      <c r="G118" s="46" t="s">
         <v>450</v>
       </c>
-      <c r="H118" s="50" t="s">
+      <c r="H118" s="46" t="s">
         <v>451</v>
       </c>
-      <c r="I118" s="50" t="s">
+      <c r="I118" s="46" t="s">
         <v>452</v>
       </c>
-      <c r="J118" s="50" t="s">
+      <c r="J118" s="46" t="s">
         <v>453</v>
       </c>
-      <c r="K118" s="50"/>
-      <c r="L118" s="50"/>
-      <c r="M118" s="51"/>
-    </row>
-    <row r="119" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B119" s="49" t="s">
+      <c r="K118" s="46"/>
+      <c r="L118" s="46"/>
+      <c r="M118" s="47"/>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B119" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="C119" s="50" t="s">
+      <c r="C119" s="46" t="s">
         <v>454</v>
       </c>
-      <c r="D119" s="50" t="s">
+      <c r="D119" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="E119" s="50" t="s">
+      <c r="E119" s="46" t="s">
         <v>456</v>
       </c>
-      <c r="F119" s="50" t="s">
+      <c r="F119" s="46" t="s">
         <v>457</v>
       </c>
-      <c r="G119" s="50" t="s">
+      <c r="G119" s="46" t="s">
         <v>458</v>
       </c>
-      <c r="H119" s="50" t="s">
+      <c r="H119" s="46" t="s">
         <v>459</v>
       </c>
-      <c r="I119" s="50" t="s">
+      <c r="I119" s="46" t="s">
         <v>460</v>
       </c>
-      <c r="J119" s="50" t="s">
+      <c r="J119" s="46" t="s">
         <v>461</v>
       </c>
-      <c r="K119" s="50"/>
-      <c r="L119" s="50"/>
-      <c r="M119" s="51"/>
-    </row>
-    <row r="120" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B120" s="49" t="s">
+      <c r="K119" s="46"/>
+      <c r="L119" s="46"/>
+      <c r="M119" s="47"/>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B120" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="C120" s="50" t="s">
+      <c r="C120" s="46" t="s">
         <v>462</v>
       </c>
-      <c r="D120" s="50" t="s">
+      <c r="D120" s="46" t="s">
         <v>463</v>
       </c>
-      <c r="E120" s="50" t="s">
+      <c r="E120" s="46" t="s">
         <v>464</v>
       </c>
-      <c r="F120" s="50" t="s">
+      <c r="F120" s="46" t="s">
         <v>465</v>
       </c>
-      <c r="G120" s="50" t="s">
+      <c r="G120" s="46" t="s">
         <v>466</v>
       </c>
-      <c r="H120" s="50" t="s">
+      <c r="H120" s="46" t="s">
         <v>467</v>
       </c>
-      <c r="I120" s="50" t="s">
+      <c r="I120" s="46" t="s">
         <v>468</v>
       </c>
-      <c r="J120" s="50" t="s">
+      <c r="J120" s="46" t="s">
         <v>469</v>
       </c>
-      <c r="K120" s="50"/>
-      <c r="L120" s="50"/>
-      <c r="M120" s="51"/>
-    </row>
-    <row r="121" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B121" s="49" t="s">
+      <c r="K120" s="46"/>
+      <c r="L120" s="46"/>
+      <c r="M120" s="47"/>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B121" s="45" t="s">
         <v>127</v>
       </c>
-      <c r="C121" s="50" t="s">
+      <c r="C121" s="46" t="s">
         <v>470</v>
       </c>
-      <c r="D121" s="50" t="s">
+      <c r="D121" s="46" t="s">
         <v>471</v>
       </c>
-      <c r="E121" s="50" t="s">
+      <c r="E121" s="46" t="s">
         <v>472</v>
       </c>
-      <c r="F121" s="50" t="s">
+      <c r="F121" s="46" t="s">
         <v>473</v>
       </c>
-      <c r="G121" s="50" t="s">
+      <c r="G121" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="H121" s="50" t="s">
+      <c r="H121" s="46" t="s">
         <v>475</v>
       </c>
-      <c r="I121" s="50" t="s">
+      <c r="I121" s="46" t="s">
         <v>476</v>
       </c>
-      <c r="J121" s="50" t="s">
+      <c r="J121" s="46" t="s">
         <v>477</v>
       </c>
-      <c r="K121" s="50"/>
-      <c r="L121" s="50"/>
-      <c r="M121" s="51"/>
-    </row>
-    <row r="122" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B122" s="49" t="s">
+      <c r="K121" s="46"/>
+      <c r="L121" s="46"/>
+      <c r="M121" s="47"/>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B122" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="C122" s="50" t="s">
+      <c r="C122" s="46" t="s">
         <v>478</v>
       </c>
-      <c r="D122" s="50" t="s">
+      <c r="D122" s="46" t="s">
         <v>479</v>
       </c>
-      <c r="E122" s="50" t="s">
+      <c r="E122" s="46" t="s">
         <v>480</v>
       </c>
-      <c r="F122" s="50" t="s">
+      <c r="F122" s="46" t="s">
         <v>481</v>
       </c>
-      <c r="G122" s="50" t="s">
+      <c r="G122" s="46" t="s">
         <v>482</v>
       </c>
-      <c r="H122" s="50" t="s">
+      <c r="H122" s="46" t="s">
         <v>483</v>
       </c>
-      <c r="I122" s="50" t="s">
+      <c r="I122" s="46" t="s">
         <v>484</v>
       </c>
-      <c r="J122" s="50" t="s">
+      <c r="J122" s="46" t="s">
         <v>485</v>
       </c>
-      <c r="K122" s="50"/>
-      <c r="L122" s="50"/>
-      <c r="M122" s="51"/>
-    </row>
-    <row r="123" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B123" s="49" t="s">
+      <c r="K122" s="46"/>
+      <c r="L122" s="46"/>
+      <c r="M122" s="47"/>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B123" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="C123" s="50" t="s">
+      <c r="C123" s="46" t="s">
         <v>486</v>
       </c>
-      <c r="D123" s="50" t="s">
+      <c r="D123" s="46" t="s">
         <v>487</v>
       </c>
-      <c r="E123" s="50" t="s">
+      <c r="E123" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="F123" s="50" t="s">
+      <c r="F123" s="46" t="s">
         <v>489</v>
       </c>
-      <c r="G123" s="50" t="s">
+      <c r="G123" s="46" t="s">
         <v>490</v>
       </c>
-      <c r="H123" s="50" t="s">
+      <c r="H123" s="46" t="s">
         <v>491</v>
       </c>
-      <c r="I123" s="50" t="s">
+      <c r="I123" s="46" t="s">
         <v>492</v>
       </c>
-      <c r="J123" s="50" t="s">
+      <c r="J123" s="46" t="s">
         <v>493</v>
       </c>
-      <c r="K123" s="50"/>
-      <c r="L123" s="50"/>
-      <c r="M123" s="51"/>
-    </row>
-    <row r="124" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B124" s="49" t="s">
+      <c r="K123" s="46"/>
+      <c r="L123" s="46"/>
+      <c r="M123" s="47"/>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B124" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="C124" s="50" t="s">
+      <c r="C124" s="46" t="s">
         <v>494</v>
       </c>
-      <c r="D124" s="50" t="s">
+      <c r="D124" s="46" t="s">
         <v>495</v>
       </c>
-      <c r="E124" s="50" t="s">
+      <c r="E124" s="46" t="s">
         <v>496</v>
       </c>
-      <c r="F124" s="50" t="s">
+      <c r="F124" s="46" t="s">
         <v>497</v>
       </c>
-      <c r="G124" s="50" t="s">
+      <c r="G124" s="46" t="s">
         <v>498</v>
       </c>
-      <c r="H124" s="50" t="s">
+      <c r="H124" s="46" t="s">
         <v>499</v>
       </c>
-      <c r="I124" s="50" t="s">
+      <c r="I124" s="46" t="s">
         <v>500</v>
       </c>
-      <c r="J124" s="50" t="s">
+      <c r="J124" s="46" t="s">
         <v>501</v>
       </c>
-      <c r="K124" s="50"/>
-      <c r="L124" s="50"/>
-      <c r="M124" s="51"/>
-    </row>
-    <row r="125" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B125" s="49" t="s">
+      <c r="K124" s="46"/>
+      <c r="L124" s="46"/>
+      <c r="M124" s="47"/>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B125" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="C125" s="50" t="s">
+      <c r="C125" s="46" t="s">
         <v>502</v>
       </c>
-      <c r="D125" s="50" t="s">
+      <c r="D125" s="46" t="s">
         <v>503</v>
       </c>
-      <c r="E125" s="50" t="s">
+      <c r="E125" s="46" t="s">
         <v>504</v>
       </c>
-      <c r="F125" s="50" t="s">
+      <c r="F125" s="46" t="s">
         <v>505</v>
       </c>
-      <c r="G125" s="50" t="s">
+      <c r="G125" s="46" t="s">
         <v>506</v>
       </c>
-      <c r="H125" s="50" t="s">
+      <c r="H125" s="46" t="s">
         <v>507</v>
       </c>
-      <c r="I125" s="50" t="s">
+      <c r="I125" s="46" t="s">
         <v>508</v>
       </c>
-      <c r="J125" s="50" t="s">
+      <c r="J125" s="46" t="s">
         <v>509</v>
       </c>
-      <c r="K125" s="50"/>
-      <c r="L125" s="50"/>
-      <c r="M125" s="51"/>
-    </row>
-    <row r="126" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B126" s="49" t="s">
+      <c r="K125" s="46"/>
+      <c r="L125" s="46"/>
+      <c r="M125" s="47"/>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B126" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="C126" s="50" t="s">
+      <c r="C126" s="46" t="s">
         <v>510</v>
       </c>
-      <c r="D126" s="50" t="s">
+      <c r="D126" s="46" t="s">
         <v>511</v>
       </c>
-      <c r="E126" s="50" t="s">
+      <c r="E126" s="46" t="s">
         <v>512</v>
       </c>
-      <c r="F126" s="50" t="s">
+      <c r="F126" s="46" t="s">
         <v>513</v>
       </c>
-      <c r="G126" s="50" t="s">
+      <c r="G126" s="46" t="s">
         <v>514</v>
       </c>
-      <c r="H126" s="50" t="s">
+      <c r="H126" s="46" t="s">
         <v>515</v>
       </c>
-      <c r="I126" s="50" t="s">
+      <c r="I126" s="46" t="s">
         <v>516</v>
       </c>
-      <c r="J126" s="50" t="s">
+      <c r="J126" s="46" t="s">
         <v>517</v>
       </c>
-      <c r="K126" s="50"/>
-      <c r="L126" s="50"/>
-      <c r="M126" s="51"/>
-    </row>
-    <row r="127" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B127" s="49" t="s">
+      <c r="K126" s="46"/>
+      <c r="L126" s="46"/>
+      <c r="M126" s="47"/>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B127" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="C127" s="50" t="s">
+      <c r="C127" s="46" t="s">
         <v>518</v>
       </c>
-      <c r="D127" s="50" t="s">
+      <c r="D127" s="46" t="s">
         <v>519</v>
       </c>
-      <c r="E127" s="50" t="s">
+      <c r="E127" s="46" t="s">
         <v>520</v>
       </c>
-      <c r="F127" s="50" t="s">
+      <c r="F127" s="46" t="s">
         <v>521</v>
       </c>
-      <c r="G127" s="50" t="s">
+      <c r="G127" s="46" t="s">
         <v>522</v>
       </c>
-      <c r="H127" s="50" t="s">
+      <c r="H127" s="46" t="s">
         <v>523</v>
       </c>
-      <c r="I127" s="50" t="s">
+      <c r="I127" s="46" t="s">
         <v>524</v>
       </c>
-      <c r="J127" s="50" t="s">
+      <c r="J127" s="46" t="s">
         <v>525</v>
       </c>
-      <c r="K127" s="50"/>
-      <c r="L127" s="50"/>
-      <c r="M127" s="51"/>
-    </row>
-    <row r="128" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B128" s="49" t="s">
+      <c r="K127" s="46"/>
+      <c r="L127" s="46"/>
+      <c r="M127" s="47"/>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B128" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="C128" s="50" t="s">
+      <c r="C128" s="46" t="s">
         <v>526</v>
       </c>
-      <c r="D128" s="50" t="s">
+      <c r="D128" s="46" t="s">
         <v>527</v>
       </c>
-      <c r="E128" s="50" t="s">
+      <c r="E128" s="46" t="s">
         <v>528</v>
       </c>
-      <c r="F128" s="50" t="s">
+      <c r="F128" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="G128" s="50" t="s">
+      <c r="G128" s="46" t="s">
         <v>530</v>
       </c>
-      <c r="H128" s="50" t="s">
+      <c r="H128" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="I128" s="50" t="s">
+      <c r="I128" s="46" t="s">
         <v>532</v>
       </c>
-      <c r="J128" s="50" t="s">
+      <c r="J128" s="46" t="s">
         <v>533</v>
       </c>
-      <c r="K128" s="50"/>
-      <c r="L128" s="50"/>
-      <c r="M128" s="51"/>
-    </row>
-    <row r="129" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B129" s="49" t="s">
+      <c r="K128" s="46"/>
+      <c r="L128" s="46"/>
+      <c r="M128" s="47"/>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B129" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="C129" s="50" t="s">
+      <c r="C129" s="46" t="s">
         <v>534</v>
       </c>
-      <c r="D129" s="50" t="s">
+      <c r="D129" s="46" t="s">
         <v>535</v>
       </c>
-      <c r="E129" s="50" t="s">
+      <c r="E129" s="46" t="s">
         <v>536</v>
       </c>
-      <c r="F129" s="50" t="s">
+      <c r="F129" s="46" t="s">
         <v>537</v>
       </c>
-      <c r="G129" s="50" t="s">
+      <c r="G129" s="46" t="s">
         <v>538</v>
       </c>
-      <c r="H129" s="50" t="s">
+      <c r="H129" s="46" t="s">
         <v>539</v>
       </c>
-      <c r="I129" s="50" t="s">
+      <c r="I129" s="46" t="s">
         <v>540</v>
       </c>
-      <c r="J129" s="50" t="s">
+      <c r="J129" s="46" t="s">
         <v>541</v>
       </c>
-      <c r="K129" s="50"/>
-      <c r="L129" s="50"/>
-      <c r="M129" s="51"/>
-    </row>
-    <row r="130" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B130" s="49" t="s">
+      <c r="K129" s="46"/>
+      <c r="L129" s="46"/>
+      <c r="M129" s="47"/>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B130" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="C130" s="50" t="s">
+      <c r="C130" s="46" t="s">
         <v>542</v>
       </c>
-      <c r="D130" s="50" t="s">
+      <c r="D130" s="46" t="s">
         <v>543</v>
       </c>
-      <c r="E130" s="50" t="s">
+      <c r="E130" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="F130" s="50" t="s">
+      <c r="F130" s="46" t="s">
         <v>545</v>
       </c>
-      <c r="G130" s="50" t="s">
+      <c r="G130" s="46" t="s">
         <v>546</v>
       </c>
-      <c r="H130" s="50" t="s">
+      <c r="H130" s="46" t="s">
         <v>547</v>
       </c>
-      <c r="I130" s="50" t="s">
+      <c r="I130" s="46" t="s">
         <v>548</v>
       </c>
-      <c r="J130" s="50" t="s">
+      <c r="J130" s="46" t="s">
         <v>549</v>
       </c>
-      <c r="K130" s="50"/>
-      <c r="L130" s="50"/>
-      <c r="M130" s="51"/>
-    </row>
-    <row r="131" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B131" s="49" t="s">
+      <c r="K130" s="46"/>
+      <c r="L130" s="46"/>
+      <c r="M130" s="47"/>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B131" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="C131" s="50" t="s">
+      <c r="C131" s="46" t="s">
         <v>550</v>
       </c>
-      <c r="D131" s="50" t="s">
+      <c r="D131" s="46" t="s">
         <v>551</v>
       </c>
-      <c r="E131" s="50" t="s">
+      <c r="E131" s="46" t="s">
         <v>552</v>
       </c>
-      <c r="F131" s="50" t="s">
+      <c r="F131" s="46" t="s">
         <v>553</v>
       </c>
-      <c r="G131" s="50" t="s">
+      <c r="G131" s="46" t="s">
         <v>554</v>
       </c>
-      <c r="H131" s="50" t="s">
+      <c r="H131" s="46" t="s">
         <v>555</v>
       </c>
-      <c r="I131" s="50" t="s">
+      <c r="I131" s="46" t="s">
         <v>556</v>
       </c>
-      <c r="J131" s="50" t="s">
+      <c r="J131" s="46" t="s">
         <v>557</v>
       </c>
-      <c r="K131" s="50"/>
-      <c r="L131" s="50"/>
-      <c r="M131" s="51"/>
-    </row>
-    <row r="132" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B132" s="49" t="s">
+      <c r="K131" s="46"/>
+      <c r="L131" s="46"/>
+      <c r="M131" s="47"/>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B132" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C132" s="50" t="s">
+      <c r="C132" s="46" t="s">
         <v>558</v>
       </c>
-      <c r="D132" s="50" t="s">
+      <c r="D132" s="46" t="s">
         <v>559</v>
       </c>
-      <c r="E132" s="50" t="s">
+      <c r="E132" s="46" t="s">
         <v>560</v>
       </c>
-      <c r="F132" s="50" t="s">
+      <c r="F132" s="46" t="s">
         <v>561</v>
       </c>
-      <c r="G132" s="50" t="s">
+      <c r="G132" s="46" t="s">
         <v>562</v>
       </c>
-      <c r="H132" s="50" t="s">
+      <c r="H132" s="46" t="s">
         <v>563</v>
       </c>
-      <c r="I132" s="50" t="s">
+      <c r="I132" s="46" t="s">
         <v>564</v>
       </c>
-      <c r="J132" s="50" t="s">
+      <c r="J132" s="46" t="s">
         <v>565</v>
       </c>
-      <c r="K132" s="50"/>
-      <c r="L132" s="50"/>
-      <c r="M132" s="51"/>
-    </row>
-    <row r="133" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B133" s="49" t="s">
+      <c r="K132" s="46"/>
+      <c r="L132" s="46"/>
+      <c r="M132" s="47"/>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B133" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="C133" s="50" t="s">
+      <c r="C133" s="46" t="s">
         <v>566</v>
       </c>
-      <c r="D133" s="50" t="s">
+      <c r="D133" s="46" t="s">
         <v>567</v>
       </c>
-      <c r="E133" s="50" t="s">
+      <c r="E133" s="46" t="s">
         <v>568</v>
       </c>
-      <c r="F133" s="50" t="s">
+      <c r="F133" s="46" t="s">
         <v>569</v>
       </c>
-      <c r="G133" s="50" t="s">
+      <c r="G133" s="46" t="s">
         <v>570</v>
       </c>
-      <c r="H133" s="50" t="s">
+      <c r="H133" s="46" t="s">
         <v>571</v>
       </c>
-      <c r="I133" s="50" t="s">
+      <c r="I133" s="46" t="s">
         <v>572</v>
       </c>
-      <c r="J133" s="50" t="s">
+      <c r="J133" s="46" t="s">
         <v>573</v>
       </c>
-      <c r="K133" s="50"/>
-      <c r="L133" s="50"/>
-      <c r="M133" s="51"/>
-    </row>
-    <row r="134" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B134" s="49" t="s">
+      <c r="K133" s="46"/>
+      <c r="L133" s="46"/>
+      <c r="M133" s="47"/>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B134" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="C134" s="50" t="s">
+      <c r="C134" s="46" t="s">
         <v>574</v>
       </c>
-      <c r="D134" s="50" t="s">
+      <c r="D134" s="46" t="s">
         <v>575</v>
       </c>
-      <c r="E134" s="50" t="s">
+      <c r="E134" s="46" t="s">
         <v>576</v>
       </c>
-      <c r="F134" s="50" t="s">
+      <c r="F134" s="46" t="s">
         <v>577</v>
       </c>
-      <c r="G134" s="50" t="s">
+      <c r="G134" s="46" t="s">
         <v>578</v>
       </c>
-      <c r="H134" s="50" t="s">
+      <c r="H134" s="46" t="s">
         <v>579</v>
       </c>
-      <c r="I134" s="50" t="s">
+      <c r="I134" s="46" t="s">
         <v>580</v>
       </c>
-      <c r="J134" s="50" t="s">
+      <c r="J134" s="46" t="s">
         <v>581</v>
       </c>
-      <c r="K134" s="50"/>
-      <c r="L134" s="50"/>
-      <c r="M134" s="51"/>
-    </row>
-    <row r="135" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B135" s="49" t="s">
+      <c r="K134" s="46"/>
+      <c r="L134" s="46"/>
+      <c r="M134" s="47"/>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B135" s="45" t="s">
         <v>141</v>
       </c>
-      <c r="C135" s="50" t="s">
+      <c r="C135" s="46" t="s">
         <v>582</v>
       </c>
-      <c r="D135" s="50" t="s">
+      <c r="D135" s="46" t="s">
         <v>583</v>
       </c>
-      <c r="E135" s="50" t="s">
+      <c r="E135" s="46" t="s">
         <v>584</v>
       </c>
-      <c r="F135" s="50" t="s">
+      <c r="F135" s="46" t="s">
         <v>585</v>
       </c>
-      <c r="G135" s="50" t="s">
+      <c r="G135" s="46" t="s">
         <v>586</v>
       </c>
-      <c r="H135" s="50" t="s">
+      <c r="H135" s="46" t="s">
         <v>587</v>
       </c>
-      <c r="I135" s="50" t="s">
+      <c r="I135" s="46" t="s">
         <v>588</v>
       </c>
-      <c r="J135" s="50" t="s">
+      <c r="J135" s="46" t="s">
         <v>589</v>
       </c>
-      <c r="K135" s="50"/>
-      <c r="L135" s="50"/>
-      <c r="M135" s="51"/>
-    </row>
-    <row r="136" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B136" s="49" t="s">
+      <c r="K135" s="46"/>
+      <c r="L135" s="46"/>
+      <c r="M135" s="47"/>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B136" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="C136" s="50" t="s">
+      <c r="C136" s="46" t="s">
         <v>590</v>
       </c>
-      <c r="D136" s="50" t="s">
+      <c r="D136" s="46" t="s">
         <v>591</v>
       </c>
-      <c r="E136" s="50" t="s">
+      <c r="E136" s="46" t="s">
         <v>592</v>
       </c>
-      <c r="F136" s="50" t="s">
+      <c r="F136" s="46" t="s">
         <v>593</v>
       </c>
-      <c r="G136" s="50" t="s">
+      <c r="G136" s="46" t="s">
         <v>594</v>
       </c>
-      <c r="H136" s="50" t="s">
+      <c r="H136" s="46" t="s">
         <v>595</v>
       </c>
-      <c r="I136" s="50" t="s">
+      <c r="I136" s="46" t="s">
         <v>596</v>
       </c>
-      <c r="J136" s="50" t="s">
+      <c r="J136" s="46" t="s">
         <v>597</v>
       </c>
-      <c r="K136" s="50"/>
-      <c r="L136" s="50"/>
-      <c r="M136" s="51"/>
-    </row>
-    <row r="137" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B137" s="49" t="s">
+      <c r="K136" s="46"/>
+      <c r="L136" s="46"/>
+      <c r="M136" s="47"/>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B137" s="45" t="s">
         <v>598</v>
       </c>
-      <c r="C137" s="50" t="s">
+      <c r="C137" s="46" t="s">
         <v>599</v>
       </c>
-      <c r="D137" s="50" t="s">
+      <c r="D137" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="E137" s="50" t="s">
+      <c r="E137" s="46" t="s">
         <v>600</v>
       </c>
-      <c r="F137" s="50" t="s">
+      <c r="F137" s="46" t="s">
         <v>601</v>
       </c>
-      <c r="G137" s="50" t="s">
+      <c r="G137" s="46" t="s">
         <v>602</v>
       </c>
-      <c r="H137" s="50" t="s">
+      <c r="H137" s="46" t="s">
         <v>603</v>
       </c>
-      <c r="I137" s="50" t="s">
+      <c r="I137" s="46" t="s">
         <v>604</v>
       </c>
-      <c r="J137" s="50" t="s">
+      <c r="J137" s="46" t="s">
         <v>605</v>
       </c>
-      <c r="K137" s="50"/>
-      <c r="L137" s="50"/>
-      <c r="M137" s="51"/>
-    </row>
-    <row r="138" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B138" s="49" t="s">
+      <c r="K137" s="46"/>
+      <c r="L137" s="46"/>
+      <c r="M137" s="47"/>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B138" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C138" s="50" t="s">
+      <c r="C138" s="46" t="s">
         <v>606</v>
       </c>
-      <c r="D138" s="50" t="s">
+      <c r="D138" s="46" t="s">
         <v>607</v>
       </c>
-      <c r="E138" s="50" t="s">
+      <c r="E138" s="46" t="s">
         <v>608</v>
       </c>
-      <c r="F138" s="50" t="s">
+      <c r="F138" s="46" t="s">
         <v>609</v>
       </c>
-      <c r="G138" s="50" t="s">
+      <c r="G138" s="46" t="s">
         <v>610</v>
       </c>
-      <c r="H138" s="50" t="s">
+      <c r="H138" s="46" t="s">
         <v>611</v>
       </c>
-      <c r="I138" s="50" t="s">
+      <c r="I138" s="46" t="s">
         <v>612</v>
       </c>
-      <c r="J138" s="50" t="s">
+      <c r="J138" s="46" t="s">
         <v>613</v>
       </c>
-      <c r="K138" s="50"/>
-      <c r="L138" s="50"/>
-      <c r="M138" s="51"/>
-    </row>
-    <row r="139" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B139" s="49" t="s">
+      <c r="K138" s="46"/>
+      <c r="L138" s="46"/>
+      <c r="M138" s="47"/>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B139" s="45" t="s">
         <v>614</v>
       </c>
-      <c r="C139" s="50" t="s">
+      <c r="C139" s="46" t="s">
         <v>615</v>
       </c>
-      <c r="D139" s="50" t="s">
+      <c r="D139" s="46" t="s">
         <v>616</v>
       </c>
-      <c r="E139" s="50" t="s">
+      <c r="E139" s="46" t="s">
         <v>617</v>
       </c>
-      <c r="F139" s="50" t="s">
+      <c r="F139" s="46" t="s">
         <v>618</v>
       </c>
-      <c r="G139" s="50" t="s">
+      <c r="G139" s="46" t="s">
         <v>619</v>
       </c>
-      <c r="H139" s="50" t="s">
+      <c r="H139" s="46" t="s">
         <v>620</v>
       </c>
-      <c r="I139" s="50" t="s">
+      <c r="I139" s="46" t="s">
         <v>621</v>
       </c>
-      <c r="J139" s="50" t="s">
+      <c r="J139" s="46" t="s">
         <v>622</v>
       </c>
-      <c r="K139" s="50"/>
-      <c r="L139" s="50"/>
-      <c r="M139" s="51"/>
-    </row>
-    <row r="140" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B140" s="49" t="s">
+      <c r="K139" s="46"/>
+      <c r="L139" s="46"/>
+      <c r="M139" s="47"/>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B140" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="C140" s="50" t="s">
+      <c r="C140" s="46" t="s">
         <v>623</v>
       </c>
-      <c r="D140" s="50" t="s">
+      <c r="D140" s="46" t="s">
         <v>624</v>
       </c>
-      <c r="E140" s="50" t="s">
+      <c r="E140" s="46" t="s">
         <v>625</v>
       </c>
-      <c r="F140" s="50" t="s">
+      <c r="F140" s="46" t="s">
         <v>626</v>
       </c>
-      <c r="G140" s="50" t="s">
+      <c r="G140" s="46" t="s">
         <v>627</v>
       </c>
-      <c r="H140" s="50" t="s">
+      <c r="H140" s="46" t="s">
         <v>628</v>
       </c>
-      <c r="I140" s="50" t="s">
+      <c r="I140" s="46" t="s">
         <v>629</v>
       </c>
-      <c r="J140" s="50" t="s">
+      <c r="J140" s="46" t="s">
         <v>630</v>
       </c>
-      <c r="K140" s="50"/>
-      <c r="L140" s="50"/>
-      <c r="M140" s="51"/>
-    </row>
-    <row r="141" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B141" s="49" t="s">
+      <c r="K140" s="46"/>
+      <c r="L140" s="46"/>
+      <c r="M140" s="47"/>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B141" s="45" t="s">
         <v>631</v>
       </c>
-      <c r="C141" s="50" t="s">
+      <c r="C141" s="46" t="s">
         <v>632</v>
       </c>
-      <c r="D141" s="50" t="s">
+      <c r="D141" s="46" t="s">
         <v>633</v>
       </c>
-      <c r="E141" s="50" t="s">
+      <c r="E141" s="46" t="s">
         <v>634</v>
       </c>
-      <c r="F141" s="50" t="s">
+      <c r="F141" s="46" t="s">
         <v>635</v>
       </c>
-      <c r="G141" s="50" t="s">
+      <c r="G141" s="46" t="s">
         <v>636</v>
       </c>
-      <c r="H141" s="50" t="s">
+      <c r="H141" s="46" t="s">
         <v>637</v>
       </c>
-      <c r="I141" s="50" t="s">
+      <c r="I141" s="46" t="s">
         <v>638</v>
       </c>
-      <c r="J141" s="50" t="s">
+      <c r="J141" s="46" t="s">
         <v>639</v>
       </c>
-      <c r="K141" s="50"/>
-      <c r="L141" s="50"/>
-      <c r="M141" s="51"/>
-    </row>
-    <row r="142" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B142" s="49" t="s">
+      <c r="K141" s="46"/>
+      <c r="L141" s="46"/>
+      <c r="M141" s="47"/>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B142" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="C142" s="50" t="s">
+      <c r="C142" s="46" t="s">
         <v>640</v>
       </c>
-      <c r="D142" s="50" t="s">
+      <c r="D142" s="46" t="s">
         <v>641</v>
       </c>
-      <c r="E142" s="50" t="s">
+      <c r="E142" s="46" t="s">
         <v>642</v>
       </c>
-      <c r="F142" s="50" t="s">
+      <c r="F142" s="46" t="s">
         <v>643</v>
       </c>
-      <c r="G142" s="50" t="s">
+      <c r="G142" s="46" t="s">
         <v>644</v>
       </c>
-      <c r="H142" s="50" t="s">
+      <c r="H142" s="46" t="s">
         <v>645</v>
       </c>
-      <c r="I142" s="50" t="s">
+      <c r="I142" s="46" t="s">
         <v>646</v>
       </c>
-      <c r="J142" s="50" t="s">
+      <c r="J142" s="46" t="s">
         <v>647</v>
       </c>
-      <c r="K142" s="50"/>
-      <c r="L142" s="50"/>
-      <c r="M142" s="51"/>
-    </row>
-    <row r="143" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B143" s="49" t="s">
+      <c r="K142" s="46"/>
+      <c r="L142" s="46"/>
+      <c r="M142" s="47"/>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B143" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="C143" s="50" t="s">
+      <c r="C143" s="46" t="s">
         <v>648</v>
       </c>
-      <c r="D143" s="50" t="s">
+      <c r="D143" s="46" t="s">
         <v>649</v>
       </c>
-      <c r="E143" s="50" t="s">
+      <c r="E143" s="46" t="s">
         <v>650</v>
       </c>
-      <c r="F143" s="50" t="s">
+      <c r="F143" s="46" t="s">
         <v>651</v>
       </c>
-      <c r="G143" s="50" t="s">
+      <c r="G143" s="46" t="s">
         <v>652</v>
       </c>
-      <c r="H143" s="50" t="s">
+      <c r="H143" s="46" t="s">
         <v>653</v>
       </c>
-      <c r="I143" s="50" t="s">
+      <c r="I143" s="46" t="s">
         <v>654</v>
       </c>
-      <c r="J143" s="50" t="s">
+      <c r="J143" s="46" t="s">
         <v>655</v>
       </c>
-      <c r="K143" s="50"/>
-      <c r="L143" s="50"/>
-      <c r="M143" s="51"/>
-    </row>
-    <row r="144" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B144" s="49" t="s">
+      <c r="K143" s="46"/>
+      <c r="L143" s="46"/>
+      <c r="M143" s="47"/>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B144" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="C144" s="50" t="s">
+      <c r="C144" s="46" t="s">
         <v>656</v>
       </c>
-      <c r="D144" s="50" t="s">
+      <c r="D144" s="46" t="s">
         <v>657</v>
       </c>
-      <c r="E144" s="50" t="s">
+      <c r="E144" s="46" t="s">
         <v>658</v>
       </c>
-      <c r="F144" s="50" t="s">
+      <c r="F144" s="46" t="s">
         <v>659</v>
       </c>
-      <c r="G144" s="50" t="s">
+      <c r="G144" s="46" t="s">
         <v>660</v>
       </c>
-      <c r="H144" s="50" t="s">
+      <c r="H144" s="46" t="s">
         <v>661</v>
       </c>
-      <c r="I144" s="50" t="s">
+      <c r="I144" s="46" t="s">
         <v>662</v>
       </c>
-      <c r="J144" s="50" t="s">
+      <c r="J144" s="46" t="s">
         <v>663</v>
       </c>
-      <c r="K144" s="50"/>
-      <c r="L144" s="50"/>
-      <c r="M144" s="51"/>
-    </row>
-    <row r="145" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B145" s="49" t="s">
+      <c r="K144" s="46"/>
+      <c r="L144" s="46"/>
+      <c r="M144" s="47"/>
+    </row>
+    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B145" s="45" t="s">
         <v>664</v>
       </c>
-      <c r="C145" s="50" t="s">
+      <c r="C145" s="46" t="s">
         <v>665</v>
       </c>
-      <c r="D145" s="50" t="s">
+      <c r="D145" s="46" t="s">
         <v>666</v>
       </c>
-      <c r="E145" s="50" t="s">
+      <c r="E145" s="46" t="s">
         <v>667</v>
       </c>
-      <c r="F145" s="50" t="s">
+      <c r="F145" s="46" t="s">
         <v>668</v>
       </c>
-      <c r="G145" s="50" t="s">
+      <c r="G145" s="46" t="s">
         <v>669</v>
       </c>
-      <c r="H145" s="50" t="s">
+      <c r="H145" s="46" t="s">
         <v>670</v>
       </c>
-      <c r="I145" s="50" t="s">
+      <c r="I145" s="46" t="s">
         <v>671</v>
       </c>
-      <c r="J145" s="50" t="s">
+      <c r="J145" s="46" t="s">
         <v>672</v>
       </c>
-      <c r="K145" s="50"/>
-      <c r="L145" s="50"/>
-      <c r="M145" s="51"/>
-    </row>
-    <row r="146" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B146" s="49" t="s">
+      <c r="K145" s="46"/>
+      <c r="L145" s="46"/>
+      <c r="M145" s="47"/>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B146" s="45" t="s">
         <v>116</v>
       </c>
-      <c r="C146" s="50" t="s">
+      <c r="C146" s="46" t="s">
         <v>673</v>
       </c>
-      <c r="D146" s="50" t="s">
+      <c r="D146" s="46" t="s">
         <v>674</v>
       </c>
-      <c r="E146" s="50" t="s">
+      <c r="E146" s="46" t="s">
         <v>675</v>
       </c>
-      <c r="F146" s="50" t="s">
+      <c r="F146" s="46" t="s">
         <v>676</v>
       </c>
-      <c r="G146" s="50" t="s">
+      <c r="G146" s="46" t="s">
         <v>677</v>
       </c>
-      <c r="H146" s="50" t="s">
+      <c r="H146" s="46" t="s">
         <v>678</v>
       </c>
-      <c r="I146" s="50" t="s">
+      <c r="I146" s="46" t="s">
         <v>679</v>
       </c>
-      <c r="J146" s="50" t="s">
+      <c r="J146" s="46" t="s">
         <v>680</v>
       </c>
-      <c r="K146" s="50"/>
-      <c r="L146" s="50"/>
-      <c r="M146" s="51"/>
-    </row>
-    <row r="147" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B147" s="49" t="s">
+      <c r="K146" s="46"/>
+      <c r="L146" s="46"/>
+      <c r="M146" s="47"/>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B147" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="C147" s="50" t="s">
+      <c r="C147" s="46" t="s">
         <v>681</v>
       </c>
-      <c r="D147" s="50" t="s">
+      <c r="D147" s="46" t="s">
         <v>682</v>
       </c>
-      <c r="E147" s="50" t="s">
+      <c r="E147" s="46" t="s">
         <v>683</v>
       </c>
-      <c r="F147" s="50" t="s">
+      <c r="F147" s="46" t="s">
         <v>684</v>
       </c>
-      <c r="G147" s="50" t="s">
+      <c r="G147" s="46" t="s">
         <v>685</v>
       </c>
-      <c r="H147" s="50" t="s">
+      <c r="H147" s="46" t="s">
         <v>686</v>
       </c>
-      <c r="I147" s="50" t="s">
+      <c r="I147" s="46" t="s">
         <v>687</v>
       </c>
-      <c r="J147" s="50" t="s">
+      <c r="J147" s="46" t="s">
         <v>688</v>
       </c>
-      <c r="K147" s="50"/>
-      <c r="L147" s="50"/>
-      <c r="M147" s="51"/>
-    </row>
-    <row r="148" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B148" s="49" t="s">
+      <c r="K147" s="46"/>
+      <c r="L147" s="46"/>
+      <c r="M147" s="47"/>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B148" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="C148" s="50" t="s">
+      <c r="C148" s="46" t="s">
         <v>689</v>
       </c>
-      <c r="D148" s="50" t="s">
+      <c r="D148" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="E148" s="50" t="s">
+      <c r="E148" s="46" t="s">
         <v>690</v>
       </c>
-      <c r="F148" s="50" t="s">
+      <c r="F148" s="46" t="s">
         <v>691</v>
       </c>
-      <c r="G148" s="50" t="s">
+      <c r="G148" s="46" t="s">
         <v>692</v>
       </c>
-      <c r="H148" s="50" t="s">
+      <c r="H148" s="46" t="s">
         <v>693</v>
       </c>
-      <c r="I148" s="50" t="s">
+      <c r="I148" s="46" t="s">
         <v>694</v>
       </c>
-      <c r="J148" s="50" t="s">
+      <c r="J148" s="46" t="s">
         <v>695</v>
       </c>
-      <c r="K148" s="50"/>
-      <c r="L148" s="50"/>
-      <c r="M148" s="51"/>
-    </row>
-    <row r="149" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B149" s="49" t="s">
+      <c r="K148" s="46"/>
+      <c r="L148" s="46"/>
+      <c r="M148" s="47"/>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B149" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="C149" s="50" t="s">
+      <c r="C149" s="46" t="s">
         <v>696</v>
       </c>
-      <c r="D149" s="50" t="s">
+      <c r="D149" s="46" t="s">
         <v>697</v>
       </c>
-      <c r="E149" s="50" t="s">
+      <c r="E149" s="46" t="s">
         <v>698</v>
       </c>
-      <c r="F149" s="50" t="s">
+      <c r="F149" s="46" t="s">
         <v>699</v>
       </c>
-      <c r="G149" s="50" t="s">
+      <c r="G149" s="46" t="s">
         <v>700</v>
       </c>
-      <c r="H149" s="50" t="s">
+      <c r="H149" s="46" t="s">
         <v>701</v>
       </c>
-      <c r="I149" s="50" t="s">
+      <c r="I149" s="46" t="s">
         <v>702</v>
       </c>
-      <c r="J149" s="50" t="s">
+      <c r="J149" s="46" t="s">
         <v>703</v>
       </c>
-      <c r="K149" s="50"/>
-      <c r="L149" s="50"/>
-      <c r="M149" s="51"/>
-    </row>
-    <row r="150" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B150" s="49" t="s">
+      <c r="K149" s="46"/>
+      <c r="L149" s="46"/>
+      <c r="M149" s="47"/>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B150" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="C150" s="50" t="s">
+      <c r="C150" s="46" t="s">
         <v>704</v>
       </c>
-      <c r="D150" s="50" t="s">
+      <c r="D150" s="46" t="s">
         <v>705</v>
       </c>
-      <c r="E150" s="50" t="s">
+      <c r="E150" s="46" t="s">
         <v>706</v>
       </c>
-      <c r="F150" s="50" t="s">
+      <c r="F150" s="46" t="s">
         <v>707</v>
       </c>
-      <c r="G150" s="50" t="s">
+      <c r="G150" s="46" t="s">
         <v>708</v>
       </c>
-      <c r="H150" s="50" t="s">
+      <c r="H150" s="46" t="s">
         <v>709</v>
       </c>
-      <c r="I150" s="50" t="s">
+      <c r="I150" s="46" t="s">
         <v>710</v>
       </c>
-      <c r="J150" s="50" t="s">
+      <c r="J150" s="46" t="s">
         <v>711</v>
       </c>
-      <c r="K150" s="50"/>
-      <c r="L150" s="50"/>
-      <c r="M150" s="51"/>
-    </row>
-    <row r="151" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B151" s="49" t="s">
+      <c r="K150" s="46"/>
+      <c r="L150" s="46"/>
+      <c r="M150" s="47"/>
+    </row>
+    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B151" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="C151" s="50" t="s">
+      <c r="C151" s="46" t="s">
         <v>712</v>
       </c>
-      <c r="D151" s="50" t="s">
+      <c r="D151" s="46" t="s">
         <v>713</v>
       </c>
-      <c r="E151" s="50" t="s">
+      <c r="E151" s="46" t="s">
         <v>714</v>
       </c>
-      <c r="F151" s="50" t="s">
+      <c r="F151" s="46" t="s">
         <v>715</v>
       </c>
-      <c r="G151" s="50" t="s">
+      <c r="G151" s="46" t="s">
         <v>716</v>
       </c>
-      <c r="H151" s="50" t="s">
+      <c r="H151" s="46" t="s">
         <v>717</v>
       </c>
-      <c r="I151" s="50" t="s">
+      <c r="I151" s="46" t="s">
         <v>718</v>
       </c>
-      <c r="J151" s="50" t="s">
+      <c r="J151" s="46" t="s">
         <v>719</v>
       </c>
-      <c r="K151" s="50"/>
-      <c r="L151" s="50"/>
-      <c r="M151" s="51"/>
-    </row>
-    <row r="152" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B152" s="49" t="s">
+      <c r="K151" s="46"/>
+      <c r="L151" s="46"/>
+      <c r="M151" s="47"/>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B152" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="C152" s="50" t="s">
+      <c r="C152" s="46" t="s">
         <v>720</v>
       </c>
-      <c r="D152" s="50" t="s">
+      <c r="D152" s="46" t="s">
         <v>721</v>
       </c>
-      <c r="E152" s="50" t="s">
+      <c r="E152" s="46" t="s">
         <v>722</v>
       </c>
-      <c r="F152" s="50" t="s">
+      <c r="F152" s="46" t="s">
         <v>723</v>
       </c>
-      <c r="G152" s="50" t="s">
+      <c r="G152" s="46" t="s">
         <v>724</v>
       </c>
-      <c r="H152" s="50" t="s">
+      <c r="H152" s="46" t="s">
         <v>725</v>
       </c>
-      <c r="I152" s="50" t="s">
+      <c r="I152" s="46" t="s">
         <v>726</v>
       </c>
-      <c r="J152" s="50" t="s">
+      <c r="J152" s="46" t="s">
         <v>727</v>
       </c>
-      <c r="K152" s="50"/>
-      <c r="L152" s="50"/>
-      <c r="M152" s="51"/>
-    </row>
-    <row r="153" spans="2:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="B153" s="49" t="s">
+      <c r="K152" s="46"/>
+      <c r="L152" s="46"/>
+      <c r="M152" s="47"/>
+    </row>
+    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B153" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="C153" s="50" t="s">
+      <c r="C153" s="46" t="s">
         <v>728</v>
       </c>
-      <c r="D153" s="50" t="s">
+      <c r="D153" s="46" t="s">
         <v>729</v>
       </c>
-      <c r="E153" s="50" t="s">
+      <c r="E153" s="46" t="s">
         <v>730</v>
       </c>
-      <c r="F153" s="50" t="s">
+      <c r="F153" s="46" t="s">
         <v>731</v>
       </c>
-      <c r="G153" s="50" t="s">
+      <c r="G153" s="46" t="s">
         <v>732</v>
       </c>
-      <c r="H153" s="50" t="s">
+      <c r="H153" s="46" t="s">
         <v>733</v>
       </c>
-      <c r="I153" s="50" t="s">
+      <c r="I153" s="46" t="s">
         <v>734</v>
       </c>
-      <c r="J153" s="50" t="s">
+      <c r="J153" s="46" t="s">
         <v>735</v>
       </c>
-      <c r="K153" s="50"/>
-      <c r="L153" s="50"/>
-      <c r="M153" s="51"/>
+      <c r="K153" s="46"/>
+      <c r="L153" s="46"/>
+      <c r="M153" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
